--- a/Pokemon_Server/data/pkm_abilities.xlsx
+++ b/Pokemon_Server/data/pkm_abilities.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1055" uniqueCount="1006">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1347" uniqueCount="1008">
   <si>
     <t>shield</t>
   </si>
@@ -400,12 +400,6 @@
     <t>Shadow Shield</t>
   </si>
   <si>
-    <t>This Pokémon's stats cannot be lowered by other Pokémon's moves or abilities.  This effect only applies to normal stat modifications and not more exotic effects such as []{move:topsy-turvy} or []{move:power-swap}.\n\nThis Ability is not bypassed by []{ability:mold-breaker}, []{ability:teravolt}, or []{ability:turboblaze}.</t>
-  </si>
-  <si>
-    <t>Other Pokémon cannot lower this Pokémon's stats.</t>
-  </si>
-  <si>
     <t>full-metal-body</t>
   </si>
   <si>
@@ -460,21 +454,12 @@
     <t>Electric Surge</t>
   </si>
   <si>
-    <t>Changes this Pokémon's type to match its held Memory.\n\nThis ability cannot be copied, replaced, or nullified.  This ability only takes effect for Silvally.</t>
-  </si>
-  <si>
-    <t>Changes this Pokémon's type to match its held Memory.</t>
-  </si>
-  <si>
     <t>rks-system</t>
   </si>
   <si>
     <t>RKS System</t>
   </si>
   <si>
-    <t>Raises this Pokémon's highest stat by one stage when it faints another Pokémon.</t>
-  </si>
-  <si>
     <t>beast-boost</t>
   </si>
   <si>
@@ -496,18 +481,12 @@
     <t>Receiver</t>
   </si>
   <si>
-    <t>When this Pokémon takes regular damage from a contact move, the attacking Pokémon's Speed lowers by one stage.</t>
-  </si>
-  <si>
     <t>tangling-hair</t>
   </si>
   <si>
     <t>Tangling Hair</t>
   </si>
   <si>
-    <t>This Pokémon's Special Attack rises by one stage every time any Pokémon faints.</t>
-  </si>
-  <si>
     <t>soul-heart</t>
   </si>
   <si>
@@ -535,9 +514,6 @@
     <t>Fluffy</t>
   </si>
   <si>
-    <t>Ally Pokémon's moves have their power increased to 1.3×.</t>
-  </si>
-  <si>
     <t>battery</t>
   </si>
   <si>
@@ -553,9 +529,6 @@
     <t>Dancer</t>
   </si>
   <si>
-    <t>When this Pokémon faints from an opponent's move, that opponent takes damage equal to the HP this Pokémon had remaining.</t>
-  </si>
-  <si>
     <t>innards-out</t>
   </si>
   <si>
@@ -568,9 +541,6 @@
     <t>Queenly Majesty</t>
   </si>
   <si>
-    <t>This Pokémon always acts as though it were Asleep.  It cannot be given another status ailment; it's unaffected by []{move:yawn}; it can use []{move:sleep-talk}; and so on.</t>
-  </si>
-  <si>
     <t>This Pokémon always  acts as though it were Asleep.</t>
   </si>
   <si>
@@ -580,9 +550,6 @@
     <t>Comatose</t>
   </si>
   <si>
-    <t>This Pokémon's moves and item ignore the usual immunity of Poison and Steel Pokémon when attempting to inflict poison.</t>
-  </si>
-  <si>
     <t>This Pokémon can inflict poison on Poison and Steel Pokémon.</t>
   </si>
   <si>
@@ -604,12 +571,6 @@
     <t>Power Construct</t>
   </si>
   <si>
-    <t>Transforms this Pokémon into Ash-Greninja after fainting an opponent.  Water Shuriken's power is 20 and always hits three times.\n\nThis ability cannot be copied or replaced.  This ability only takes effect for Greninja.</t>
-  </si>
-  <si>
-    <t>Transforms this Pokémon into Ash-Greninja after fainting an opponent.  Water Shuriken's power is 20 and always hits three times.</t>
-  </si>
-  <si>
     <t>battle-bond</t>
   </si>
   <si>
@@ -640,9 +601,6 @@
     <t>Schooling</t>
   </si>
   <si>
-    <t>Doubles this Pokémon's Speed on Electric Terrain.</t>
-  </si>
-  <si>
     <t>surge-surfer</t>
   </si>
   <si>
@@ -652,27 +610,18 @@
     <t>When this Pokémon uses a Normal moves, that move is Electric its power is 1.2×.</t>
   </si>
   <si>
-    <t>This Pokémon's Normal moves are Electric and have their power increased to 1.2×.</t>
-  </si>
-  <si>
     <t>galvanize</t>
   </si>
   <si>
     <t>Galvanize</t>
   </si>
   <si>
-    <t>This Pokémon's healing moves have their priority increased by 3.</t>
-  </si>
-  <si>
     <t>triage</t>
   </si>
   <si>
     <t>Triage</t>
   </si>
   <si>
-    <t>When this Pokémon uses a move that is sound-based, that move's type is Water.</t>
-  </si>
-  <si>
     <t>Sound-based moves become Water-type.</t>
   </si>
   <si>
@@ -685,9 +634,6 @@
     <t>A move used by this Pokémon will not make contact.</t>
   </si>
   <si>
-    <t>This Pokémon's moves do not make contact.</t>
-  </si>
-  <si>
     <t>long-reach</t>
   </si>
   <si>
@@ -706,18 +652,12 @@
     <t>Whenever this Pokémon takes damage from a move that causes its HP to drop below 50%, its Special Attack rises by one stage.</t>
   </si>
   <si>
-    <t>Raises this Pokémon's Special Attack by one stage every time its HP drops below half.</t>
-  </si>
-  <si>
     <t>berserk</t>
   </si>
   <si>
     <t>Berserk</t>
   </si>
   <si>
-    <t>This Pokémon's Steel moves have 1.5× power.</t>
-  </si>
-  <si>
     <t>steelworker</t>
   </si>
   <si>
@@ -736,9 +676,6 @@
     <t>Water Bubble</t>
   </si>
   <si>
-    <t>This Pokémon's moves have double power against Pokémon that switched in this turn.</t>
-  </si>
-  <si>
     <t>stakeout</t>
   </si>
   <si>
@@ -754,27 +691,18 @@
     <t>Shields Down</t>
   </si>
   <si>
-    <t>This Pokémon's moves critical hit against poisoned targets.</t>
-  </si>
-  <si>
     <t>merciless</t>
   </si>
   <si>
     <t>Merciless</t>
   </si>
   <si>
-    <t>Raises this Pokémon's Defense by two stages when it's hit by a Water move.</t>
-  </si>
-  <si>
     <t>water-compaction</t>
   </si>
   <si>
     <t>Water Compaction</t>
   </si>
   <si>
-    <t>After this Pokémon is hit by a move, if that move caused this Pokémon's HP to drop below half, it switches out.</t>
-  </si>
-  <si>
     <t>This Pokémon automatically switches out when its HP drops below half.</t>
   </si>
   <si>
@@ -790,9 +718,6 @@
     <t>Wimp Out</t>
   </si>
   <si>
-    <t>Raises this Pokémon's Defense by one stage when it takes damage from a move.</t>
-  </si>
-  <si>
     <t>stamina</t>
   </si>
   <si>
@@ -880,33 +805,18 @@
     <t>Parental Bond</t>
   </si>
   <si>
-    <t>Turns the bearer's []{type:normal}-type moves into []{type:flying}-type moves.  Moves changed by this ability have 1.3× their power.</t>
-  </si>
-  <si>
-    <t>Turns the bearer's []{type:normal} moves into []{type:flying} moves and strengthens them to 1.3× their power.</t>
-  </si>
-  <si>
     <t>aerilate</t>
   </si>
   <si>
     <t>Aerilate</t>
   </si>
   <si>
-    <t>Lowers attacking Pokémon's Speed by one stage on contact.</t>
-  </si>
-  <si>
     <t>gooey</t>
   </si>
   <si>
     <t>Gooey</t>
   </si>
   <si>
-    <t>Turns the bearer's []{type:normal}-type moves into []{type:fairy} moves.  Moves changed by this ability have 1.3× their power.</t>
-  </si>
-  <si>
-    <t>Turns the bearer's []{type:normal} moves into []{type:fairy} moves and strengthens them to 1.3× their power.</t>
-  </si>
-  <si>
     <t>pixilate</t>
   </si>
   <si>
@@ -922,9 +832,6 @@
     <t>Tough Claws</t>
   </si>
   <si>
-    <t>Passes the bearer's held item to an ally when the ally uses up its item.</t>
-  </si>
-  <si>
     <t>symbiosis</t>
   </si>
   <si>
@@ -949,9 +856,6 @@
     <t>Mega Launcher</t>
   </si>
   <si>
-    <t>Raises []{type:flying} moves' priority by one stage.</t>
-  </si>
-  <si>
     <t>gale-wings</t>
   </si>
   <si>
@@ -976,12 +880,6 @@
     <t>Sweet Veil</t>
   </si>
   <si>
-    <t>Turns the bearer's []{type:normal}-type moves into []{type:ice}-type moves.  Moves changed by this ability have 1.3× their power.</t>
-  </si>
-  <si>
-    <t>Turns the bearer's []{type:normal} moves into []{type:ice} moves and strengthens them to 1.3× their power.</t>
-  </si>
-  <si>
     <t>refrigerate</t>
   </si>
   <si>
@@ -1015,9 +913,6 @@
     <t>Bulletproof</t>
   </si>
   <si>
-    <t>Steals the target's held item when the bearer uses a damaging move.</t>
-  </si>
-  <si>
     <t>magician</t>
   </si>
   <si>
@@ -1033,21 +928,12 @@
     <t>Fur Coat</t>
   </si>
   <si>
-    <t>Changes the bearer's type to match each move it uses.\n\nThe type change takes place just before the move is used.</t>
-  </si>
-  <si>
-    <t>Changes the bearer's type to match each move it uses.</t>
-  </si>
-  <si>
     <t>protean</t>
   </si>
   <si>
     <t>Protean</t>
   </si>
   <si>
-    <t>Restores HP upon eating a Berry, in addition to the Berry's effect.</t>
-  </si>
-  <si>
     <t>cheek-pouch</t>
   </si>
   <si>
@@ -1072,33 +958,18 @@
     <t>Aroma Veil</t>
   </si>
   <si>
-    <t>This Pokémon's moves completely ignore abilities that could hinder or prevent their effect on the target.\n\nFor example, this Pokémon's moves ignore abilities that would fully negate them, such as []{ability:water-absorb}; abilities that would prevent any of their effects, such as []{ability:clear-body}, []{ability:shell-armor}, or []{ability:sticky-hold}; and abilities that grant any general protective benefit, such as []{ability:simple}, []{ability:snow-cloak}, or []{ability:thick-fat}.  If an ability could either hinder or help this Pokémon's moves, e.g. []{ability:dry-skin} or []{ability:unaware}, the ability is ignored either way.\n\nAbilities that do not fit this description, even if they could hinder moves in some other way, are not affected.  For example, []{ability:cursed-body} only affects potential future uses of the move, while []{ability:liquid-ooze} and []{ability:shadow-tag} can only hinder a move's effect on the user.  This ablity cannot ignore type or form changes granted by abilities, for example []{ability:color-change} or []{ability:forecast}; nor effects that were caused by abilities but are no longer tied to an ability, such as the rain from []{ability:drizzle}.  This ability cannot ignore []{ability:multitype} at all.\n\nAn ability ignored by this ability is only nullified while the move is being used.  For example, this Pokémon's moves can [paralyze]{mechanic:paralysis} a Pokémon with []{ability:limber}, but Limber will activate and heal the paralysis immediately thereafter, and this Pokémon's []{move:spikes} are not affected by this ability after they have been placed.\n\nWhen this Pokémon enters battle, all participating trainers are notified that it has this ability.\n\nThis ability functions identically to []{ability:mold-breaker} and []{ability:turboblaze}.</t>
-  </si>
-  <si>
-    <t>Bypasses targets' abilities if they could hinder or prevent moves.</t>
-  </si>
-  <si>
     <t>teravolt</t>
   </si>
   <si>
     <t>Teravolt</t>
   </si>
   <si>
-    <t>This Pokémon's moves completely ignore abilities that could hinder or prevent their effect on the target.\n\nFor example, this Pokémon's moves ignore abilities that would fully negate them, such as []{ability:water-absorb}; abilities that would prevent any of their effects, such as []{ability:clear-body}, []{ability:shell-armor}, or []{ability:sticky-hold}; and abilities that grant any general protective benefit, such as []{ability:simple}, []{ability:snow-cloak}, or []{ability:thick-fat}.  If an ability could either hinder or help this Pokémon's moves, e.g. []{ability:dry-skin} or []{ability:unaware}, the ability is ignored either way.\n\nAbilities that do not fit this description, even if they could hinder moves in some other way, are not affected.  For example, []{ability:cursed-body} only affects potential future uses of the move, while []{ability:liquid-ooze} and []{ability:shadow-tag} can only hinder a move's effect on the user.  This ablity cannot ignore type or form changes granted by abilities, for example []{ability:color-change} or []{ability:forecast}; nor effects that were caused by abilities but are no longer tied to an ability, such as the rain from []{ability:drizzle}.  This ability cannot ignore []{ability:multitype} at all.\n\nAn ability ignored by this ability is only nullified while the move is being used.  For example, this Pokémon's moves can [paralyze]{mechanic:paralysis} a Pokémon with []{ability:limber}, but Limber will activate and heal the paralysis immediately thereafter, and this Pokémon's []{move:spikes} are not affected by this ability after they have been placed.\n\nWhen this Pokémon enters battle, all participating trainers are notified that it has this ability.\n\nThis ability functions identically to []{ability:mold-breaker} and []{ability:teravolt}.</t>
-  </si>
-  <si>
     <t>turboblaze</t>
   </si>
   <si>
     <t>Turboblaze</t>
   </si>
   <si>
-    <t>All friendly Pokémon's moves, including this Pokémon's own moves, have 1.1× their usual accuracy while this Pokémon is in battle.</t>
-  </si>
-  <si>
-    <t>Increases moves' accuracy to 1.1× for friendly Pokémon.</t>
-  </si>
-  <si>
     <t>victory-star</t>
   </si>
   <si>
@@ -1108,18 +979,12 @@
     <t>This Pokémon switches between Standard Mode and Zen Mode after each turn depending on its [HP]{mechanic:hp}.  Below 50% of its maximum HP, it switches to Zen Mode, and at 50% or above, it switches to Standard Mode.\n\nThis Pokémon returns to Standard Mode upon leaving battle or losing this ability.  This ability has no effect if this Pokémon is not a []{pokemon:darmanitan}.</t>
   </si>
   <si>
-    <t>Changes []{pokemon:darmanitan}'s form after each turn depending on its [HP]{mechanic:hp}: Zen Mode below 50% max HP, and Standard Mode otherwise.</t>
-  </si>
-  <si>
     <t>zen-mode</t>
   </si>
   <si>
     <t>Zen Mode</t>
   </si>
   <si>
-    <t>Whenever a move makes contact with this Pokémon, the move's user takes 1/8 of its maximum [HP]{mechanic:hp} in damage.\n\nThis ability functions identically to []{ability:rough-skin}.</t>
-  </si>
-  <si>
     <t>Damages attacking Pokémon for 1/8 their max [HP]{mechanic:hp} on contact.</t>
   </si>
   <si>
@@ -1129,9 +994,6 @@
     <t>Iron Barbs</t>
   </si>
   <si>
-    <t>During a [sandstorm]{mechanic:sandstorm}, this Pokémon's []{type:rock}-, []{type:ground}-, and []{type:steel}-type moves have 1.3× their base power.  This Pokémon does not take sandstorm damage, regardless of type.</t>
-  </si>
-  <si>
     <t>Strengthens []{type:rock}, []{type:ground}, and []{type:steel} moves to 1.3× their power during a [sandstorm]{mechanic:sandstorm}.  Protects against sandstorm damage.</t>
   </si>
   <si>
@@ -1141,12 +1003,6 @@
     <t>Sand Force</t>
   </si>
   <si>
-    <t>This Pokémon's non-damaging moves have their priority increased by one stage.</t>
-  </si>
-  <si>
-    <t>Raises non-damaging moves' priority by one stage.</t>
-  </si>
-  <si>
     <t>prankster</t>
   </si>
   <si>
@@ -1177,9 +1033,6 @@
     <t>Magic Bounce</t>
   </si>
   <si>
-    <t>This Pokémon's [Speed]{mechanic:speed} rises one stage with each hit from a damaging []{type:dark}-, []{type:ghost}-, or []{type:bug}-type move.</t>
-  </si>
-  <si>
     <t>Raises [Speed]{mechanic:speed} one [stage]{mechanic:stat-modifier} upon being hit by a []{type:dark}, []{type:ghost}, or []{type:bug} move.</t>
   </si>
   <si>
@@ -1201,9 +1054,6 @@
     <t>Justified</t>
   </si>
   <si>
-    <t>This Pokémon's [Attack]{mechanic:attack} rises one stage upon knocking out another Pokémon, even a friendly Pokémon.\n\nThis ability does not take effect when the Pokémon indirectly causes another Pokémon to faint, e.g. through [poison]{mechanic:poison} or []{move:spikes}.\n\nIf this Pokémon knocks out a Pokémon with []{ability:mummy}, the former's ability will change without taking effect.</t>
-  </si>
-  <si>
     <t>Raises [Attack]{mechanic:attack} one stage upon KOing a Pokémon.</t>
   </si>
   <si>
@@ -1213,21 +1063,12 @@
     <t>Moxie</t>
   </si>
   <si>
-    <t>Whenever a contact move hits this Pokémon, the attacking Pokémon's ability changes to Mummy.\n\n[]{ability:multitype} is unaffected.  If a Pokémon with []{ability:moxie} knocks this Pokémon out, the former's ability will change without taking effect.</t>
-  </si>
-  <si>
-    <t>Changes attacking Pokémon's abilities to Mummy on contact.</t>
-  </si>
-  <si>
     <t>mummy</t>
   </si>
   <si>
     <t>Mummy</t>
   </si>
   <si>
-    <t>This Pokémon's moves ignore []{move:light-screen}, []{move:reflect}, and []{move:safeguard}.</t>
-  </si>
-  <si>
     <t>Bypasses []{move:light-screen}, []{move:reflect}, and []{move:safeguard}.</t>
   </si>
   <si>
@@ -1261,9 +1102,6 @@
     <t>Illusion</t>
   </si>
   <si>
-    <t>This Pokémon's moves have 1.3× their power when it moves last in a turn.\n\n[]{move:future-sight} and []{move:doom-desire} are unaffected.</t>
-  </si>
-  <si>
     <t>Strengthens moves to 1.3× their power when moving last.</t>
   </si>
   <si>
@@ -1276,27 +1114,18 @@
     <t>Non-damaging moves have exactly 50% base [accuracy]{mechanic:accuracy} against this Pokémon.</t>
   </si>
   <si>
-    <t>Lowers incoming non-damaging moves' base [accuracy]{mechanic:accuracy} to exactly 50%.</t>
-  </si>
-  <si>
     <t>wonder-skin</t>
   </si>
   <si>
     <t>Wonder Skin</t>
   </si>
   <si>
-    <t>This Pokémon's [Speed]{mechanic:speed} is doubled during a [sandstorm]{mechanic:sandstorm}, and it does not take sandstorm damage, regardless of type.</t>
-  </si>
-  <si>
     <t>sand-rush</t>
   </si>
   <si>
     <t>Sand Rush</t>
   </si>
   <si>
-    <t>This Pokémon's [Defense]{mechanic:defense} cannot be [lowered]{mechanic:stat-modifiers} by other Pokémon.\n\nThis Pokémon can still be passed negative Defense modifiers through []{move:heart-swap} or []{move:guard-swap}.</t>
-  </si>
-  <si>
     <t>Protects against [Defense]{mechanic:defense} drops.</t>
   </si>
   <si>
@@ -1318,9 +1147,6 @@
     <t>Regenerator</t>
   </si>
   <si>
-    <t>This Pokémon's contact moves have a 30% chance of [poisoning]{mechanic:poison} the target with each hit.\n\nThis counts as an extra effect for the purposes of []{ability:shield-dust}.  This ability takes effect before []{ability:mummy}.</t>
-  </si>
-  <si>
     <t>Has a 30% chance of [poisoning]{mechanic:poison} target Pokémon upon contact.</t>
   </si>
   <si>
@@ -1342,9 +1168,6 @@
     <t>Overcoat</t>
   </si>
   <si>
-    <t>After each turn, one of this Pokémon's stats at random rises two [stages]{mechanic:stat-modifier}, and another falls one stage.\n\nIf a stat is already at 6 or -6 stages, it will not be chosen to be increased or decreased, respectively.</t>
-  </si>
-  <si>
     <t>Raises a random stat two [stages]{mechanic:stat-modifier} and lowers another one stage after each turn.</t>
   </si>
   <si>
@@ -1354,12 +1177,6 @@
     <t>Moody</t>
   </si>
   <si>
-    <t>This Pokémon does not take damage from friendly Pokémon's moves, including single-target moves aimed at it.</t>
-  </si>
-  <si>
-    <t>Protects against friendly Pokémon's damaging moves.</t>
-  </si>
-  <si>
     <t>telepathy</t>
   </si>
   <si>
@@ -1417,9 +1234,6 @@
     <t>This Pokémon has half the usual weight for its species.</t>
   </si>
   <si>
-    <t>Halves the Pokémon's weight.</t>
-  </si>
-  <si>
     <t>light-metal</t>
   </si>
   <si>
@@ -1429,9 +1243,6 @@
     <t>This Pokémon has double the usual weight for its species.</t>
   </si>
   <si>
-    <t>Doubles the Pokémon's weight.</t>
-  </si>
-  <si>
     <t>heavy-metal</t>
   </si>
   <si>
@@ -1486,9 +1297,6 @@
     <t>Cursed Body</t>
   </si>
   <si>
-    <t>This Pokémon's [Attack]{mechanic:attack} and [Special Attack]{mechanic:special-attack} are halved when it has half its [HP]{mechanic:hp} or less.</t>
-  </si>
-  <si>
     <t>Halves [Attack]{mechanic:attack} and [Special Attack]{mechanic:special-attack} at 50% max [HP]{mechanic:hp} or less.</t>
   </si>
   <si>
@@ -1498,9 +1306,6 @@
     <t>Defeatist</t>
   </si>
   <si>
-    <t>When any of this Pokémon's stats are [lowered]{mechanic:stat-modifier}, its [Attack]{mechanic:attack} rises by two stages.\n\nIf multiple stats are lowered at once, this ability takes effect with each stat lowered.</t>
-  </si>
-  <si>
     <t>Raises [Attack]{mechanic:attack} two [stages]{mechanic:stat-modifier} upon having any stat lowered.</t>
   </si>
   <si>
@@ -1510,9 +1315,6 @@
     <t>Defiant</t>
   </si>
   <si>
-    <t>Opposing Pokémon cannot eat held Berries while this Pokémon is in battle.\n\nAffected Pokémon can still use []{move:bug-bite} or []{move:pluck} to eat a target's Berry.</t>
-  </si>
-  <si>
     <t>Prevents opposing Pokémon from eating held Berries.</t>
   </si>
   <si>
@@ -1522,9 +1324,6 @@
     <t>Unnerve</t>
   </si>
   <si>
-    <t>Whenever this Pokémon's stats would be [raised]{mechanic:stat-modifiers}, they are instead lowered by the same amount, and vice versa.</t>
-  </si>
-  <si>
     <t>Inverts [stat changes]{mechanic:stat-modifiers}.</t>
   </si>
   <si>
@@ -1534,9 +1333,6 @@
     <t>Contrary</t>
   </si>
   <si>
-    <t>This Pokémon's moves with extra effects have 1.3× their power, but lose their extra effects.\n\nAn effect chance is a move's chance to inflict a status ailment, cause a stat change, or make the target flinch in addition to the move's main effect. For example, []{move:thunder-shock}'s paralysis is an extra effect, but []{move:thunder-wave}'s is not, nor are []{move:knock-off}'s item removal and []{move:air-cutter}'s increased [critical hit]{mechanic:critical-hit} rate.\n\nMoves that lower the user's stats are unaffected.</t>
-  </si>
-  <si>
     <t>Strengthens moves with extra effects to 1.3× their power, but prevents their extra effects.</t>
   </si>
   <si>
@@ -1546,12 +1342,6 @@
     <t>Sheer Force</t>
   </si>
   <si>
-    <t>Whenever a move makes contact with this Pokémon, if it does not have a held item, it steals the attacker's held item.\n\nThis Pokémon cannot steal upon being knocked out.  It can steal if the attacker has a []{move:substitute}, but cannot steal when its own Substitute is hit.  If a move hits multiple times, only the last hit triggers this ability.  If this Pokémon is wild, it cannot steal from a trained Pokémon.</t>
-  </si>
-  <si>
-    <t>Steals attacking Pokémon's held items on contact.</t>
-  </si>
-  <si>
     <t>pickpocket</t>
   </si>
   <si>
@@ -1570,33 +1360,18 @@
     <t>Bad Dreams</t>
   </si>
   <si>
-    <t>Friendly Pokémon have 1.5× their [Attack]{mechanic:attack} and [Special Defense]{mechanic:special-defense} during [strong sunlight]{mechanic:strong-sunlight} if any friendly Pokémon has this ability.\n\nUnlike []{ability:forecast}, []{ability:multitype}, and []{ability:zen-mode}, this ability is not tied to its Pokémon's form change; []{pokemon:cherrim} will switch between its forms even if it loses this ability.  As such, this ability also works if obtained by a Pokémon other than Cherrim.</t>
-  </si>
-  <si>
-    <t>Increases friendly Pokémon's [Attack]{mechanic:attack} and [Special Defense]{mechanic:special-defense} to 1.5× during [strong sunlight]{mechanic:strong-sunlight}.</t>
-  </si>
-  <si>
     <t>flower-gift</t>
   </si>
   <si>
     <t>Flower Gift</t>
   </si>
   <si>
-    <t>If this Pokémon is holding an elemental Plate, its type and form change to match the Plate.\n\nThis Pokémon's held item, whether or not it is a Plate, cannot be taken by []{move:covet} or []{move:thief}, nor removed by []{move:knock-off}, nor traded by []{move:switcheroo} or []{move:trick}.  Covet, Thief, and Knock Off still inflict damage against this Pokémon.  Unlike with []{ability:sticky-hold}, this Pokémon cannot use []{move:fling}, Switcheroo, or Trick to lose its item itself, nor gain an item through Switcheroo or Trick if it does not have one.\n\nThis ability has no effect for any Pokémon other than []{pokemon:arceus}.  This ability cannot be traded with []{move:skill-swap}, nor copied with []{move:role-play} or []{ability:trace}, nor disabled with []{move:gastro-acid}, nor changed with []{move:worry-seed}.  This Pokémon cannot use Skill Swap or Role Play to lose its ability itself.  []{ability:mold-breaker} cannot ignore this ability.\n\nIf a Pokémon [Transforms]{move:transform} into an Arceus with this ability, it will Transform into Arceus's default, []{type:normal}-type form.  If the Transforming Pokémon is holding a Plate, this ability will then activate and change the Pokémon into the corresponding form.</t>
-  </si>
-  <si>
-    <t>Changes []{pokemon:arceus}'s type and form to match its held Plate.</t>
-  </si>
-  <si>
     <t>multitype</t>
   </si>
   <si>
     <t>Multitype</t>
   </si>
   <si>
-    <t>This Pokémon's recoil moves and crash moves have 1.2× their base power.\n\n[]{move:struggle} is unaffected.\n\nThe "crash moves" are the moves that damage the user upon missing: []{move:jump-kick} and []{move:high-jump-kick}.</t>
-  </si>
-  <si>
     <t>Strengthens recoil moves to 1.2× their power.</t>
   </si>
   <si>
@@ -1606,12 +1381,6 @@
     <t>Reckless</t>
   </si>
   <si>
-    <t>When this Pokémon enters battle, it reveals an opposing Pokémon's held item to all participating trainers.\n\nIn a double battle, if one opponent has an item, this Pokémon will Frisk that Pokémon; if both have an item, it will Frisk one at random.</t>
-  </si>
-  <si>
-    <t>Reveals an opponent's held item upon entering battle.</t>
-  </si>
-  <si>
     <t>frisk</t>
   </si>
   <si>
@@ -1630,9 +1399,6 @@
     <t>Honey Gather</t>
   </si>
   <si>
-    <t>The [weather]{mechanic:weather} changes to [hail]{mechanic:hail} when this Pokémon enters battle and does not end unless cancelled by another weather condition.\n\nIf multiple Pokémon with this ability, []{ability:drizzle}, []{ability:drought}, or []{ability:sand-stream} are sent out at the same time, the abilities will activate in order of [Speed]{mechanic:speed}, respecting []{move:trick-room}.  Each ability's weather will cancel the previous weather, and only the weather summoned by the slowest of the Pokémon will stay.</t>
-  </si>
-  <si>
     <t>Summons [hail]{mechanic:hail} that lasts indefinitely upon entering battle.</t>
   </si>
   <si>
@@ -1666,9 +1432,6 @@
     <t>Ice Body</t>
   </si>
   <si>
-    <t>All other Pokémon's single-target []{type:water}-type moves are redirected to this Pokémon, if it is an eligible target.  Other Pokémon's Water moves raise this Pokémon's [Special Attack]{mechanic:special-attack} one [stage]{mechanic:stat-modifier}, negating any other effect on it, and cannot miss it.\n\nIf the move's intended target also has this ability, the move is not redirected.  When multiple Pokémon with this ability are possible targets for redirection, the move is redirected to the one with the highest [Speed]{mechanic:speed} stat, or, in the case of a tie, to a random tied Pokémon.  []{move:follow-me} takes precedence over this ability.</t>
-  </si>
-  <si>
     <t>Redirects single-target []{type:water} moves to this Pokémon where possible.  Absorbs Water moves, raising [Special Attack]{mechanic:special-attack} one [stage]{mechanic:stat-modifier}.</t>
   </si>
   <si>
@@ -1678,21 +1441,12 @@
     <t>Storm Drain</t>
   </si>
   <si>
-    <t>This Pokémon ignores []{type:ghost}-type Pokémon's immunity to []{type:normal}- and []{type:fighting}-type moves.\n\nGhost Pokémon's other types affect damage as usual.</t>
-  </si>
-  <si>
-    <t>Lets the Pokémon's []{type:normal} and []{type:fighting} moves hit []{type:ghost} Pokémon.</t>
-  </si>
-  <si>
     <t>scrappy</t>
   </si>
   <si>
     <t>Scrappy</t>
   </si>
   <si>
-    <t>This Pokémon's [Attack]{mechanic:attack} and [Speed]{mechanic:speed} are halved for five turns upon entering battle.\n\nThis ability also takes effect when acquired during battle.  If this Pokémon loses its ability before the five turns are up, its Attack and Speed return to normal; if it then regains this ability without leaving battle, its Attack and Speed are halved again, but the counter keeps counting from where it was.</t>
-  </si>
-  <si>
     <t>Halves [Attack]{mechanic:attack} and [Speed]{mechanic:speed} for five turns upon entering battle.</t>
   </si>
   <si>
@@ -1723,12 +1477,6 @@
     <t>Tinted Lens</t>
   </si>
   <si>
-    <t>This Pokémon ignores other Pokémon's [stat modifiers]{mechanic:stat-modifiers} for the purposes of damage and accuracy calculation.\n\nEffectively, this affects modifiers of every stat except [Speed]{mechanic:speed}.\n\nThe power of []{move:punishment} and []{move:stored-power} is calculated as usual.  When this Pokémon hurts itself in [confusion]{mechanic:confusion}, its stat modifiers affect damage as usual.</t>
-  </si>
-  <si>
-    <t>Ignores other Pokémon's stat modifiers for damage and accuracy calculation.</t>
-  </si>
-  <si>
     <t>unaware</t>
   </si>
   <si>
@@ -1738,9 +1486,6 @@
     <t>When this Pokémon enters battle, it reveals the move with the highest base power known by any opposing Pokémon to all participating trainers.\n\nIn the event of a tie, one is chosen at random.\n\nMoves without a listed base power are assigned one as follows:\n\nPower | Moves\n----: | -----\n  160 | One-hit KO moves: fissure, guillotine, horn drill, and sheer cold\n  120 | Counter moves: counter, metal burst, and mirror coat\n   80 | Variable power or set damage: crush grip, dragon rage, electro ball, endeavor, final gambit, flail, frustration, grass knot, gyro ball, heat crash, heavy slam, hidden power, low kick, natural gift, night shade, psywave, return, reversal, seismic toss, sonic boom, trump card, and wring out\n    0 | Any such move not listed</t>
   </si>
   <si>
-    <t>Reveals the opponents' strongest move upon entering battle.</t>
-  </si>
-  <si>
     <t>forewarn</t>
   </si>
   <si>
@@ -1759,9 +1504,6 @@
     <t>Anticipation</t>
   </si>
   <si>
-    <t>When this Pokémon is knocked out by a move that makes contact, the move's user takes 1/4 its maximum [HP]{mechanic:hp} in damage.</t>
-  </si>
-  <si>
     <t>Damages the attacker for 1/4 its max [HP]{mechanic:hp} when knocked out by a contact move.</t>
   </si>
   <si>
@@ -1771,24 +1513,12 @@
     <t>Aftermath</t>
   </si>
   <si>
-    <t>This Pokémon's moves have [critical hit]{mechanic:critical-hit} rates one stage higher than normal.</t>
-  </si>
-  <si>
-    <t>Raises moves' [critical hit]{mechanic:critical-hit} rates one stage.</t>
-  </si>
-  <si>
     <t>super-luck</t>
   </si>
   <si>
     <t>Super Luck</t>
   </si>
   <si>
-    <t>This Pokémon's moves completely ignore abilities that could hinder or prevent their effect on the target.\n\nFor example, this Pokémon's moves ignore abilities that would fully negate them, such as []{ability:water-absorb}; abilities that would prevent any of their effects, such as []{ability:clear-body}, []{ability:shell-armor}, or []{ability:sticky-hold}; and abilities that grant any general protective benefit, such as []{ability:simple}, []{ability:snow-cloak}, or []{ability:thick-fat}.  If an ability could either hinder or help this Pokémon's moves, e.g. []{ability:dry-skin} or []{ability:unaware}, the ability is ignored either way.\n\nAbilities that do not fit this description, even if they could hinder moves in some other way, are not affected.  For example, []{ability:cursed-body} only affects potential future uses of the move, while []{ability:liquid-ooze} and []{ability:shadow-tag} can only hinder a move's effect on the user.  This ablity cannot ignore type or form changes granted by abilities, for example []{ability:color-change} or []{ability:forecast}; nor effects that were caused by abilities but are no longer tied to an ability, such as the rain from []{ability:drizzle}.  This ability cannot ignore []{ability:multitype} at all.\n\nAn ability ignored by this ability is only nullified while the move is being used.  For example, this Pokémon's moves can [paralyze]{mechanic:paralysis} a Pokémon with []{ability:limber}, but Limber will activate and heal the paralysis immediately thereafter, and this Pokémon's []{move:spikes} are not affected by this ability after they have been placed.\n\nWhen this Pokémon enters battle, all participating trainers are notified that it has this ability.\n\nThis ability functions identically to []{ability:teravolt} and []{ability:turboblaze}.</t>
-  </si>
-  <si>
-    <t>Bypasses targets' abilities if they could hinder or prevent a move.</t>
-  </si>
-  <si>
     <t>mold-breaker</t>
   </si>
   <si>
@@ -1819,9 +1549,6 @@
     <t>Leaf Guard</t>
   </si>
   <si>
-    <t>This Pokémon's moves have 1.5× their power if their base power is 60 or less.\n\nThis includes moves of variable power, such as []{move:hidden-power} and []{move:magnitude}, when their power is 60 or less.  []{move:helping-hand}'s power boost is taken into account for any move, as is []{move:defense-curl}'s power boost for []{move:rollout}.</t>
-  </si>
-  <si>
     <t>Strengthens moves of 60 base power or less to 1.5× their power.</t>
   </si>
   <si>
@@ -1834,9 +1561,6 @@
     <t>This Pokémon moves last within its priority bracket.\n\nMultiple Pokémon with this ability move in order of [Speed]{mechanic:speed} amongst themselves.\n\nThe []{item:full-incense} and []{item:lagging-tail} take precedence over this ability; that is, Pokémon with these items move after Pokémon with this ability.  Pokémon with both this ability and one of these items are delayed as much as if they had only the item.\n\nThis ability works as usual during []{move:trick-room}: Pokémon with this ability will move in reverse order of Speed after Pokémon without it.</t>
   </si>
   <si>
-    <t>Makes the Pokémon move last within its move's priority bracket.</t>
-  </si>
-  <si>
     <t>stall</t>
   </si>
   <si>
@@ -1855,9 +1579,6 @@
     <t>No Guard</t>
   </si>
   <si>
-    <t>This Pokémon is immune to damage not directly caused by a move.\n\nFor example, this Pokémon takes no damage from from [weather]{mechanic:weather}, recoil, [status ailments]{mechanic:status-ailments}, or []{move:spikes}, but it still suffers from the [Attack]{mechanic:attack} cut when [burned]{mechanic:burn}, and a []{item:life-orb} will still power up this Pokémon's moves without damaging it.  Anything that directly depends on such damage will also not happen; for example, []{move:leech-seed} will neither hurt this Pokémon nor heal the opponent, and Pokémon with a []{item:jaboca-berry} or []{item:rowap-berry} will not consume the berry when hit by this Pokémon.\n\nThe following are unaffected: []{move:struggle}, []{move:pain-split} (whether used by or against this Pokémon), []{move:belly-drum}, []{move:substitute}, []{move:curse}, moves that knock the user out, and damage from [confusion]{mechanic:confusion}.\n\nThis Pokémon will neither lose nor regain [HP]{mechanic:hp} if it drains HP from a Pokémon with []{ability:liquid-ooze}.\n\nIf this Pokémon is [badly poisoned]{mechanic:poison}, the poison counter is still increased each turn; if the Pokémon loses this ability, it will begin taking as much damage as it would be if it had been taking increasing damage each turn.</t>
-  </si>
-  <si>
     <t>Protects against damage not directly caused by a move.</t>
   </si>
   <si>
@@ -1879,12 +1600,6 @@
     <t>Sniper</t>
   </si>
   <si>
-    <t>This Pokémon's moves all act as if they were []{type:normal}-type.\n\nMoves that inflict [typeless damage]{mechanic:typeless-damage} do so as usual.  Moves of variable type, such as []{move:hidden-power}, are affected.  They otherwise work as usual, however; []{move:weather-ball}, for example, is always forced to be Normal, but it still has doubled power and looks different during [weather]{mechanic:weather}.\n\nAs []{move:thunder-wave} is prevented by immunities, unlike most non-damaging moves, it does not affect []{type:ghost}-type Pokémon under the effect of this ability.</t>
-  </si>
-  <si>
-    <t>Makes the Pokémon's moves all act []{type:normal}-type.</t>
-  </si>
-  <si>
     <t>normalize</t>
   </si>
   <si>
@@ -1927,9 +1642,6 @@
     <t>Hydration</t>
   </si>
   <si>
-    <t>This Pokémon always hits five times with two-to-five-hit moves, such as []{move:icicle-spear}.  It also bypasses the accuracy checks on []{move:triple-kick}'s second and third hits.</t>
-  </si>
-  <si>
     <t>Extends two-to-five-hit moves and []{move:triple-kick} to their full length every time.</t>
   </si>
   <si>
@@ -1975,12 +1687,6 @@
     <t>Iron Fist</t>
   </si>
   <si>
-    <t>When this Pokémon enters battle, its [Attack]{mechanic:attack} or [Special Attack]{mechanic:special-attack}, whichever corresponds to its opponents' weaker total defensive stat, rises one [stage]{mechanic:stat-modifier}.  In the event of a tie, Special Attack is raised.\n\nThis ability also takes effect when acquired during a battle.</t>
-  </si>
-  <si>
-    <t>Raises the attack stat corresponding to the opponents' weaker defense one [stage]{mechanic:stat-modifier} upon entering battle.</t>
-  </si>
-  <si>
     <t>download</t>
   </si>
   <si>
@@ -1999,12 +1705,6 @@
     <t>Dry Skin</t>
   </si>
   <si>
-    <t>Each stage of this Pokémon's [stat modifiers]{mechanic:stat-modifiers} acts as two stages.  These doubled stages are still limited to a minimum of -6 and a maximum of 6.\n\nThis Pokémon can still accumulate less than -3 or more than 3 stages of stat modifiers, even though the extra ones have no effect after doubling.</t>
-  </si>
-  <si>
-    <t>Doubles the Pokémon's [stat modifiers]{mechanic:stat-modifiers}.  These doubled modifiers are still capped at -6 or 6 stages.</t>
-  </si>
-  <si>
     <t>simple</t>
   </si>
   <si>
@@ -2047,9 +1747,6 @@
     <t>Anger Point</t>
   </si>
   <si>
-    <t>This Pokémon eats any held Berry triggered by low [HP]{mechanic:hp} when it falls below 50% of its HP, regardless of the Berry's usual threshold.</t>
-  </si>
-  <si>
     <t>Makes the Pokémon eat any held Berry triggered by low [HP]{mechanic:hp} below 1/2 its max HP.</t>
   </si>
   <si>
@@ -2095,9 +1792,6 @@
     <t>Rivalry</t>
   </si>
   <si>
-    <t>Whenever an []{type:electric}-type move hits this Pokémon, its [Speed]{mechanic:speed} rises one [stage]{mechanic:stat-modifier}, negating any other effect on it.\n\nThis ability will not take effect if this Pokémon is immune to Electric moves.  Electric moves will ignore this Pokémon's []{move:substitute}.\n\nThis effect includes non-damaging moves, i.e. []{move:thunder-wave}.</t>
-  </si>
-  <si>
     <t>Absorbs []{type:electric} moves, raising [Speed]{mechanic:speed} one [stage]{mechanic:stat-modifier}.</t>
   </si>
   <si>
@@ -2143,9 +1837,6 @@
     <t>Shell Armor</t>
   </si>
   <si>
-    <t>This Pokémon's [Attack]{mechanic:attack} is doubled in battle.\n\nThis bonus does not count as a [stat modifier]{mechanic:stat-modifier}.\n\nThis ability functions identically to []{ability:huge-power}.</t>
-  </si>
-  <si>
     <t>Doubles [Attack]{mechanic:attack} in battle.</t>
   </si>
   <si>
@@ -2191,9 +1882,6 @@
     <t>Arena Trap</t>
   </si>
   <si>
-    <t>The [weather]{mechanic:weather} changes to [strong sunlight]{mechanic:strong-sunlight} when this Pokémon enters battle and does not end unless cancelled by another weather condition.\n\nIf multiple Pokémon with this ability, []{ability:drizzle}, []{ability:sand-stream}, or []{ability:snow-warning} are sent out at the same time, the abilities will activate in order of [Speed]{mechanic:speed}, respecting []{move:trick-room}.  Each ability's weather will cancel the previous weather, and only the weather summoned by the slowest of the Pokémon will stay.</t>
-  </si>
-  <si>
     <t>Summons [strong sunlight]{mechanic:strong-sunlight} that lasts indefinitely upon entering battle.</t>
   </si>
   <si>
@@ -2203,9 +1891,6 @@
     <t>Drought</t>
   </si>
   <si>
-    <t>This Pokémon does not receive recoil damage from its recoil moves.\n\n[]{move:struggle}'s recoil is unaffected.  This ability does not prevent crash damage from missing with []{move:jump-kick} or []{move:high-jump-kick}.</t>
-  </si>
-  <si>
     <t>Protects against recoil damage.</t>
   </si>
   <si>
@@ -2311,9 +1996,6 @@
     <t>Shed Skin</t>
   </si>
   <si>
-    <t>This Pokémon's hold item cannot be removed by other Pokémon.\n\nDamaging moves that would remove this Pokémon's item can still inflict damage against this Pokémon, e.g. []{move:knock-off} or []{move:pluck}.  This Pokémon can still use moves that involve the loss of its own item, e.g. []{move:fling} or []{move:trick}.\n\nOverworld: If the lead Pokémon has this ability, the encounter rate while fishing is increased.</t>
-  </si>
-  <si>
     <t>Prevents a held item from being removed by other Pokémon.</t>
   </si>
   <si>
@@ -2323,12 +2005,6 @@
     <t>Sticky Hold</t>
   </si>
   <si>
-    <t>During [rain]{mechanic:rain}, [strong sunlight]{mechanic:strong-sunlight}, or [hail]{mechanic:hail}, this Pokémon's type changes to []{type:water}, []{type:fire}, or []{type:ice}, respectively, and its form changes to match.\n\nThis ability has no effect for any Pokémon other than []{pokemon:castform}.\n\nIf the [weather]{mechanic:weather} ends or becomes anything that does not trigger this ability, or a Pokémon with []{ability:air-lock} or []{ability:cloud-nine} enters battle, this Pokémon's type and form revert to their default.  If this ability is lost or disabled, this Pokémon cannot change its current type and form until it regains its ability.</t>
-  </si>
-  <si>
-    <t>Changes []{pokemon:castform}'s type and form to match the [weather]{mechanic:weather}.</t>
-  </si>
-  <si>
     <t>forecast</t>
   </si>
   <si>
@@ -2353,9 +2029,6 @@
     <t>Plus</t>
   </si>
   <si>
-    <t>Whenever a move makes contact with this Pokémon, the move's user has a 30% chance of being [infatuated]{mechanic:infatuation}.\n\nOverworld: If the first Pokémon in the party has this ability, any wild Pokémon whose species can be either gender has a 2/3 chance of being set to the opposite gender, and a 1/3 chance of having a random gender as usual.</t>
-  </si>
-  <si>
     <t>Has a 30% chance of [infatuating]{mechanic:infatuation} attacking Pokémon on contact.</t>
   </si>
   <si>
@@ -2365,9 +2038,6 @@
     <t>Cute Charm</t>
   </si>
   <si>
-    <t>This Pokémon's physical moves do 1.5× as much [regular damage]{mechanic:regular-damage}, but have 0.8× their usual [accuracy]{mechanic:accuracy}.\n\nSpecial moves are unaffected.  Moves that do set damage, such as []{move:seismic-toss}, have their accuracy affected, but not their damage.\n\nOverworld: If the lead Pokémon has this ability, higher-levelled Pokémon have their encounter rate increased.</t>
-  </si>
-  <si>
     <t>Strengthens physical moves to inflict 1.5× damage, but decreases their [accuracy]{mechanic:accuracy} to 0.8×.</t>
   </si>
   <si>
@@ -2389,21 +2059,12 @@
     <t>Truant</t>
   </si>
   <si>
-    <t>At the end of each turn, if another Pokémon consumed or [Flung]{move:fling} a held item that turn, this Pokémon picks up the item if it is not already holding one.  After each battle, this Pokémon has a 10% chance of picking up an item if it is not already holding one.\n\nThe []{item:air-balloon} and []{item:eject-button} cannot be picked up.\n\nThe items that may be found vary by game, and, since Pokémon Emerald, by the Pokémon's level.  This ability is checked after the battle ends, at which point any temporary ability changes have worn off.</t>
-  </si>
-  <si>
-    <t>Picks up other Pokémon's used and [Flung]{move:fling} held items.  May also pick up an item after battle.</t>
-  </si>
-  <si>
     <t>pickup</t>
   </si>
   <si>
     <t>Pickup</t>
   </si>
   <si>
-    <t>This Pokémon's [Attack]{mechanic:attack} cannot be [lowered]{mechanic:stat-modifier} by other Pokémon.\n\nThis ability does not prevent any Attack losses other than [stat modifiers]{mechanic:stat-modifiers}, such as the Attack cut from a [burn]{mechanic:burn}.  This Pokémon can still be passed negative Attack modifiers through []{move:heart-swap} or []{move:power-swap}.</t>
-  </si>
-  <si>
     <t>Prevents [Attack]{mechanic:attack} from being [lowered]{mechanic:stat-modifiers} by other Pokémon.</t>
   </si>
   <si>
@@ -2413,9 +2074,6 @@
     <t>Hyper Cutter</t>
   </si>
   <si>
-    <t>This Pokémon cannot have its [accuracy]{mechanic:accuracy} [lowered]{mechanic:stat-modifier}.\n\nThis ability does not prevent any accuracy losses other than [stat modifiers]{mechanic:stat-modifiers}, such as the accuracy cut from [fog]{mechanic:fog}; nor does it prevent other Pokémon's [evasion]{mechanic:evasion} from making this Pokémon's moves less accurate.  This Pokémon can still be passed negative accuracy modifiers through []{move:heart-swap}.\n\nOverworld: If the first Pokémon in the party has this ability, any random encounter with a Pokémon five or more levels lower than it has a 50% chance of being skipped.</t>
-  </si>
-  <si>
     <t>Prevents [accuracy]{mechanic:accuracy} from being [lowered]{mechanic:stat-modifier}.</t>
   </si>
   <si>
@@ -2437,9 +2095,6 @@
     <t>Run Away</t>
   </si>
   <si>
-    <t>Whenever a move makes contact with this Pokémon, the move's user has a 30% chance of being [burned]{mechanic:burn}.\n\nOverworld: If any Pokémon in the party has this ability, each egg in the party has its [hatch counter]{mechanic:hatch-counter} decreased by 2 (rather than 1) each [step cycle]{mechanic:step-cycle}, making eggs hatch roughly twice as quickly.  This effect does not stack if multiple Pokémon have this ability or []{ability:magma-armor}.</t>
-  </si>
-  <si>
     <t>Has a 30% chance of [burning]{mechanic:burn} attacking Pokémon on contact.</t>
   </si>
   <si>
@@ -2449,9 +2104,6 @@
     <t>Flame Body</t>
   </si>
   <si>
-    <t>This Pokémon's remaining sleep turn count falls by 2 rather than 1.\n\nIf this Pokémon's sleep counter is at 1, it will fall to 0 and then the Pokémon will wake up.</t>
-  </si>
-  <si>
     <t>Makes [sleep]{mechanic:sleep} pass twice as quickly.</t>
   </si>
   <si>
@@ -2473,9 +2125,6 @@
     <t>Thick Fat</t>
   </si>
   <si>
-    <t>Moves targetting this Pokémon use one extra [PP]{mechanic:pp}.\n\nThis ability stacks if multiple targets have it.  This ability still affects moves that fail or miss.  This ability does not affect ally moves that target either the entire field or just its side, nor this Pokémon's self-targetted moves; it does, however, affect single-targetted ally moves aimed at this Pokémon, ally moves that target all other Pokémon, and opponents' moves that target the entire field.  If this ability raises a move's PP cost above its remaining PP, it will use all remaining PP.\n\nWhen this Pokémon enters battle, all participating trainers are notified that it has this ability.\n\nOverworld: If the lead Pokémon has this ability, higher-levelled Pokémon have their encounter rate increased.</t>
-  </si>
-  <si>
     <t>Increases the [PP]{mechanic:pp} cost of moves targetting the Pokémon by one.</t>
   </si>
   <si>
@@ -2485,9 +2134,6 @@
     <t>Pressure</t>
   </si>
   <si>
-    <t>The [weather]{mechanic:weather} changes to a [sandstorm]{mechanic:sandstorm} when this Pokémon enters battle and does not end unless cancelled by another weather condition.\n\nIf multiple Pokémon with this ability, []{ability:drizzle}, []{ability:drought}, or []{ability:snow-warning} are sent out at the same time, the abilities will activate in order of [Speed]{mechanic:speed}, respecting []{move:trick-room}.  Each ability's weather will cancel the previous weather, and only the weather summoned by the slowest of the Pokémon will stay.\n\nOverworld: If the lead Pokémon has this ability, the wild encounter rate is halved in a sandstorm.</t>
-  </si>
-  <si>
     <t>Summons a [sandstorm]{mechanic:sandstorm} that lasts indefinitely upon entering battle.</t>
   </si>
   <si>
@@ -2569,9 +2215,6 @@
     <t>Inner Focus</t>
   </si>
   <si>
-    <t>Whenever a move makes contact with this Pokémon, the move's user has a 30% chance of being [poisoned]{mechanic:poison}.</t>
-  </si>
-  <si>
     <t>Has a 30% chance of [poisoning]{mechanic:poison} attacking Pokémon on contact.</t>
   </si>
   <si>
@@ -2581,21 +2224,12 @@
     <t>Poison Point</t>
   </si>
   <si>
-    <t>This Pokémon's [Attack]{mechanic:attack} is doubled while in battle.\n\nThis bonus does not count as a [stat modifier]{mechanic:stat-modifier}.\n\nThis ability functions identically to []{ability:pure-power}.</t>
-  </si>
-  <si>
     <t>huge-power</t>
   </si>
   <si>
     <t>Huge Power</t>
   </si>
   <si>
-    <t>When this Pokémon enters battle, it copies a random opponent's ability.\n\nThis ability cannot copy []{ability:flower-gift}, []{ability:forecast}, []{ability:illusion}, []{ability:imposter}, []{ability:multitype}, []{ability:trace}, []{ability:wonder-guard}, or []{ability:zen-mode}.</t>
-  </si>
-  <si>
-    <t>Copies an opponent's ability upon entering battle.</t>
-  </si>
-  <si>
     <t>trace</t>
   </si>
   <si>
@@ -2614,9 +2248,6 @@
     <t>Illuminate</t>
   </si>
   <si>
-    <t>This Pokémon's [Speed]{mechanic:speed} is doubled during [strong sunlight]{mechanic:strong-sunlight}.\n\nThis bonus does not count as a [stat modifier]{mechanic:stat-modifier}.</t>
-  </si>
-  <si>
     <t>Doubles [Speed]{mechanic:speed} during [strong sunlight]{mechanic:strong-sunlight}.</t>
   </si>
   <si>
@@ -2626,9 +2257,6 @@
     <t>Chlorophyll</t>
   </si>
   <si>
-    <t>This Pokémon's [Speed]{mechanic:speed} is doubled during [rain]{mechanic:rain}.\n\nThis bonus does not count as a [stat modifier]{mechanic:stat-modifier}.</t>
-  </si>
-  <si>
     <t>Doubles [Speed]{mechanic:speed} during [rain]{mechanic:rain}.</t>
   </si>
   <si>
@@ -2638,21 +2266,12 @@
     <t>Swift Swim</t>
   </si>
   <si>
-    <t>This Pokémon's moves have twice their usual effect chance.\n\nAn effect chance is a move's chance to inflict a [status ailment]{mechanic:status-ailment}, cause a [stat change]{mechanic:stat-modifier}, or make the target [flinch]{mechanic:flinching} in addition to the move's main effect.  For example, []{move:flamethrower}'s chance of [burning]{mechanic:burn} the target is doubled, but []{move:protect}'s chance of success and []{move:air-cutter}'s increased [critical hit]{mechanic:critical-hit} rate are unaffected.\n\n[]{move:secret-power} is unaffected.</t>
-  </si>
-  <si>
-    <t>Doubles the chance of moves' extra effects occurring.</t>
-  </si>
-  <si>
     <t>serene-grace</t>
   </si>
   <si>
     <t>Serene Grace</t>
   </si>
   <si>
-    <t>All other Pokémon's single-target []{type:electric}-type moves are redirected to this Pokémon if it is an eligible target.  Other Pokémon's Electric moves raise this Pokémon's [Special Attack]{mechanic:special-attack} one [stage]{mechanic:stat-modifier}, negating any other effect on it, and cannot miss it.\n\nIf the move's intended target also has this ability, the move is not redirected.  When multiple Pokémon with this ability are possible targets for redirection, the move is redirected to the one with the highest [Speed]{mechanic:speed} stat, or, in the case of a tie, to a random tied Pokémon.  []{move:follow-me} takes precedence over this ability.\n\nIf the Pokémon is a []{type:ground}-type and thus immune to Electric moves, its immunity prevents the Special Attack boost.</t>
-  </si>
-  <si>
     <t>Redirects single-target []{type:electric} moves to this Pokémon where possible.  Absorbs Electric moves, raising [Special Attack]{mechanic:special-attack} one [stage]{mechanic:stat-modifier}.</t>
   </si>
   <si>
@@ -2683,9 +2302,6 @@
     <t>Clear Body</t>
   </si>
   <si>
-    <t>Whenever this Pokémon is [burned]{mechanic:burn}, [paralyzed]{mechanic:paralysis}, or [poisoned]{mechanic:poison}, the Pokémon who gave this Pokémon that ailment is also given the ailment.\n\nThis ability passes back bad poison when this Pokémon is badly poisoned.  This ability cannot pass on a status ailment that the Pokémon did not directly receive from another Pokémon, such as the poison from []{move:toxic-spikes} or the burn from a []{item:flame-orb}.\n\nOverworld: If the lead Pokémon has this ability, wild Pokémon have a 50% chance of having the lead Pokémon's nature, and a 50% chance of being given a random nature as usual, including the lead Pokémon's nature.  This does not work on Pokémon received outside of battle or roaming legendaries.</t>
-  </si>
-  <si>
     <t>Copies [burns]{mechanic:burn}, [paralysis]{mechanic:paralysis}, and [poison]{mechanic:poison} received onto the Pokémon that inflicted them.</t>
   </si>
   <si>
@@ -2695,9 +2311,6 @@
     <t>Synchronize</t>
   </si>
   <si>
-    <t>Whenever a move makes contact with this Pokémon, the move's user has a 30% chance of being [paralyzed]{mechanic:paralysis}, [poisoned]{mechanic:poison}, or put to [sleep]{mechanic:sleep}, chosen at random.\n\nNothing is done to compensate if the move's user is immune to one of these ailments; there is simply a lower chance that the move's user will be affected.</t>
-  </si>
-  <si>
     <t>Has a 30% chance of inflcting either [paralysis]{mechanic:paralysis}, [poison]{mechanic:poison}, or [sleep]{mechanic:sleep} on attacking Pokémon on contact.</t>
   </si>
   <si>
@@ -2731,9 +2344,6 @@
     <t>Wonder Guard</t>
   </si>
   <si>
-    <t>Whenever a move makes contact with this Pokémon, the move's user takes 1/8 of its maximum [HP]{mechanic:hp} in damage.\n\nThis ability functions identically to []{ability:iron-barbs}.</t>
-  </si>
-  <si>
     <t>rough-skin</t>
   </si>
   <si>
@@ -2752,12 +2362,6 @@
     <t>Shadow Tag</t>
   </si>
   <si>
-    <t>When this Pokémon enters battle, the opponent's [Attack]{mechanic:attack} is lowered by one [stage]{mechanic:stat-modifier}.  In a double battle, both opponents are affected.\n\nThis ability also takes effect when acquired during a battle, but will not take effect again if lost and reobtained without leaving battle.\n\nThis ability has no effect on an opponent that has a []{move:substitute}.\n\nOverworld: If the first Pokémon in the party has this ability, any random encounter with a Pokémon five or more levels lower than it has a 50% chance of being skipped.</t>
-  </si>
-  <si>
-    <t>Lowers opponents' [Attack]{mechanic:attack} one [stage]{mechanic:stat-modifier} upon entering battle.</t>
-  </si>
-  <si>
     <t>intimidate</t>
   </si>
   <si>
@@ -2767,9 +2371,6 @@
     <t>This Pokémon cannot be forced out of battle by moves such as []{move:whirlwind}.\n\n[]{move:dragon-tail} and []{move:circle-throw} still inflict damage against this Pokémon.\n\nOverworld: If the lead Pokémon has this ability, the success rate while fishing is increased.</t>
   </si>
   <si>
-    <t>Prevents being forced out of battle by other Pokémon's moves.</t>
-  </si>
-  <si>
     <t>suction-cups</t>
   </si>
   <si>
@@ -2788,24 +2389,12 @@
     <t>Own Tempo</t>
   </si>
   <si>
-    <t>This Pokémon is immune to the extra effects of moves used against it.\n\nAn extra effect is a move's chance, listed as an "effect chance", to inflict a [status ailment]{mechanic:status-ailment}, cause a [stat change]{mechanic:stat-modifier}, or make the target [flinch]{mechanic:flinching} in addition to the move's main effect.  For example, []{move:thunder-shock}'s [paralysis]{mechanic:paralysis} is an extra effect, but []{move:thunder-wave}'s is not, nor are []{move:knock-off}'s item removal and []{move:air-cutter}'s increased [critical hit]{mechanic:critial-hit} rate.</t>
-  </si>
-  <si>
-    <t>Protects against incoming moves' extra effects.</t>
-  </si>
-  <si>
     <t>shield-dust</t>
   </si>
   <si>
     <t>Shield Dust</t>
   </si>
   <si>
-    <t>This Pokémon is immune to []{type:fire}-type moves.  Once this Pokémon has been hit by a Fire move, its own Fire moves will inflict 1.5× as much damage until it leaves battle.\n\nThis ability has no effect while the Pokémon is [frozen]{mechanic:freezing}.  The Fire damage bonus is retained even if the Pokémon is frozen and thawed or the ability is lost or disabled.  Fire moves will ignore this Pokémon's []{move:substitute}.  This ability takes effect even on non-damaging moves, i.e. []{move:will-o-wisp}.</t>
-  </si>
-  <si>
-    <t>Protects against []{type:fire} moves.  Once one has been blocked, the Pokémon's own Fire moves inflict 1.5× damage until it leaves battle.</t>
-  </si>
-  <si>
     <t>flash-fire</t>
   </si>
   <si>
@@ -2824,9 +2413,6 @@
     <t>Immunity</t>
   </si>
   <si>
-    <t>Whenever this Pokémon takes damage from a move, the Pokémon's type changes to match the move.\n\nIf the Pokémon has two types, both are overridden.  The Pokémon must directly take damage; for example, moves blocked by a []{move:substitute} will not trigger this ability, nor will moves that deal damage indirectly, such as []{move:spikes}.\n\nThis ability takes effect on only the last hit of a multiple-hit attack.\n\nIn Pokémon Colosseum and XD: Gale of Darkness, this ability does not take effect on Shadow-type moves.</t>
-  </si>
-  <si>
     <t>Changes type to match when hit by a damaging move.</t>
   </si>
   <si>
@@ -2845,12 +2431,6 @@
     <t>Insomnia</t>
   </si>
   <si>
-    <t>This Pokémon's moves have 1.3× their [accuracy]{mechanic:accuracy}.\n\nThis ability has no effect on the one-hit KO moves ([]{move:fissure}, []{move:guillotine}, []{move:horn-drill}, and []{move:sheer-cold}).\n\nOverworld: If the first Pokémon in the party has this ability, the chance of a wild Pokémon holding a particular item is raised from 50%, 5%, or 1% to 60%, 20%, or 5%, respectively.</t>
-  </si>
-  <si>
-    <t>Increases moves' [accuracy]{mechanic:accuracy} to 1.3×.</t>
-  </si>
-  <si>
     <t>compound-eyes</t>
   </si>
   <si>
@@ -2878,9 +2458,6 @@
     <t>Oblivious</t>
   </si>
   <si>
-    <t>Whenever a []{type:water}-type move hits this Pokémon, it heals for 1/4 of its maximum [HP]{mechanic:hp}, negating any other effect on it.\n\nWater moves will ignore this Pokémon's []{move:substitute}.</t>
-  </si>
-  <si>
     <t>Absorbs []{type:water} moves, healing for 1/4 max [HP]{mechanic:hp}.</t>
   </si>
   <si>
@@ -2890,9 +2467,6 @@
     <t>Water Absorb</t>
   </si>
   <si>
-    <t>Whenever an []{type:electric}-type move hits this Pokémon, it heals for 1/4 of its maximum [HP]{mechanic:hp}, negating any other effect on it.\n\nThis ability will not take effect if this Pokémon is []{type:ground}-type and thus immune to Electric moves.  Electric moves will ignore this Pokémon's []{move:substitute}.\n\nThis effect includes non-damaging moves, i.e. []{move:thunder-wave}.</t>
-  </si>
-  <si>
     <t>Absorbs []{type:electric} moves, healing for 1/4 max [HP]{mechanic:hp}.</t>
   </si>
   <si>
@@ -2902,9 +2476,6 @@
     <t>Volt Absorb</t>
   </si>
   <si>
-    <t>Whenever a move makes contact with this Pokémon, the move's user has a 30% chance of being [paralyzed]{mechanic:paralysis}.\n\nPokémon that are immune to []{type:electric}-type moves can still be paralyzed by this ability.\n\nOverworld: If the lead Pokémon has this ability, there is a 50% chance that encounters will be with an []{type:electric} Pokémon, if applicable.</t>
-  </si>
-  <si>
     <t>Has a 30% chance of [paralyzing]{mechanic:paralysis} attacking Pokémon on contact.</t>
   </si>
   <si>
@@ -2971,9 +2542,6 @@
     <t>Battle Armor</t>
   </si>
   <si>
-    <t>This Pokémon's [Speed]{mechanic:speed} rises one [stage]{mechanic:stat-modifier} after each turn.</t>
-  </si>
-  <si>
     <t>Raises [Speed]{mechanic:speed} one [stage]{mechanic:stat-modifier} after each turn.</t>
   </si>
   <si>
@@ -2983,9 +2551,6 @@
     <t>Speed Boost</t>
   </si>
   <si>
-    <t>The [weather]{mechanic:weather} changes to [rain]{mechanic:rain} when this Pokémon enters battle and does not end unless replaced by another weather condition.\n\nIf multiple Pokémon with this ability, []{ability:drought}, []{ability:sand-stream}, or []{ability:snow-warning} are sent out at the same time, the abilities will activate in order of [Speed]{mechanic:speed}, respecting []{move:trick-room}.  Each ability's weather will cancel the previous weather, and only the weather summoned by the slowest of the Pokémon will stay.</t>
-  </si>
-  <si>
     <t>Summons [rain]{mechanic:rain} that lasts indefinitely upon entering battle.</t>
   </si>
   <si>
@@ -2995,9 +2560,6 @@
     <t>Drizzle</t>
   </si>
   <si>
-    <t>This Pokémon's damaging moves have a 10% chance to make the target [flinch]{mechanic:flinch} with each hit if they do not already cause flinching as a secondary effect.\n\nThis ability does not stack with a held item.\n\nOverworld: The wild encounter rate is halved while this Pokémon is first in the party.</t>
-  </si>
-  <si>
     <t>Has a 10% chance of making target Pokémon [flinch]{mechanic:flinch} with each hit.</t>
   </si>
   <si>
@@ -3032,6 +2594,450 @@
   </si>
   <si>
     <t>Transforms this Minior between Core Form and Meteor Form. Prevents major status ailments and drowsiness while in Meteor Form.</t>
+  </si>
+  <si>
+    <t>The [weather]{mechanic:weather} changes to [rain]{mechanic:rain} when this Pokémon enters battle and does not end unless replaced by another weather condition.\n\nIf multiple Pokémon with this ability, []{ability:drought}, []{ability:sand-stream}, or []{ability:snow-warning} are sent out at the same time, the abilities will activate in order of [Speed]{mechanic:speed}, respecting []{move:trick-room}.  Each ability''s weather will cancel the previous weather, and only the weather summoned by the slowest of the Pokémon will stay.</t>
+  </si>
+  <si>
+    <t>This Pokémon''s [Speed]{mechanic:speed} rises one [stage]{mechanic:stat-modifier} after each turn.</t>
+  </si>
+  <si>
+    <t>Whenever a move makes contact with this Pokémon, the move''s user has a 30% chance of being [paralyzed]{mechanic:paralysis}.\n\nPokémon that are immune to []{type:electric}-type moves can still be paralyzed by this ability.\n\nOverworld: If the lead Pokémon has this ability, there is a 50% chance that encounters will be with an []{type:electric} Pokémon, if applicable.</t>
+  </si>
+  <si>
+    <t>Whenever an []{type:electric}-type move hits this Pokémon, it heals for 1/4 of its maximum [HP]{mechanic:hp}, negating any other effect on it.\n\nThis ability will not take effect if this Pokémon is []{type:ground}-type and thus immune to Electric moves.  Electric moves will ignore this Pokémon''s []{move:substitute}.\n\nThis effect includes non-damaging moves, i.e. []{move:thunder-wave}.</t>
+  </si>
+  <si>
+    <t>Whenever a []{type:water}-type move hits this Pokémon, it heals for 1/4 of its maximum [HP]{mechanic:hp}, negating any other effect on it.\n\nWater moves will ignore this Pokémon''s []{move:substitute}.</t>
+  </si>
+  <si>
+    <t>Increases moves'' [accuracy]{mechanic:accuracy} to 1.3×.</t>
+  </si>
+  <si>
+    <t>This Pokémon''s moves have 1.3× their [accuracy]{mechanic:accuracy}.\n\nThis ability has no effect on the one-hit KO moves ([]{move:fissure}, []{move:guillotine}, []{move:horn-drill}, and []{move:sheer-cold}).\n\nOverworld: If the first Pokémon in the party has this ability, the chance of a wild Pokémon holding a particular item is raised from 50%, 5%, or 1% to 60%, 20%, or 5%, respectively.</t>
+  </si>
+  <si>
+    <t>Whenever this Pokémon takes damage from a move, the Pokémon''s type changes to match the move.\n\nIf the Pokémon has two types, both are overridden.  The Pokémon must directly take damage; for example, moves blocked by a []{move:substitute} will not trigger this ability, nor will moves that deal damage indirectly, such as []{move:spikes}.\n\nThis ability takes effect on only the last hit of a multiple-hit attack.\n\nIn Pokémon Colosseum and XD: Gale of Darkness, this ability does not take effect on Shadow-type moves.</t>
+  </si>
+  <si>
+    <t>Protects against []{type:fire} moves.  Once one has been blocked, the Pokémon''s own Fire moves inflict 1.5× damage until it leaves battle.</t>
+  </si>
+  <si>
+    <t>This Pokémon is immune to []{type:fire}-type moves.  Once this Pokémon has been hit by a Fire move, its own Fire moves will inflict 1.5× as much damage until it leaves battle.\n\nThis ability has no effect while the Pokémon is [frozen]{mechanic:freezing}.  The Fire damage bonus is retained even if the Pokémon is frozen and thawed or the ability is lost or disabled.  Fire moves will ignore this Pokémon''s []{move:substitute}.  This ability takes effect even on non-damaging moves, i.e. []{move:will-o-wisp}.</t>
+  </si>
+  <si>
+    <t>Protects against incoming moves'' extra effects.</t>
+  </si>
+  <si>
+    <t>This Pokémon is immune to the extra effects of moves used against it.\n\nAn extra effect is a move''s chance, listed as an "effect chance", to inflict a [status ailment]{mechanic:status-ailment}, cause a [stat change]{mechanic:stat-modifier}, or make the target [flinch]{mechanic:flinching} in addition to the move''s main effect.  For example, []{move:thunder-shock}''s [paralysis]{mechanic:paralysis} is an extra effect, but []{move:thunder-wave}''s is not, nor are []{move:knock-off}''s item removal and []{move:air-cutter}''s increased [critical hit]{mechanic:critial-hit} rate.</t>
+  </si>
+  <si>
+    <t>Prevents being forced out of battle by other Pokémon''s moves.</t>
+  </si>
+  <si>
+    <t>Lowers opponents'' [Attack]{mechanic:attack} one [stage]{mechanic:stat-modifier} upon entering battle.</t>
+  </si>
+  <si>
+    <t>When this Pokémon enters battle, the opponent''s [Attack]{mechanic:attack} is lowered by one [stage]{mechanic:stat-modifier}.  In a double battle, both opponents are affected.\n\nThis ability also takes effect when acquired during a battle, but will not take effect again if lost and reobtained without leaving battle.\n\nThis ability has no effect on an opponent that has a []{move:substitute}.\n\nOverworld: If the first Pokémon in the party has this ability, any random encounter with a Pokémon five or more levels lower than it has a 50% chance of being skipped.</t>
+  </si>
+  <si>
+    <t>Whenever a move makes contact with this Pokémon, the move''s user takes 1/8 of its maximum [HP]{mechanic:hp} in damage.\n\nThis ability functions identically to []{ability:iron-barbs}.</t>
+  </si>
+  <si>
+    <t>Whenever a move makes contact with this Pokémon, the move''s user has a 30% chance of being [paralyzed]{mechanic:paralysis}, [poisoned]{mechanic:poison}, or put to [sleep]{mechanic:sleep}, chosen at random.\n\nNothing is done to compensate if the move''s user is immune to one of these ailments; there is simply a lower chance that the move''s user will be affected.</t>
+  </si>
+  <si>
+    <t>Whenever this Pokémon is [burned]{mechanic:burn}, [paralyzed]{mechanic:paralysis}, or [poisoned]{mechanic:poison}, the Pokémon who gave this Pokémon that ailment is also given the ailment.\n\nThis ability passes back bad poison when this Pokémon is badly poisoned.  This ability cannot pass on a status ailment that the Pokémon did not directly receive from another Pokémon, such as the poison from []{move:toxic-spikes} or the burn from a []{item:flame-orb}.\n\nOverworld: If the lead Pokémon has this ability, wild Pokémon have a 50% chance of having the lead Pokémon''s nature, and a 50% chance of being given a random nature as usual, including the lead Pokémon''s nature.  This does not work on Pokémon received outside of battle or roaming legendaries.</t>
+  </si>
+  <si>
+    <t>All other Pokémon''s single-target []{type:electric}-type moves are redirected to this Pokémon if it is an eligible target.  Other Pokémon''s Electric moves raise this Pokémon''s [Special Attack]{mechanic:special-attack} one [stage]{mechanic:stat-modifier}, negating any other effect on it, and cannot miss it.\n\nIf the move''s intended target also has this ability, the move is not redirected.  When multiple Pokémon with this ability are possible targets for redirection, the move is redirected to the one with the highest [Speed]{mechanic:speed} stat, or, in the case of a tie, to a random tied Pokémon.  []{move:follow-me} takes precedence over this ability.\n\nIf the Pokémon is a []{type:ground}-type and thus immune to Electric moves, its immunity prevents the Special Attack boost.</t>
+  </si>
+  <si>
+    <t>Doubles the chance of moves'' extra effects occurring.</t>
+  </si>
+  <si>
+    <t>This Pokémon''s moves have twice their usual effect chance.\n\nAn effect chance is a move''s chance to inflict a [status ailment]{mechanic:status-ailment}, cause a [stat change]{mechanic:stat-modifier}, or make the target [flinch]{mechanic:flinching} in addition to the move''s main effect.  For example, []{move:flamethrower}''s chance of [burning]{mechanic:burn} the target is doubled, but []{move:protect}''s chance of success and []{move:air-cutter}''s increased [critical hit]{mechanic:critical-hit} rate are unaffected.\n\n[]{move:secret-power} is unaffected.</t>
+  </si>
+  <si>
+    <t>This Pokémon''s [Speed]{mechanic:speed} is doubled during [rain]{mechanic:rain}.\n\nThis bonus does not count as a [stat modifier]{mechanic:stat-modifier}.</t>
+  </si>
+  <si>
+    <t>This Pokémon''s [Speed]{mechanic:speed} is doubled during [strong sunlight]{mechanic:strong-sunlight}.\n\nThis bonus does not count as a [stat modifier]{mechanic:stat-modifier}.</t>
+  </si>
+  <si>
+    <t>Copies an opponent''s ability upon entering battle.</t>
+  </si>
+  <si>
+    <t>When this Pokémon enters battle, it copies a random opponent''s ability.\n\nThis ability cannot copy []{ability:flower-gift}, []{ability:forecast}, []{ability:illusion}, []{ability:imposter}, []{ability:multitype}, []{ability:trace}, []{ability:wonder-guard}, or []{ability:zen-mode}.</t>
+  </si>
+  <si>
+    <t>This Pokémon''s [Attack]{mechanic:attack} is doubled while in battle.\n\nThis bonus does not count as a [stat modifier]{mechanic:stat-modifier}.\n\nThis ability functions identically to []{ability:pure-power}.</t>
+  </si>
+  <si>
+    <t>Whenever a move makes contact with this Pokémon, the move''s user has a 30% chance of being [poisoned]{mechanic:poison}.</t>
+  </si>
+  <si>
+    <t>The [weather]{mechanic:weather} changes to a [sandstorm]{mechanic:sandstorm} when this Pokémon enters battle and does not end unless cancelled by another weather condition.\n\nIf multiple Pokémon with this ability, []{ability:drizzle}, []{ability:drought}, or []{ability:snow-warning} are sent out at the same time, the abilities will activate in order of [Speed]{mechanic:speed}, respecting []{move:trick-room}.  Each ability''s weather will cancel the previous weather, and only the weather summoned by the slowest of the Pokémon will stay.\n\nOverworld: If the lead Pokémon has this ability, the wild encounter rate is halved in a sandstorm.</t>
+  </si>
+  <si>
+    <t>Moves targetting this Pokémon use one extra [PP]{mechanic:pp}.\n\nThis ability stacks if multiple targets have it.  This ability still affects moves that fail or miss.  This ability does not affect ally moves that target either the entire field or just its side, nor this Pokémon''s self-targetted moves; it does, however, affect single-targetted ally moves aimed at this Pokémon, ally moves that target all other Pokémon, and opponents'' moves that target the entire field.  If this ability raises a move''s PP cost above its remaining PP, it will use all remaining PP.\n\nWhen this Pokémon enters battle, all participating trainers are notified that it has this ability.\n\nOverworld: If the lead Pokémon has this ability, higher-levelled Pokémon have their encounter rate increased.</t>
+  </si>
+  <si>
+    <t>This Pokémon''s remaining sleep turn count falls by 2 rather than 1.\n\nIf this Pokémon''s sleep counter is at 1, it will fall to 0 and then the Pokémon will wake up.</t>
+  </si>
+  <si>
+    <t>Whenever a move makes contact with this Pokémon, the move''s user has a 30% chance of being [burned]{mechanic:burn}.\n\nOverworld: If any Pokémon in the party has this ability, each egg in the party has its [hatch counter]{mechanic:hatch-counter} decreased by 2 (rather than 1) each [step cycle]{mechanic:step-cycle}, making eggs hatch roughly twice as quickly.  This effect does not stack if multiple Pokémon have this ability or []{ability:magma-armor}.</t>
+  </si>
+  <si>
+    <t>This Pokémon cannot have its [accuracy]{mechanic:accuracy} [lowered]{mechanic:stat-modifier}.\n\nThis ability does not prevent any accuracy losses other than [stat modifiers]{mechanic:stat-modifiers}, such as the accuracy cut from [fog]{mechanic:fog}; nor does it prevent other Pokémon''s [evasion]{mechanic:evasion} from making this Pokémon''s moves less accurate.  This Pokémon can still be passed negative accuracy modifiers through []{move:heart-swap}.\n\nOverworld: If the first Pokémon in the party has this ability, any random encounter with a Pokémon five or more levels lower than it has a 50% chance of being skipped.</t>
+  </si>
+  <si>
+    <t>This Pokémon''s [Attack]{mechanic:attack} cannot be [lowered]{mechanic:stat-modifier} by other Pokémon.\n\nThis ability does not prevent any Attack losses other than [stat modifiers]{mechanic:stat-modifiers}, such as the Attack cut from a [burn]{mechanic:burn}.  This Pokémon can still be passed negative Attack modifiers through []{move:heart-swap} or []{move:power-swap}.</t>
+  </si>
+  <si>
+    <t>Picks up other Pokémon''s used and [Flung]{move:fling} held items.  May also pick up an item after battle.</t>
+  </si>
+  <si>
+    <t>At the end of each turn, if another Pokémon consumed or [Flung]{move:fling} a held item that turn, this Pokémon picks up the item if it is not already holding one.  After each battle, this Pokémon has a 10% chance of picking up an item if it is not already holding one.\n\nThe []{item:air-balloon} and []{item:eject-button} cannot be picked up.\n\nThe items that may be found vary by game, and, since Pokémon Emerald, by the Pokémon''s level.  This ability is checked after the battle ends, at which point any temporary ability changes have worn off.</t>
+  </si>
+  <si>
+    <t>This Pokémon''s physical moves do 1.5× as much [regular damage]{mechanic:regular-damage}, but have 0.8× their usual [accuracy]{mechanic:accuracy}.\n\nSpecial moves are unaffected.  Moves that do set damage, such as []{move:seismic-toss}, have their accuracy affected, but not their damage.\n\nOverworld: If the lead Pokémon has this ability, higher-levelled Pokémon have their encounter rate increased.</t>
+  </si>
+  <si>
+    <t>Whenever a move makes contact with this Pokémon, the move''s user has a 30% chance of being [infatuated]{mechanic:infatuation}.\n\nOverworld: If the first Pokémon in the party has this ability, any wild Pokémon whose species can be either gender has a 2/3 chance of being set to the opposite gender, and a 1/3 chance of having a random gender as usual.</t>
+  </si>
+  <si>
+    <t>Changes []{pokemon:castform}''s type and form to match the [weather]{mechanic:weather}.</t>
+  </si>
+  <si>
+    <t>During [rain]{mechanic:rain}, [strong sunlight]{mechanic:strong-sunlight}, or [hail]{mechanic:hail}, this Pokémon''s type changes to []{type:water}, []{type:fire}, or []{type:ice}, respectively, and its form changes to match.\n\nThis ability has no effect for any Pokémon other than []{pokemon:castform}.\n\nIf the [weather]{mechanic:weather} ends or becomes anything that does not trigger this ability, or a Pokémon with []{ability:air-lock} or []{ability:cloud-nine} enters battle, this Pokémon''s type and form revert to their default.  If this ability is lost or disabled, this Pokémon cannot change its current type and form until it regains its ability.</t>
+  </si>
+  <si>
+    <t>This Pokémon''s hold item cannot be removed by other Pokémon.\n\nDamaging moves that would remove this Pokémon''s item can still inflict damage against this Pokémon, e.g. []{move:knock-off} or []{move:pluck}.  This Pokémon can still use moves that involve the loss of its own item, e.g. []{move:fling} or []{move:trick}.\n\nOverworld: If the lead Pokémon has this ability, the encounter rate while fishing is increased.</t>
+  </si>
+  <si>
+    <t>This Pokémon does not receive recoil damage from its recoil moves.\n\n[]{move:struggle}''s recoil is unaffected.  This ability does not prevent crash damage from missing with []{move:jump-kick} or []{move:high-jump-kick}.</t>
+  </si>
+  <si>
+    <t>The [weather]{mechanic:weather} changes to [strong sunlight]{mechanic:strong-sunlight} when this Pokémon enters battle and does not end unless cancelled by another weather condition.\n\nIf multiple Pokémon with this ability, []{ability:drizzle}, []{ability:sand-stream}, or []{ability:snow-warning} are sent out at the same time, the abilities will activate in order of [Speed]{mechanic:speed}, respecting []{move:trick-room}.  Each ability''s weather will cancel the previous weather, and only the weather summoned by the slowest of the Pokémon will stay.</t>
+  </si>
+  <si>
+    <t>This Pokémon''s [Attack]{mechanic:attack} is doubled in battle.\n\nThis bonus does not count as a [stat modifier]{mechanic:stat-modifier}.\n\nThis ability functions identically to []{ability:huge-power}.</t>
+  </si>
+  <si>
+    <t>Whenever an []{type:electric}-type move hits this Pokémon, its [Speed]{mechanic:speed} rises one [stage]{mechanic:stat-modifier}, negating any other effect on it.\n\nThis ability will not take effect if this Pokémon is immune to Electric moves.  Electric moves will ignore this Pokémon''s []{move:substitute}.\n\nThis effect includes non-damaging moves, i.e. []{move:thunder-wave}.</t>
+  </si>
+  <si>
+    <t>This Pokémon eats any held Berry triggered by low [HP]{mechanic:hp} when it falls below 50% of its HP, regardless of the Berry''s usual threshold.</t>
+  </si>
+  <si>
+    <t>Doubles the Pokémon''s [stat modifiers]{mechanic:stat-modifiers}.  These doubled modifiers are still capped at -6 or 6 stages.</t>
+  </si>
+  <si>
+    <t>Each stage of this Pokémon''s [stat modifiers]{mechanic:stat-modifiers} acts as two stages.  These doubled stages are still limited to a minimum of -6 and a maximum of 6.\n\nThis Pokémon can still accumulate less than -3 or more than 3 stages of stat modifiers, even though the extra ones have no effect after doubling.</t>
+  </si>
+  <si>
+    <t>Raises the attack stat corresponding to the opponents'' weaker defense one [stage]{mechanic:stat-modifier} upon entering battle.</t>
+  </si>
+  <si>
+    <t>When this Pokémon enters battle, its [Attack]{mechanic:attack} or [Special Attack]{mechanic:special-attack}, whichever corresponds to its opponents'' weaker total defensive stat, rises one [stage]{mechanic:stat-modifier}.  In the event of a tie, Special Attack is raised.\n\nThis ability also takes effect when acquired during a battle.</t>
+  </si>
+  <si>
+    <t>This Pokémon always hits five times with two-to-five-hit moves, such as []{move:icicle-spear}.  It also bypasses the accuracy checks on []{move:triple-kick}''s second and third hits.</t>
+  </si>
+  <si>
+    <t>Makes the Pokémon''s moves all act []{type:normal}-type.</t>
+  </si>
+  <si>
+    <t>This Pokémon''s moves all act as if they were []{type:normal}-type.\n\nMoves that inflict [typeless damage]{mechanic:typeless-damage} do so as usual.  Moves of variable type, such as []{move:hidden-power}, are affected.  They otherwise work as usual, however; []{move:weather-ball}, for example, is always forced to be Normal, but it still has doubled power and looks different during [weather]{mechanic:weather}.\n\nAs []{move:thunder-wave} is prevented by immunities, unlike most non-damaging moves, it does not affect []{type:ghost}-type Pokémon under the effect of this ability.</t>
+  </si>
+  <si>
+    <t>This Pokémon is immune to damage not directly caused by a move.\n\nFor example, this Pokémon takes no damage from from [weather]{mechanic:weather}, recoil, [status ailments]{mechanic:status-ailments}, or []{move:spikes}, but it still suffers from the [Attack]{mechanic:attack} cut when [burned]{mechanic:burn}, and a []{item:life-orb} will still power up this Pokémon''s moves without damaging it.  Anything that directly depends on such damage will also not happen; for example, []{move:leech-seed} will neither hurt this Pokémon nor heal the opponent, and Pokémon with a []{item:jaboca-berry} or []{item:rowap-berry} will not consume the berry when hit by this Pokémon.\n\nThe following are unaffected: []{move:struggle}, []{move:pain-split} (whether used by or against this Pokémon), []{move:belly-drum}, []{move:substitute}, []{move:curse}, moves that knock the user out, and damage from [confusion]{mechanic:confusion}.\n\nThis Pokémon will neither lose nor regain [HP]{mechanic:hp} if it drains HP from a Pokémon with []{ability:liquid-ooze}.\n\nIf this Pokémon is [badly poisoned]{mechanic:poison}, the poison counter is still increased each turn; if the Pokémon loses this ability, it will begin taking as much damage as it would be if it had been taking increasing damage each turn.</t>
+  </si>
+  <si>
+    <t>Makes the Pokémon move last within its move''s priority bracket.</t>
+  </si>
+  <si>
+    <t>This Pokémon''s moves have 1.5× their power if their base power is 60 or less.\n\nThis includes moves of variable power, such as []{move:hidden-power} and []{move:magnitude}, when their power is 60 or less.  []{move:helping-hand}''s power boost is taken into account for any move, as is []{move:defense-curl}''s power boost for []{move:rollout}.</t>
+  </si>
+  <si>
+    <t>Bypasses targets'' abilities if they could hinder or prevent a move.</t>
+  </si>
+  <si>
+    <t>This Pokémon''s moves completely ignore abilities that could hinder or prevent their effect on the target.\n\nFor example, this Pokémon''s moves ignore abilities that would fully negate them, such as []{ability:water-absorb}; abilities that would prevent any of their effects, such as []{ability:clear-body}, []{ability:shell-armor}, or []{ability:sticky-hold}; and abilities that grant any general protective benefit, such as []{ability:simple}, []{ability:snow-cloak}, or []{ability:thick-fat}.  If an ability could either hinder or help this Pokémon''s moves, e.g. []{ability:dry-skin} or []{ability:unaware}, the ability is ignored either way.\n\nAbilities that do not fit this description, even if they could hinder moves in some other way, are not affected.  For example, []{ability:cursed-body} only affects potential future uses of the move, while []{ability:liquid-ooze} and []{ability:shadow-tag} can only hinder a move''s effect on the user.  This ablity cannot ignore type or form changes granted by abilities, for example []{ability:color-change} or []{ability:forecast}; nor effects that were caused by abilities but are no longer tied to an ability, such as the rain from []{ability:drizzle}.  This ability cannot ignore []{ability:multitype} at all.\n\nAn ability ignored by this ability is only nullified while the move is being used.  For example, this Pokémon''s moves can [paralyze]{mechanic:paralysis} a Pokémon with []{ability:limber}, but Limber will activate and heal the paralysis immediately thereafter, and this Pokémon''s []{move:spikes} are not affected by this ability after they have been placed.\n\nWhen this Pokémon enters battle, all participating trainers are notified that it has this ability.\n\nThis ability functions identically to []{ability:teravolt} and []{ability:turboblaze}.</t>
+  </si>
+  <si>
+    <t>Raises moves'' [critical hit]{mechanic:critical-hit} rates one stage.</t>
+  </si>
+  <si>
+    <t>This Pokémon''s moves have [critical hit]{mechanic:critical-hit} rates one stage higher than normal.</t>
+  </si>
+  <si>
+    <t>When this Pokémon is knocked out by a move that makes contact, the move''s user takes 1/4 its maximum [HP]{mechanic:hp} in damage.</t>
+  </si>
+  <si>
+    <t>Reveals the opponents'' strongest move upon entering battle.</t>
+  </si>
+  <si>
+    <t>Ignores other Pokémon''s stat modifiers for damage and accuracy calculation.</t>
+  </si>
+  <si>
+    <t>This Pokémon ignores other Pokémon''s [stat modifiers]{mechanic:stat-modifiers} for the purposes of damage and accuracy calculation.\n\nEffectively, this affects modifiers of every stat except [Speed]{mechanic:speed}.\n\nThe power of []{move:punishment} and []{move:stored-power} is calculated as usual.  When this Pokémon hurts itself in [confusion]{mechanic:confusion}, its stat modifiers affect damage as usual.</t>
+  </si>
+  <si>
+    <t>This Pokémon''s [Attack]{mechanic:attack} and [Speed]{mechanic:speed} are halved for five turns upon entering battle.\n\nThis ability also takes effect when acquired during battle.  If this Pokémon loses its ability before the five turns are up, its Attack and Speed return to normal; if it then regains this ability without leaving battle, its Attack and Speed are halved again, but the counter keeps counting from where it was.</t>
+  </si>
+  <si>
+    <t>Lets the Pokémon''s []{type:normal} and []{type:fighting} moves hit []{type:ghost} Pokémon.</t>
+  </si>
+  <si>
+    <t>This Pokémon ignores []{type:ghost}-type Pokémon''s immunity to []{type:normal}- and []{type:fighting}-type moves.\n\nGhost Pokémon''s other types affect damage as usual.</t>
+  </si>
+  <si>
+    <t>All other Pokémon''s single-target []{type:water}-type moves are redirected to this Pokémon, if it is an eligible target.  Other Pokémon''s Water moves raise this Pokémon''s [Special Attack]{mechanic:special-attack} one [stage]{mechanic:stat-modifier}, negating any other effect on it, and cannot miss it.\n\nIf the move''s intended target also has this ability, the move is not redirected.  When multiple Pokémon with this ability are possible targets for redirection, the move is redirected to the one with the highest [Speed]{mechanic:speed} stat, or, in the case of a tie, to a random tied Pokémon.  []{move:follow-me} takes precedence over this ability.</t>
+  </si>
+  <si>
+    <t>The [weather]{mechanic:weather} changes to [hail]{mechanic:hail} when this Pokémon enters battle and does not end unless cancelled by another weather condition.\n\nIf multiple Pokémon with this ability, []{ability:drizzle}, []{ability:drought}, or []{ability:sand-stream} are sent out at the same time, the abilities will activate in order of [Speed]{mechanic:speed}, respecting []{move:trick-room}.  Each ability''s weather will cancel the previous weather, and only the weather summoned by the slowest of the Pokémon will stay.</t>
+  </si>
+  <si>
+    <t>Reveals an opponent''s held item upon entering battle.</t>
+  </si>
+  <si>
+    <t>When this Pokémon enters battle, it reveals an opposing Pokémon''s held item to all participating trainers.\n\nIn a double battle, if one opponent has an item, this Pokémon will Frisk that Pokémon; if both have an item, it will Frisk one at random.</t>
+  </si>
+  <si>
+    <t>This Pokémon''s recoil moves and crash moves have 1.2× their base power.\n\n[]{move:struggle} is unaffected.\n\nThe "crash moves" are the moves that damage the user upon missing: []{move:jump-kick} and []{move:high-jump-kick}.</t>
+  </si>
+  <si>
+    <t>Changes []{pokemon:arceus}''s type and form to match its held Plate.</t>
+  </si>
+  <si>
+    <t>If this Pokémon is holding an elemental Plate, its type and form change to match the Plate.\n\nThis Pokémon''s held item, whether or not it is a Plate, cannot be taken by []{move:covet} or []{move:thief}, nor removed by []{move:knock-off}, nor traded by []{move:switcheroo} or []{move:trick}.  Covet, Thief, and Knock Off still inflict damage against this Pokémon.  Unlike with []{ability:sticky-hold}, this Pokémon cannot use []{move:fling}, Switcheroo, or Trick to lose its item itself, nor gain an item through Switcheroo or Trick if it does not have one.\n\nThis ability has no effect for any Pokémon other than []{pokemon:arceus}.  This ability cannot be traded with []{move:skill-swap}, nor copied with []{move:role-play} or []{ability:trace}, nor disabled with []{move:gastro-acid}, nor changed with []{move:worry-seed}.  This Pokémon cannot use Skill Swap or Role Play to lose its ability itself.  []{ability:mold-breaker} cannot ignore this ability.\n\nIf a Pokémon [Transforms]{move:transform} into an Arceus with this ability, it will Transform into Arceus''s default, []{type:normal}-type form.  If the Transforming Pokémon is holding a Plate, this ability will then activate and change the Pokémon into the corresponding form.</t>
+  </si>
+  <si>
+    <t>Increases friendly Pokémon''s [Attack]{mechanic:attack} and [Special Defense]{mechanic:special-defense} to 1.5× during [strong sunlight]{mechanic:strong-sunlight}.</t>
+  </si>
+  <si>
+    <t>Friendly Pokémon have 1.5× their [Attack]{mechanic:attack} and [Special Defense]{mechanic:special-defense} during [strong sunlight]{mechanic:strong-sunlight} if any friendly Pokémon has this ability.\n\nUnlike []{ability:forecast}, []{ability:multitype}, and []{ability:zen-mode}, this ability is not tied to its Pokémon''s form change; []{pokemon:cherrim} will switch between its forms even if it loses this ability.  As such, this ability also works if obtained by a Pokémon other than Cherrim.</t>
+  </si>
+  <si>
+    <t>Steals attacking Pokémon''s held items on contact.</t>
+  </si>
+  <si>
+    <t>Whenever a move makes contact with this Pokémon, if it does not have a held item, it steals the attacker''s held item.\n\nThis Pokémon cannot steal upon being knocked out.  It can steal if the attacker has a []{move:substitute}, but cannot steal when its own Substitute is hit.  If a move hits multiple times, only the last hit triggers this ability.  If this Pokémon is wild, it cannot steal from a trained Pokémon.</t>
+  </si>
+  <si>
+    <t>This Pokémon''s moves with extra effects have 1.3× their power, but lose their extra effects.\n\nAn effect chance is a move''s chance to inflict a status ailment, cause a stat change, or make the target flinch in addition to the move''s main effect. For example, []{move:thunder-shock}''s paralysis is an extra effect, but []{move:thunder-wave}''s is not, nor are []{move:knock-off}''s item removal and []{move:air-cutter}''s increased [critical hit]{mechanic:critical-hit} rate.\n\nMoves that lower the user''s stats are unaffected.</t>
+  </si>
+  <si>
+    <t>Whenever this Pokémon''s stats would be [raised]{mechanic:stat-modifiers}, they are instead lowered by the same amount, and vice versa.</t>
+  </si>
+  <si>
+    <t>Opposing Pokémon cannot eat held Berries while this Pokémon is in battle.\n\nAffected Pokémon can still use []{move:bug-bite} or []{move:pluck} to eat a target''s Berry.</t>
+  </si>
+  <si>
+    <t>When any of this Pokémon''s stats are [lowered]{mechanic:stat-modifier}, its [Attack]{mechanic:attack} rises by two stages.\n\nIf multiple stats are lowered at once, this ability takes effect with each stat lowered.</t>
+  </si>
+  <si>
+    <t>This Pokémon''s [Attack]{mechanic:attack} and [Special Attack]{mechanic:special-attack} are halved when it has half its [HP]{mechanic:hp} or less.</t>
+  </si>
+  <si>
+    <t>Doubles the Pokémon''s weight.</t>
+  </si>
+  <si>
+    <t>Halves the Pokémon''s weight.</t>
+  </si>
+  <si>
+    <t>Protects against friendly Pokémon''s damaging moves.</t>
+  </si>
+  <si>
+    <t>This Pokémon does not take damage from friendly Pokémon''s moves, including single-target moves aimed at it.</t>
+  </si>
+  <si>
+    <t>After each turn, one of this Pokémon''s stats at random rises two [stages]{mechanic:stat-modifier}, and another falls one stage.\n\nIf a stat is already at 6 or -6 stages, it will not be chosen to be increased or decreased, respectively.</t>
+  </si>
+  <si>
+    <t>This Pokémon''s contact moves have a 30% chance of [poisoning]{mechanic:poison} the target with each hit.\n\nThis counts as an extra effect for the purposes of []{ability:shield-dust}.  This ability takes effect before []{ability:mummy}.</t>
+  </si>
+  <si>
+    <t>This Pokémon''s [Defense]{mechanic:defense} cannot be [lowered]{mechanic:stat-modifiers} by other Pokémon.\n\nThis Pokémon can still be passed negative Defense modifiers through []{move:heart-swap} or []{move:guard-swap}.</t>
+  </si>
+  <si>
+    <t>This Pokémon''s [Speed]{mechanic:speed} is doubled during a [sandstorm]{mechanic:sandstorm}, and it does not take sandstorm damage, regardless of type.</t>
+  </si>
+  <si>
+    <t>Lowers incoming non-damaging moves'' base [accuracy]{mechanic:accuracy} to exactly 50%.</t>
+  </si>
+  <si>
+    <t>This Pokémon''s moves have 1.3× their power when it moves last in a turn.\n\n[]{move:future-sight} and []{move:doom-desire} are unaffected.</t>
+  </si>
+  <si>
+    <t>This Pokémon''s moves ignore []{move:light-screen}, []{move:reflect}, and []{move:safeguard}.</t>
+  </si>
+  <si>
+    <t>Changes attacking Pokémon''s abilities to Mummy on contact.</t>
+  </si>
+  <si>
+    <t>Whenever a contact move hits this Pokémon, the attacking Pokémon''s ability changes to Mummy.\n\n[]{ability:multitype} is unaffected.  If a Pokémon with []{ability:moxie} knocks this Pokémon out, the former''s ability will change without taking effect.</t>
+  </si>
+  <si>
+    <t>This Pokémon''s [Attack]{mechanic:attack} rises one stage upon knocking out another Pokémon, even a friendly Pokémon.\n\nThis ability does not take effect when the Pokémon indirectly causes another Pokémon to faint, e.g. through [poison]{mechanic:poison} or []{move:spikes}.\n\nIf this Pokémon knocks out a Pokémon with []{ability:mummy}, the former''s ability will change without taking effect.</t>
+  </si>
+  <si>
+    <t>This Pokémon''s [Speed]{mechanic:speed} rises one stage with each hit from a damaging []{type:dark}-, []{type:ghost}-, or []{type:bug}-type move.</t>
+  </si>
+  <si>
+    <t>Raises non-damaging moves'' priority by one stage.</t>
+  </si>
+  <si>
+    <t>This Pokémon''s non-damaging moves have their priority increased by one stage.</t>
+  </si>
+  <si>
+    <t>During a [sandstorm]{mechanic:sandstorm}, this Pokémon''s []{type:rock}-, []{type:ground}-, and []{type:steel}-type moves have 1.3× their base power.  This Pokémon does not take sandstorm damage, regardless of type.</t>
+  </si>
+  <si>
+    <t>Whenever a move makes contact with this Pokémon, the move''s user takes 1/8 of its maximum [HP]{mechanic:hp} in damage.\n\nThis ability functions identically to []{ability:rough-skin}.</t>
+  </si>
+  <si>
+    <t>Changes []{pokemon:darmanitan}''s form after each turn depending on its [HP]{mechanic:hp}: Zen Mode below 50% max HP, and Standard Mode otherwise.</t>
+  </si>
+  <si>
+    <t>Increases moves'' accuracy to 1.1× for friendly Pokémon.</t>
+  </si>
+  <si>
+    <t>All friendly Pokémon''s moves, including this Pokémon''s own moves, have 1.1× their usual accuracy while this Pokémon is in battle.</t>
+  </si>
+  <si>
+    <t>Bypasses targets'' abilities if they could hinder or prevent moves.</t>
+  </si>
+  <si>
+    <t>This Pokémon''s moves completely ignore abilities that could hinder or prevent their effect on the target.\n\nFor example, this Pokémon''s moves ignore abilities that would fully negate them, such as []{ability:water-absorb}; abilities that would prevent any of their effects, such as []{ability:clear-body}, []{ability:shell-armor}, or []{ability:sticky-hold}; and abilities that grant any general protective benefit, such as []{ability:simple}, []{ability:snow-cloak}, or []{ability:thick-fat}.  If an ability could either hinder or help this Pokémon''s moves, e.g. []{ability:dry-skin} or []{ability:unaware}, the ability is ignored either way.\n\nAbilities that do not fit this description, even if they could hinder moves in some other way, are not affected.  For example, []{ability:cursed-body} only affects potential future uses of the move, while []{ability:liquid-ooze} and []{ability:shadow-tag} can only hinder a move''s effect on the user.  This ablity cannot ignore type or form changes granted by abilities, for example []{ability:color-change} or []{ability:forecast}; nor effects that were caused by abilities but are no longer tied to an ability, such as the rain from []{ability:drizzle}.  This ability cannot ignore []{ability:multitype} at all.\n\nAn ability ignored by this ability is only nullified while the move is being used.  For example, this Pokémon''s moves can [paralyze]{mechanic:paralysis} a Pokémon with []{ability:limber}, but Limber will activate and heal the paralysis immediately thereafter, and this Pokémon''s []{move:spikes} are not affected by this ability after they have been placed.\n\nWhen this Pokémon enters battle, all participating trainers are notified that it has this ability.\n\nThis ability functions identically to []{ability:mold-breaker} and []{ability:teravolt}.</t>
+  </si>
+  <si>
+    <t>This Pokémon''s moves completely ignore abilities that could hinder or prevent their effect on the target.\n\nFor example, this Pokémon''s moves ignore abilities that would fully negate them, such as []{ability:water-absorb}; abilities that would prevent any of their effects, such as []{ability:clear-body}, []{ability:shell-armor}, or []{ability:sticky-hold}; and abilities that grant any general protective benefit, such as []{ability:simple}, []{ability:snow-cloak}, or []{ability:thick-fat}.  If an ability could either hinder or help this Pokémon''s moves, e.g. []{ability:dry-skin} or []{ability:unaware}, the ability is ignored either way.\n\nAbilities that do not fit this description, even if they could hinder moves in some other way, are not affected.  For example, []{ability:cursed-body} only affects potential future uses of the move, while []{ability:liquid-ooze} and []{ability:shadow-tag} can only hinder a move''s effect on the user.  This ablity cannot ignore type or form changes granted by abilities, for example []{ability:color-change} or []{ability:forecast}; nor effects that were caused by abilities but are no longer tied to an ability, such as the rain from []{ability:drizzle}.  This ability cannot ignore []{ability:multitype} at all.\n\nAn ability ignored by this ability is only nullified while the move is being used.  For example, this Pokémon''s moves can [paralyze]{mechanic:paralysis} a Pokémon with []{ability:limber}, but Limber will activate and heal the paralysis immediately thereafter, and this Pokémon''s []{move:spikes} are not affected by this ability after they have been placed.\n\nWhen this Pokémon enters battle, all participating trainers are notified that it has this ability.\n\nThis ability functions identically to []{ability:mold-breaker} and []{ability:turboblaze}.</t>
+  </si>
+  <si>
+    <t>Restores HP upon eating a Berry, in addition to the Berry''s effect.</t>
+  </si>
+  <si>
+    <t>Changes the bearer''s type to match each move it uses.</t>
+  </si>
+  <si>
+    <t>Changes the bearer''s type to match each move it uses.\n\nThe type change takes place just before the move is used.</t>
+  </si>
+  <si>
+    <t>Steals the target''s held item when the bearer uses a damaging move.</t>
+  </si>
+  <si>
+    <t>Turns the bearer''s []{type:normal} moves into []{type:ice} moves and strengthens them to 1.3× their power.</t>
+  </si>
+  <si>
+    <t>Turns the bearer''s []{type:normal}-type moves into []{type:ice}-type moves.  Moves changed by this ability have 1.3× their power.</t>
+  </si>
+  <si>
+    <t>Raises []{type:flying} moves'' priority by one stage.</t>
+  </si>
+  <si>
+    <t>Passes the bearer''s held item to an ally when the ally uses up its item.</t>
+  </si>
+  <si>
+    <t>Turns the bearer''s []{type:normal} moves into []{type:fairy} moves and strengthens them to 1.3× their power.</t>
+  </si>
+  <si>
+    <t>Turns the bearer''s []{type:normal}-type moves into []{type:fairy} moves.  Moves changed by this ability have 1.3× their power.</t>
+  </si>
+  <si>
+    <t>Lowers attacking Pokémon''s Speed by one stage on contact.</t>
+  </si>
+  <si>
+    <t>Turns the bearer''s []{type:normal} moves into []{type:flying} moves and strengthens them to 1.3× their power.</t>
+  </si>
+  <si>
+    <t>Turns the bearer''s []{type:normal}-type moves into []{type:flying}-type moves.  Moves changed by this ability have 1.3× their power.</t>
+  </si>
+  <si>
+    <t>Raises this Pokémon''s Defense by one stage when it takes damage from a move.</t>
+  </si>
+  <si>
+    <t>After this Pokémon is hit by a move, if that move caused this Pokémon''s HP to drop below half, it switches out.</t>
+  </si>
+  <si>
+    <t>Raises this Pokémon''s Defense by two stages when it''s hit by a Water move.</t>
+  </si>
+  <si>
+    <t>This Pokémon''s moves critical hit against poisoned targets.</t>
+  </si>
+  <si>
+    <t>This Pokémon''s moves have double power against Pokémon that switched in this turn.</t>
+  </si>
+  <si>
+    <t>This Pokémon''s Steel moves have 1.5× power.</t>
+  </si>
+  <si>
+    <t>Raises this Pokémon''s Special Attack by one stage every time its HP drops below half.</t>
+  </si>
+  <si>
+    <t>This Pokémon''s moves do not make contact.</t>
+  </si>
+  <si>
+    <t>When this Pokémon uses a move that is sound-based, that move''s type is Water.</t>
+  </si>
+  <si>
+    <t>This Pokémon''s healing moves have their priority increased by 3.</t>
+  </si>
+  <si>
+    <t>This Pokémon''s Normal moves are Electric and have their power increased to 1.2×.</t>
+  </si>
+  <si>
+    <t>Doubles this Pokémon''s Speed on Electric Terrain.</t>
+  </si>
+  <si>
+    <t>Transforms this Pokémon into Ash-Greninja after fainting an opponent.  Water Shuriken''s power is 20 and always hits three times.</t>
+  </si>
+  <si>
+    <t>Transforms this Pokémon into Ash-Greninja after fainting an opponent.  Water Shuriken''s power is 20 and always hits three times.\n\nThis ability cannot be copied or replaced.  This ability only takes effect for Greninja.</t>
+  </si>
+  <si>
+    <t>This Pokémon''s moves and item ignore the usual immunity of Poison and Steel Pokémon when attempting to inflict poison.</t>
+  </si>
+  <si>
+    <t>This Pokémon always acts as though it were Asleep.  It cannot be given another status ailment; it''s unaffected by []{move:yawn}; it can use []{move:sleep-talk}; and so on.</t>
+  </si>
+  <si>
+    <t>When this Pokémon faints from an opponent''s move, that opponent takes damage equal to the HP this Pokémon had remaining.</t>
+  </si>
+  <si>
+    <t>Ally Pokémon''s moves have their power increased to 1.3×.</t>
+  </si>
+  <si>
+    <t>This Pokémon''s Special Attack rises by one stage every time any Pokémon faints.</t>
+  </si>
+  <si>
+    <t>When this Pokémon takes regular damage from a contact move, the attacking Pokémon''s Speed lowers by one stage.</t>
+  </si>
+  <si>
+    <t>Raises this Pokémon''s highest stat by one stage when it faints another Pokémon.</t>
+  </si>
+  <si>
+    <t>Changes this Pokémon''s type to match its held Memory.</t>
+  </si>
+  <si>
+    <t>Changes this Pokémon''s type to match its held Memory.\n\nThis ability cannot be copied, replaced, or nullified.  This ability only takes effect for Silvally.</t>
+  </si>
+  <si>
+    <t>Other Pokémon cannot lower this Pokémon''s stats.</t>
+  </si>
+  <si>
+    <t>This Pokémon''s stats cannot be lowered by other Pokémon''s moves or abilities.  This effect only applies to normal stat modifications and not more exotic effects such as []{move:topsy-turvy} or []{move:power-swap}.\n\nThis Ability is not bypassed by []{ability:mold-breaker}, []{ability:teravolt}, or []{ability:turboblaze}.</t>
+  </si>
+  <si>
+    <t>TRUE</t>
+  </si>
+  <si>
+    <t>FALSE</t>
+  </si>
+  <si>
+    <t>This Pokémon''s damaging moves have a 10% chance to make the target [flinch]{mechanic:flinch} with each hit if they do not already cause flinching as a secondary effect.\n\nThis ability does not stack with a held item.\n\nOverworld: The wild encounter rate is halved while this Pokémon is first in the party.</t>
   </si>
 </sst>
 </file>
@@ -3401,25 +3407,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>1003</v>
+        <v>857</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1002</v>
+        <v>856</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1001</v>
+        <v>855</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>1000</v>
+        <v>854</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>999</v>
+        <v>853</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>998</v>
+        <v>852</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>997</v>
+        <v>851</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -3427,22 +3433,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>996</v>
+        <v>850</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>995</v>
+        <v>849</v>
       </c>
       <c r="D2" t="s">
-        <v>994</v>
+        <v>848</v>
       </c>
       <c r="E2" t="s">
-        <v>993</v>
+        <v>1007</v>
       </c>
       <c r="F2" s="1">
         <v>3</v>
       </c>
-      <c r="G2" s="1">
-        <v>1</v>
+      <c r="G2" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -3450,22 +3456,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>992</v>
+        <v>847</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>991</v>
+        <v>846</v>
       </c>
       <c r="D3" t="s">
-        <v>990</v>
+        <v>845</v>
       </c>
       <c r="E3" t="s">
-        <v>989</v>
+        <v>860</v>
       </c>
       <c r="F3" s="1">
         <v>3</v>
       </c>
-      <c r="G3" s="1">
-        <v>1</v>
+      <c r="G3" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -3473,22 +3479,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>988</v>
+        <v>844</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>987</v>
+        <v>843</v>
       </c>
       <c r="D4" t="s">
-        <v>986</v>
+        <v>842</v>
       </c>
       <c r="E4" t="s">
-        <v>985</v>
+        <v>861</v>
       </c>
       <c r="F4" s="1">
         <v>3</v>
       </c>
-      <c r="G4" s="1">
-        <v>1</v>
+      <c r="G4" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -3496,22 +3502,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>984</v>
+        <v>841</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>983</v>
+        <v>840</v>
       </c>
       <c r="D5" t="s">
-        <v>706</v>
+        <v>604</v>
       </c>
       <c r="E5" t="s">
-        <v>982</v>
+        <v>839</v>
       </c>
       <c r="F5" s="1">
         <v>3</v>
       </c>
-      <c r="G5" s="1">
-        <v>1</v>
+      <c r="G5" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -3519,22 +3525,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>981</v>
+        <v>838</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>980</v>
+        <v>837</v>
       </c>
       <c r="D6" t="s">
-        <v>979</v>
+        <v>836</v>
       </c>
       <c r="E6" t="s">
-        <v>978</v>
+        <v>835</v>
       </c>
       <c r="F6" s="1">
         <v>3</v>
       </c>
-      <c r="G6" s="1">
-        <v>1</v>
+      <c r="G6" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -3542,22 +3548,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>977</v>
+        <v>834</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>976</v>
+        <v>833</v>
       </c>
       <c r="D7" t="s">
-        <v>975</v>
+        <v>832</v>
       </c>
       <c r="E7" t="s">
-        <v>974</v>
+        <v>831</v>
       </c>
       <c r="F7" s="1">
         <v>3</v>
       </c>
-      <c r="G7" s="1">
-        <v>1</v>
+      <c r="G7" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -3565,22 +3571,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>973</v>
+        <v>830</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>972</v>
+        <v>829</v>
       </c>
       <c r="D8" t="s">
-        <v>971</v>
+        <v>828</v>
       </c>
       <c r="E8" t="s">
-        <v>970</v>
+        <v>827</v>
       </c>
       <c r="F8" s="1">
         <v>3</v>
       </c>
-      <c r="G8" s="1">
-        <v>1</v>
+      <c r="G8" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -3588,22 +3594,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>969</v>
+        <v>826</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>968</v>
+        <v>825</v>
       </c>
       <c r="D9" t="s">
-        <v>967</v>
+        <v>824</v>
       </c>
       <c r="E9" t="s">
-        <v>966</v>
+        <v>823</v>
       </c>
       <c r="F9" s="1">
         <v>3</v>
       </c>
-      <c r="G9" s="1">
-        <v>1</v>
+      <c r="G9" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -3611,22 +3617,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>965</v>
+        <v>822</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>964</v>
+        <v>821</v>
       </c>
       <c r="D10" t="s">
-        <v>963</v>
+        <v>820</v>
       </c>
       <c r="E10" t="s">
-        <v>962</v>
+        <v>862</v>
       </c>
       <c r="F10" s="2">
         <v>3</v>
       </c>
-      <c r="G10" s="1">
-        <v>1</v>
+      <c r="G10" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -3634,22 +3640,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>961</v>
+        <v>819</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>960</v>
+        <v>818</v>
       </c>
       <c r="D11" t="s">
-        <v>959</v>
+        <v>817</v>
       </c>
       <c r="E11" t="s">
-        <v>958</v>
+        <v>863</v>
       </c>
       <c r="F11" s="1">
         <v>3</v>
       </c>
-      <c r="G11" s="1">
-        <v>1</v>
+      <c r="G11" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -3657,22 +3663,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>957</v>
+        <v>816</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>956</v>
+        <v>815</v>
       </c>
       <c r="D12" t="s">
-        <v>955</v>
+        <v>814</v>
       </c>
       <c r="E12" t="s">
-        <v>954</v>
+        <v>864</v>
       </c>
       <c r="F12" s="1">
         <v>3</v>
       </c>
-      <c r="G12" s="1">
-        <v>1</v>
+      <c r="G12" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -3680,22 +3686,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>953</v>
+        <v>813</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>952</v>
+        <v>812</v>
       </c>
       <c r="D13" t="s">
-        <v>951</v>
+        <v>811</v>
       </c>
       <c r="E13" t="s">
-        <v>950</v>
+        <v>810</v>
       </c>
       <c r="F13" s="1">
         <v>3</v>
       </c>
-      <c r="G13" s="1">
-        <v>1</v>
+      <c r="G13" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -3703,22 +3709,22 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>949</v>
+        <v>809</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>948</v>
+        <v>808</v>
       </c>
       <c r="D14" t="s">
-        <v>702</v>
+        <v>600</v>
       </c>
       <c r="E14" t="s">
-        <v>947</v>
+        <v>807</v>
       </c>
       <c r="F14" s="1">
         <v>3</v>
       </c>
-      <c r="G14" s="1">
-        <v>1</v>
+      <c r="G14" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -3726,22 +3732,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>946</v>
+        <v>806</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>945</v>
+        <v>805</v>
       </c>
       <c r="D15" t="s">
-        <v>944</v>
+        <v>865</v>
       </c>
       <c r="E15" t="s">
-        <v>943</v>
+        <v>866</v>
       </c>
       <c r="F15" s="1">
         <v>3</v>
       </c>
-      <c r="G15" s="1">
-        <v>1</v>
+      <c r="G15" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -3749,22 +3755,22 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>942</v>
+        <v>804</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>941</v>
+        <v>803</v>
       </c>
       <c r="D16" t="s">
-        <v>718</v>
+        <v>615</v>
       </c>
       <c r="E16" t="s">
-        <v>940</v>
+        <v>802</v>
       </c>
       <c r="F16" s="1">
         <v>3</v>
       </c>
-      <c r="G16" s="1">
-        <v>1</v>
+      <c r="G16" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -3772,22 +3778,22 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>939</v>
+        <v>801</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>938</v>
+        <v>800</v>
       </c>
       <c r="D17" t="s">
-        <v>937</v>
+        <v>799</v>
       </c>
       <c r="E17" t="s">
-        <v>936</v>
+        <v>867</v>
       </c>
       <c r="F17" s="1">
         <v>3</v>
       </c>
-      <c r="G17" s="1">
-        <v>1</v>
+      <c r="G17" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -3795,22 +3801,22 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>935</v>
+        <v>798</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>934</v>
+        <v>797</v>
       </c>
       <c r="D18" t="s">
-        <v>933</v>
+        <v>796</v>
       </c>
       <c r="E18" t="s">
-        <v>932</v>
+        <v>795</v>
       </c>
       <c r="F18" s="1">
         <v>3</v>
       </c>
-      <c r="G18" s="1">
-        <v>1</v>
+      <c r="G18" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -3818,22 +3824,22 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>931</v>
+        <v>794</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>930</v>
+        <v>793</v>
       </c>
       <c r="D19" t="s">
-        <v>929</v>
+        <v>868</v>
       </c>
       <c r="E19" t="s">
-        <v>928</v>
+        <v>869</v>
       </c>
       <c r="F19" s="1">
         <v>3</v>
       </c>
-      <c r="G19" s="1">
-        <v>1</v>
+      <c r="G19" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -3841,22 +3847,22 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>927</v>
+        <v>792</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>926</v>
+        <v>791</v>
       </c>
       <c r="D20" t="s">
-        <v>925</v>
+        <v>870</v>
       </c>
       <c r="E20" t="s">
-        <v>924</v>
+        <v>871</v>
       </c>
       <c r="F20" s="1">
         <v>3</v>
       </c>
-      <c r="G20" s="1">
-        <v>1</v>
+      <c r="G20" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -3864,22 +3870,22 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>923</v>
+        <v>790</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>922</v>
+        <v>789</v>
       </c>
       <c r="D21" t="s">
-        <v>921</v>
+        <v>788</v>
       </c>
       <c r="E21" t="s">
-        <v>920</v>
+        <v>787</v>
       </c>
       <c r="F21" s="1">
         <v>3</v>
       </c>
-      <c r="G21" s="1">
-        <v>1</v>
+      <c r="G21" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -3887,22 +3893,22 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>919</v>
+        <v>786</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>918</v>
+        <v>785</v>
       </c>
       <c r="D22" t="s">
-        <v>917</v>
+        <v>872</v>
       </c>
       <c r="E22" t="s">
-        <v>916</v>
+        <v>784</v>
       </c>
       <c r="F22" s="1">
         <v>3</v>
       </c>
-      <c r="G22" s="1">
-        <v>1</v>
+      <c r="G22" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -3910,22 +3916,22 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>915</v>
+        <v>783</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>914</v>
+        <v>782</v>
       </c>
       <c r="D23" t="s">
-        <v>913</v>
+        <v>873</v>
       </c>
       <c r="E23" t="s">
-        <v>912</v>
+        <v>874</v>
       </c>
       <c r="F23" s="1">
         <v>3</v>
       </c>
-      <c r="G23" s="1">
-        <v>1</v>
+      <c r="G23" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -3933,22 +3939,22 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>911</v>
+        <v>781</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>910</v>
+        <v>780</v>
       </c>
       <c r="D24" t="s">
-        <v>909</v>
+        <v>779</v>
       </c>
       <c r="E24" t="s">
-        <v>908</v>
+        <v>778</v>
       </c>
       <c r="F24" s="1">
         <v>3</v>
       </c>
-      <c r="G24" s="1">
-        <v>1</v>
+      <c r="G24" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -3956,22 +3962,22 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>907</v>
+        <v>777</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>906</v>
+        <v>776</v>
       </c>
       <c r="D25" t="s">
-        <v>368</v>
+        <v>323</v>
       </c>
       <c r="E25" t="s">
-        <v>905</v>
+        <v>875</v>
       </c>
       <c r="F25" s="1">
         <v>3</v>
       </c>
-      <c r="G25" s="1">
-        <v>1</v>
+      <c r="G25" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -3979,22 +3985,22 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>904</v>
+        <v>775</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>903</v>
+        <v>774</v>
       </c>
       <c r="D26" t="s">
-        <v>902</v>
+        <v>773</v>
       </c>
       <c r="E26" t="s">
-        <v>901</v>
+        <v>772</v>
       </c>
       <c r="F26" s="1">
         <v>3</v>
       </c>
-      <c r="G26" s="1">
-        <v>1</v>
+      <c r="G26" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -4002,22 +4008,22 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>900</v>
+        <v>771</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>899</v>
+        <v>770</v>
       </c>
       <c r="D27" t="s">
-        <v>898</v>
+        <v>769</v>
       </c>
       <c r="E27" t="s">
-        <v>897</v>
+        <v>768</v>
       </c>
       <c r="F27" s="1">
         <v>3</v>
       </c>
-      <c r="G27" s="1">
-        <v>1</v>
+      <c r="G27" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -4025,22 +4031,22 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>896</v>
+        <v>767</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>895</v>
+        <v>766</v>
       </c>
       <c r="D28" t="s">
-        <v>894</v>
+        <v>765</v>
       </c>
       <c r="E28" t="s">
-        <v>893</v>
+        <v>876</v>
       </c>
       <c r="F28" s="1">
         <v>3</v>
       </c>
-      <c r="G28" s="1">
-        <v>1</v>
+      <c r="G28" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -4048,22 +4054,22 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>892</v>
+        <v>764</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>891</v>
+        <v>763</v>
       </c>
       <c r="D29" t="s">
-        <v>890</v>
+        <v>762</v>
       </c>
       <c r="E29" t="s">
-        <v>889</v>
+        <v>877</v>
       </c>
       <c r="F29" s="1">
         <v>3</v>
       </c>
-      <c r="G29" s="1">
-        <v>1</v>
+      <c r="G29" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -4071,22 +4077,22 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>888</v>
+        <v>761</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>887</v>
+        <v>760</v>
       </c>
       <c r="D30" t="s">
-        <v>714</v>
+        <v>611</v>
       </c>
       <c r="E30" t="s">
-        <v>886</v>
+        <v>759</v>
       </c>
       <c r="F30" s="1">
         <v>3</v>
       </c>
-      <c r="G30" s="1">
-        <v>1</v>
+      <c r="G30" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -4094,22 +4100,22 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>885</v>
+        <v>758</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>884</v>
+        <v>757</v>
       </c>
       <c r="D31" t="s">
-        <v>883</v>
+        <v>756</v>
       </c>
       <c r="E31" t="s">
-        <v>882</v>
+        <v>755</v>
       </c>
       <c r="F31" s="1">
         <v>3</v>
       </c>
-      <c r="G31" s="1">
-        <v>1</v>
+      <c r="G31" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -4117,13 +4123,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>881</v>
+        <v>754</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>880</v>
+        <v>753</v>
       </c>
       <c r="D32" t="s">
-        <v>879</v>
+        <v>752</v>
       </c>
       <c r="E32" t="s">
         <v>878</v>
@@ -4131,8 +4137,8 @@
       <c r="F32" s="1">
         <v>3</v>
       </c>
-      <c r="G32" s="1">
-        <v>1</v>
+      <c r="G32" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -4140,22 +4146,22 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>877</v>
+        <v>751</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>876</v>
+        <v>750</v>
       </c>
       <c r="D33" t="s">
-        <v>875</v>
+        <v>879</v>
       </c>
       <c r="E33" t="s">
-        <v>874</v>
+        <v>880</v>
       </c>
       <c r="F33" s="1">
         <v>3</v>
       </c>
-      <c r="G33" s="1">
-        <v>1</v>
+      <c r="G33" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -4163,22 +4169,22 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>873</v>
+        <v>749</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>872</v>
+        <v>748</v>
       </c>
       <c r="D34" t="s">
-        <v>871</v>
+        <v>747</v>
       </c>
       <c r="E34" t="s">
-        <v>870</v>
+        <v>881</v>
       </c>
       <c r="F34" s="1">
         <v>3</v>
       </c>
-      <c r="G34" s="1">
-        <v>1</v>
+      <c r="G34" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -4186,22 +4192,22 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>869</v>
+        <v>746</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>868</v>
+        <v>745</v>
       </c>
       <c r="D35" t="s">
-        <v>867</v>
+        <v>744</v>
       </c>
       <c r="E35" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="F35" s="1">
         <v>3</v>
       </c>
-      <c r="G35" s="1">
-        <v>1</v>
+      <c r="G35" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -4209,22 +4215,22 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>865</v>
+        <v>743</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>864</v>
+        <v>742</v>
       </c>
       <c r="D36" t="s">
-        <v>863</v>
+        <v>741</v>
       </c>
       <c r="E36" t="s">
-        <v>862</v>
+        <v>740</v>
       </c>
       <c r="F36" s="1">
         <v>3</v>
       </c>
-      <c r="G36" s="1">
-        <v>1</v>
+      <c r="G36" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -4232,22 +4238,22 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>861</v>
+        <v>739</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>860</v>
+        <v>738</v>
       </c>
       <c r="D37" t="s">
-        <v>859</v>
+        <v>883</v>
       </c>
       <c r="E37" t="s">
-        <v>858</v>
+        <v>884</v>
       </c>
       <c r="F37" s="1">
         <v>3</v>
       </c>
-      <c r="G37" s="1">
-        <v>1</v>
+      <c r="G37" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -4255,22 +4261,22 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>857</v>
+        <v>737</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>856</v>
+        <v>736</v>
       </c>
       <c r="D38" t="s">
-        <v>710</v>
+        <v>607</v>
       </c>
       <c r="E38" t="s">
-        <v>855</v>
+        <v>885</v>
       </c>
       <c r="F38" s="1">
         <v>3</v>
       </c>
-      <c r="G38" s="1">
-        <v>1</v>
+      <c r="G38" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -4278,22 +4284,22 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>854</v>
+        <v>735</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>853</v>
+        <v>734</v>
       </c>
       <c r="D39" t="s">
-        <v>852</v>
+        <v>733</v>
       </c>
       <c r="E39" t="s">
-        <v>851</v>
+        <v>886</v>
       </c>
       <c r="F39" s="1">
         <v>3</v>
       </c>
-      <c r="G39" s="1">
-        <v>1</v>
+      <c r="G39" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -4301,22 +4307,22 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>850</v>
+        <v>732</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>849</v>
+        <v>731</v>
       </c>
       <c r="D40" t="s">
-        <v>848</v>
+        <v>730</v>
       </c>
       <c r="E40" t="s">
-        <v>847</v>
+        <v>729</v>
       </c>
       <c r="F40" s="1">
         <v>3</v>
       </c>
-      <c r="G40" s="1">
-        <v>1</v>
+      <c r="G40" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -4324,22 +4330,22 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>846</v>
+        <v>728</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>845</v>
+        <v>727</v>
       </c>
       <c r="D41" t="s">
-        <v>844</v>
+        <v>726</v>
       </c>
       <c r="E41" t="s">
-        <v>843</v>
+        <v>725</v>
       </c>
       <c r="F41" s="1">
         <v>3</v>
       </c>
-      <c r="G41" s="1">
-        <v>1</v>
+      <c r="G41" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -4347,22 +4353,22 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>842</v>
+        <v>724</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>841</v>
+        <v>723</v>
       </c>
       <c r="D42" t="s">
-        <v>840</v>
+        <v>722</v>
       </c>
       <c r="E42" t="s">
-        <v>839</v>
+        <v>721</v>
       </c>
       <c r="F42" s="1">
         <v>3</v>
       </c>
-      <c r="G42" s="1">
-        <v>1</v>
+      <c r="G42" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -4370,22 +4376,22 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>838</v>
+        <v>720</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>837</v>
+        <v>719</v>
       </c>
       <c r="D43" t="s">
-        <v>836</v>
+        <v>718</v>
       </c>
       <c r="E43" t="s">
-        <v>835</v>
+        <v>717</v>
       </c>
       <c r="F43" s="1">
         <v>3</v>
       </c>
-      <c r="G43" s="1">
-        <v>1</v>
+      <c r="G43" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -4393,22 +4399,22 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>834</v>
+        <v>716</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>833</v>
+        <v>715</v>
       </c>
       <c r="D44" t="s">
-        <v>832</v>
+        <v>714</v>
       </c>
       <c r="E44" t="s">
-        <v>831</v>
+        <v>713</v>
       </c>
       <c r="F44" s="1">
         <v>3</v>
       </c>
-      <c r="G44" s="1">
-        <v>1</v>
+      <c r="G44" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -4416,22 +4422,22 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>830</v>
+        <v>712</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>829</v>
+        <v>711</v>
       </c>
       <c r="D45" t="s">
-        <v>828</v>
+        <v>710</v>
       </c>
       <c r="E45" t="s">
-        <v>827</v>
+        <v>709</v>
       </c>
       <c r="F45" s="1">
         <v>3</v>
       </c>
-      <c r="G45" s="1">
-        <v>1</v>
+      <c r="G45" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -4439,22 +4445,22 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>826</v>
+        <v>708</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>825</v>
+        <v>707</v>
       </c>
       <c r="D46" t="s">
-        <v>824</v>
+        <v>706</v>
       </c>
       <c r="E46" t="s">
-        <v>823</v>
+        <v>887</v>
       </c>
       <c r="F46" s="1">
         <v>3</v>
       </c>
-      <c r="G46" s="1">
-        <v>1</v>
+      <c r="G46" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -4462,22 +4468,22 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>822</v>
+        <v>705</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>821</v>
+        <v>704</v>
       </c>
       <c r="D47" t="s">
-        <v>820</v>
+        <v>703</v>
       </c>
       <c r="E47" t="s">
-        <v>819</v>
+        <v>888</v>
       </c>
       <c r="F47" s="1">
         <v>3</v>
       </c>
-      <c r="G47" s="1">
-        <v>1</v>
+      <c r="G47" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -4485,22 +4491,22 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>818</v>
+        <v>702</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>817</v>
+        <v>701</v>
       </c>
       <c r="D48" t="s">
-        <v>816</v>
+        <v>700</v>
       </c>
       <c r="E48" t="s">
-        <v>815</v>
+        <v>699</v>
       </c>
       <c r="F48" s="1">
         <v>3</v>
       </c>
-      <c r="G48" s="1">
-        <v>1</v>
+      <c r="G48" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -4508,22 +4514,22 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>814</v>
+        <v>698</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>813</v>
+        <v>697</v>
       </c>
       <c r="D49" t="s">
-        <v>812</v>
+        <v>696</v>
       </c>
       <c r="E49" t="s">
-        <v>811</v>
+        <v>889</v>
       </c>
       <c r="F49" s="1">
         <v>3</v>
       </c>
-      <c r="G49" s="1">
-        <v>1</v>
+      <c r="G49" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -4531,22 +4537,22 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>810</v>
+        <v>695</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>809</v>
+        <v>694</v>
       </c>
       <c r="D50" t="s">
-        <v>808</v>
+        <v>693</v>
       </c>
       <c r="E50" t="s">
-        <v>807</v>
+        <v>890</v>
       </c>
       <c r="F50" s="1">
         <v>3</v>
       </c>
-      <c r="G50" s="1">
-        <v>1</v>
+      <c r="G50" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -4554,22 +4560,22 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>806</v>
+        <v>692</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>805</v>
+        <v>691</v>
       </c>
       <c r="D51" t="s">
-        <v>804</v>
+        <v>690</v>
       </c>
       <c r="E51" t="s">
-        <v>803</v>
+        <v>689</v>
       </c>
       <c r="F51" s="1">
         <v>3</v>
       </c>
-      <c r="G51" s="1">
-        <v>1</v>
+      <c r="G51" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -4577,22 +4583,22 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>802</v>
+        <v>688</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>801</v>
+        <v>687</v>
       </c>
       <c r="D52" t="s">
-        <v>800</v>
+        <v>686</v>
       </c>
       <c r="E52" t="s">
-        <v>799</v>
+        <v>891</v>
       </c>
       <c r="F52" s="1">
         <v>3</v>
       </c>
-      <c r="G52" s="1">
-        <v>1</v>
+      <c r="G52" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -4600,22 +4606,22 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>798</v>
+        <v>685</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>797</v>
+        <v>684</v>
       </c>
       <c r="D53" t="s">
-        <v>796</v>
+        <v>683</v>
       </c>
       <c r="E53" t="s">
-        <v>795</v>
+        <v>892</v>
       </c>
       <c r="F53" s="1">
         <v>3</v>
       </c>
-      <c r="G53" s="1">
-        <v>1</v>
+      <c r="G53" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -4623,22 +4629,22 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>794</v>
+        <v>682</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>793</v>
+        <v>681</v>
       </c>
       <c r="D54" t="s">
-        <v>792</v>
+        <v>893</v>
       </c>
       <c r="E54" t="s">
-        <v>791</v>
+        <v>894</v>
       </c>
       <c r="F54" s="1">
         <v>3</v>
       </c>
-      <c r="G54" s="1">
-        <v>1</v>
+      <c r="G54" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -4646,22 +4652,22 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>790</v>
+        <v>680</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>789</v>
+        <v>679</v>
       </c>
       <c r="D55" t="s">
-        <v>788</v>
+        <v>678</v>
       </c>
       <c r="E55" t="s">
-        <v>787</v>
+        <v>677</v>
       </c>
       <c r="F55" s="1">
         <v>3</v>
       </c>
-      <c r="G55" s="1">
-        <v>1</v>
+      <c r="G55" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -4669,22 +4675,22 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>786</v>
+        <v>676</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>785</v>
+        <v>675</v>
       </c>
       <c r="D56" t="s">
-        <v>784</v>
+        <v>674</v>
       </c>
       <c r="E56" t="s">
-        <v>783</v>
+        <v>895</v>
       </c>
       <c r="F56" s="1">
         <v>3</v>
       </c>
-      <c r="G56" s="1">
-        <v>1</v>
+      <c r="G56" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -4692,22 +4698,22 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>782</v>
+        <v>673</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>781</v>
+        <v>672</v>
       </c>
       <c r="D57" t="s">
-        <v>780</v>
+        <v>671</v>
       </c>
       <c r="E57" t="s">
-        <v>779</v>
+        <v>896</v>
       </c>
       <c r="F57" s="1">
         <v>3</v>
       </c>
-      <c r="G57" s="1">
-        <v>1</v>
+      <c r="G57" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -4715,22 +4721,22 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>778</v>
+        <v>670</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>777</v>
+        <v>669</v>
       </c>
       <c r="D58" t="s">
-        <v>774</v>
+        <v>666</v>
       </c>
       <c r="E58" t="s">
-        <v>773</v>
+        <v>665</v>
       </c>
       <c r="F58" s="1">
         <v>3</v>
       </c>
-      <c r="G58" s="1">
-        <v>1</v>
+      <c r="G58" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -4738,22 +4744,22 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>776</v>
+        <v>668</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>775</v>
+        <v>667</v>
       </c>
       <c r="D59" t="s">
-        <v>774</v>
+        <v>666</v>
       </c>
       <c r="E59" t="s">
-        <v>773</v>
+        <v>665</v>
       </c>
       <c r="F59" s="1">
         <v>3</v>
       </c>
-      <c r="G59" s="1">
-        <v>1</v>
+      <c r="G59" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -4761,22 +4767,22 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>772</v>
+        <v>664</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>771</v>
+        <v>663</v>
       </c>
       <c r="D60" t="s">
-        <v>770</v>
+        <v>897</v>
       </c>
       <c r="E60" t="s">
-        <v>769</v>
+        <v>898</v>
       </c>
       <c r="F60" s="1">
         <v>3</v>
       </c>
-      <c r="G60" s="1">
-        <v>1</v>
+      <c r="G60" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -4784,22 +4790,22 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>768</v>
+        <v>662</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>767</v>
+        <v>661</v>
       </c>
       <c r="D61" t="s">
-        <v>766</v>
+        <v>660</v>
       </c>
       <c r="E61" t="s">
-        <v>765</v>
+        <v>899</v>
       </c>
       <c r="F61" s="1">
         <v>3</v>
       </c>
-      <c r="G61" s="1">
-        <v>1</v>
+      <c r="G61" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -4807,22 +4813,22 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>764</v>
+        <v>659</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>763</v>
+        <v>658</v>
       </c>
       <c r="D62" t="s">
-        <v>762</v>
+        <v>657</v>
       </c>
       <c r="E62" t="s">
-        <v>761</v>
+        <v>656</v>
       </c>
       <c r="F62" s="1">
         <v>3</v>
       </c>
-      <c r="G62" s="1">
-        <v>1</v>
+      <c r="G62" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -4830,22 +4836,22 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>760</v>
+        <v>655</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>759</v>
+        <v>654</v>
       </c>
       <c r="D63" t="s">
-        <v>758</v>
+        <v>653</v>
       </c>
       <c r="E63" t="s">
-        <v>757</v>
+        <v>652</v>
       </c>
       <c r="F63" s="1">
         <v>3</v>
       </c>
-      <c r="G63" s="1">
-        <v>1</v>
+      <c r="G63" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -4853,22 +4859,22 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>756</v>
+        <v>651</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>755</v>
+        <v>650</v>
       </c>
       <c r="D64" t="s">
-        <v>754</v>
+        <v>649</v>
       </c>
       <c r="E64" t="s">
-        <v>753</v>
+        <v>648</v>
       </c>
       <c r="F64" s="1">
         <v>3</v>
       </c>
-      <c r="G64" s="1">
-        <v>1</v>
+      <c r="G64" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -4876,22 +4882,22 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>752</v>
+        <v>647</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>751</v>
+        <v>646</v>
       </c>
       <c r="D65" t="s">
-        <v>750</v>
+        <v>645</v>
       </c>
       <c r="E65" t="s">
-        <v>749</v>
+        <v>644</v>
       </c>
       <c r="F65" s="1">
         <v>3</v>
       </c>
-      <c r="G65" s="1">
-        <v>1</v>
+      <c r="G65" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -4899,22 +4905,22 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>748</v>
+        <v>643</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>747</v>
+        <v>642</v>
       </c>
       <c r="D66" t="s">
-        <v>746</v>
+        <v>641</v>
       </c>
       <c r="E66" t="s">
-        <v>745</v>
+        <v>640</v>
       </c>
       <c r="F66" s="1">
         <v>3</v>
       </c>
-      <c r="G66" s="1">
-        <v>1</v>
+      <c r="G66" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -4922,22 +4928,22 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>744</v>
+        <v>639</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>743</v>
+        <v>638</v>
       </c>
       <c r="D67" t="s">
-        <v>742</v>
+        <v>637</v>
       </c>
       <c r="E67" t="s">
-        <v>741</v>
+        <v>636</v>
       </c>
       <c r="F67" s="1">
         <v>3</v>
       </c>
-      <c r="G67" s="1">
-        <v>1</v>
+      <c r="G67" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -4945,22 +4951,22 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>740</v>
+        <v>635</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>739</v>
+        <v>634</v>
       </c>
       <c r="D68" t="s">
-        <v>738</v>
+        <v>633</v>
       </c>
       <c r="E68" t="s">
-        <v>737</v>
+        <v>632</v>
       </c>
       <c r="F68" s="1">
         <v>3</v>
       </c>
-      <c r="G68" s="1">
-        <v>1</v>
+      <c r="G68" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -4968,22 +4974,22 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>736</v>
+        <v>631</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>735</v>
+        <v>630</v>
       </c>
       <c r="D69" t="s">
-        <v>734</v>
+        <v>629</v>
       </c>
       <c r="E69" t="s">
-        <v>733</v>
+        <v>628</v>
       </c>
       <c r="F69" s="1">
         <v>3</v>
       </c>
-      <c r="G69" s="1">
-        <v>1</v>
+      <c r="G69" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -4991,22 +4997,22 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>732</v>
+        <v>627</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>731</v>
+        <v>626</v>
       </c>
       <c r="D70" t="s">
-        <v>730</v>
+        <v>625</v>
       </c>
       <c r="E70" t="s">
-        <v>729</v>
+        <v>900</v>
       </c>
       <c r="F70" s="1">
         <v>3</v>
       </c>
-      <c r="G70" s="1">
-        <v>1</v>
+      <c r="G70" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -5014,22 +5020,22 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>728</v>
+        <v>624</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>727</v>
+        <v>623</v>
       </c>
       <c r="D71" t="s">
-        <v>726</v>
+        <v>622</v>
       </c>
       <c r="E71" t="s">
-        <v>725</v>
+        <v>901</v>
       </c>
       <c r="F71" s="1">
         <v>3</v>
       </c>
-      <c r="G71" s="1">
-        <v>1</v>
+      <c r="G71" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -5037,22 +5043,22 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>724</v>
+        <v>621</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>723</v>
+        <v>620</v>
       </c>
       <c r="D72" t="s">
-        <v>722</v>
+        <v>619</v>
       </c>
       <c r="E72" t="s">
-        <v>721</v>
+        <v>618</v>
       </c>
       <c r="F72" s="1">
         <v>3</v>
       </c>
-      <c r="G72" s="1">
-        <v>1</v>
+      <c r="G72" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -5060,22 +5066,22 @@
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>720</v>
+        <v>617</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>719</v>
+        <v>616</v>
       </c>
       <c r="D73" t="s">
-        <v>718</v>
+        <v>615</v>
       </c>
       <c r="E73" t="s">
-        <v>717</v>
+        <v>614</v>
       </c>
       <c r="F73" s="1">
         <v>3</v>
       </c>
-      <c r="G73" s="1">
-        <v>1</v>
+      <c r="G73" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -5083,22 +5089,22 @@
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>716</v>
+        <v>613</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>715</v>
+        <v>612</v>
       </c>
       <c r="D74" t="s">
-        <v>714</v>
+        <v>611</v>
       </c>
       <c r="E74" t="s">
-        <v>713</v>
+        <v>610</v>
       </c>
       <c r="F74" s="1">
         <v>3</v>
       </c>
-      <c r="G74" s="1">
-        <v>1</v>
+      <c r="G74" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -5106,22 +5112,22 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>712</v>
+        <v>609</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>711</v>
+        <v>608</v>
       </c>
       <c r="D75" t="s">
-        <v>710</v>
+        <v>607</v>
       </c>
       <c r="E75" t="s">
-        <v>709</v>
+        <v>902</v>
       </c>
       <c r="F75" s="1">
         <v>3</v>
       </c>
-      <c r="G75" s="1">
-        <v>1</v>
+      <c r="G75" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -5129,22 +5135,22 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>708</v>
+        <v>606</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>707</v>
+        <v>605</v>
       </c>
       <c r="D76" t="s">
-        <v>706</v>
+        <v>604</v>
       </c>
       <c r="E76" t="s">
-        <v>705</v>
+        <v>603</v>
       </c>
       <c r="F76" s="1">
         <v>3</v>
       </c>
-      <c r="G76" s="1">
-        <v>1</v>
+      <c r="G76" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -5152,22 +5158,22 @@
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>704</v>
+        <v>602</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>703</v>
+        <v>601</v>
       </c>
       <c r="D77" t="s">
-        <v>702</v>
+        <v>600</v>
       </c>
       <c r="E77" t="s">
-        <v>701</v>
+        <v>599</v>
       </c>
       <c r="F77" s="1">
         <v>3</v>
       </c>
-      <c r="G77" s="1">
-        <v>1</v>
+      <c r="G77" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -5175,22 +5181,22 @@
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>700</v>
+        <v>598</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>699</v>
+        <v>597</v>
       </c>
       <c r="D78" t="s">
-        <v>698</v>
+        <v>596</v>
       </c>
       <c r="E78" t="s">
-        <v>697</v>
+        <v>595</v>
       </c>
       <c r="F78" s="1">
         <v>4</v>
       </c>
-      <c r="G78" s="1">
-        <v>1</v>
+      <c r="G78" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -5198,22 +5204,22 @@
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>696</v>
+        <v>594</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>695</v>
+        <v>593</v>
       </c>
       <c r="D79" t="s">
-        <v>694</v>
+        <v>592</v>
       </c>
       <c r="E79" t="s">
-        <v>693</v>
+        <v>903</v>
       </c>
       <c r="F79" s="1">
         <v>4</v>
       </c>
-      <c r="G79" s="1">
-        <v>1</v>
+      <c r="G79" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -5221,22 +5227,22 @@
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>692</v>
+        <v>591</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>691</v>
+        <v>590</v>
       </c>
       <c r="D80" t="s">
-        <v>690</v>
+        <v>589</v>
       </c>
       <c r="E80" t="s">
-        <v>689</v>
+        <v>588</v>
       </c>
       <c r="F80" s="1">
         <v>4</v>
       </c>
-      <c r="G80" s="1">
-        <v>1</v>
+      <c r="G80" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -5244,22 +5250,22 @@
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>688</v>
+        <v>587</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>687</v>
+        <v>586</v>
       </c>
       <c r="D81" t="s">
-        <v>686</v>
+        <v>585</v>
       </c>
       <c r="E81" t="s">
-        <v>685</v>
+        <v>584</v>
       </c>
       <c r="F81" s="1">
         <v>4</v>
       </c>
-      <c r="G81" s="1">
-        <v>1</v>
+      <c r="G81" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -5267,22 +5273,22 @@
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>684</v>
+        <v>583</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>683</v>
+        <v>582</v>
       </c>
       <c r="D82" t="s">
-        <v>682</v>
+        <v>581</v>
       </c>
       <c r="E82" t="s">
-        <v>681</v>
+        <v>580</v>
       </c>
       <c r="F82" s="1">
         <v>4</v>
       </c>
-      <c r="G82" s="1">
-        <v>1</v>
+      <c r="G82" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -5290,22 +5296,22 @@
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>680</v>
+        <v>579</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>679</v>
+        <v>578</v>
       </c>
       <c r="D83" t="s">
-        <v>678</v>
+        <v>577</v>
       </c>
       <c r="E83" t="s">
-        <v>677</v>
+        <v>904</v>
       </c>
       <c r="F83" s="1">
         <v>4</v>
       </c>
-      <c r="G83" s="1">
-        <v>1</v>
+      <c r="G83" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -5313,22 +5319,22 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>676</v>
+        <v>576</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>675</v>
+        <v>575</v>
       </c>
       <c r="D84" t="s">
-        <v>674</v>
+        <v>574</v>
       </c>
       <c r="E84" t="s">
-        <v>673</v>
+        <v>573</v>
       </c>
       <c r="F84" s="1">
         <v>4</v>
       </c>
-      <c r="G84" s="1">
-        <v>1</v>
+      <c r="G84" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -5336,22 +5342,22 @@
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>672</v>
+        <v>572</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>671</v>
+        <v>571</v>
       </c>
       <c r="D85" t="s">
-        <v>670</v>
+        <v>570</v>
       </c>
       <c r="E85" t="s">
-        <v>669</v>
+        <v>569</v>
       </c>
       <c r="F85" s="1">
         <v>4</v>
       </c>
-      <c r="G85" s="1">
-        <v>1</v>
+      <c r="G85" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -5359,22 +5365,22 @@
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>668</v>
+        <v>568</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>667</v>
+        <v>567</v>
       </c>
       <c r="D86" t="s">
-        <v>666</v>
+        <v>566</v>
       </c>
       <c r="E86" t="s">
-        <v>665</v>
+        <v>565</v>
       </c>
       <c r="F86" s="1">
         <v>4</v>
       </c>
-      <c r="G86" s="1">
-        <v>1</v>
+      <c r="G86" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -5382,22 +5388,22 @@
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>664</v>
+        <v>564</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>663</v>
+        <v>563</v>
       </c>
       <c r="D87" t="s">
-        <v>662</v>
+        <v>905</v>
       </c>
       <c r="E87" t="s">
-        <v>661</v>
+        <v>906</v>
       </c>
       <c r="F87" s="1">
         <v>4</v>
       </c>
-      <c r="G87" s="1">
-        <v>1</v>
+      <c r="G87" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -5405,22 +5411,22 @@
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>660</v>
+        <v>562</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>659</v>
+        <v>561</v>
       </c>
       <c r="D88" t="s">
-        <v>658</v>
+        <v>560</v>
       </c>
       <c r="E88" t="s">
-        <v>657</v>
+        <v>559</v>
       </c>
       <c r="F88" s="1">
         <v>4</v>
       </c>
-      <c r="G88" s="1">
-        <v>1</v>
+      <c r="G88" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
@@ -5428,22 +5434,22 @@
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>656</v>
+        <v>558</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>655</v>
+        <v>557</v>
       </c>
       <c r="D89" t="s">
-        <v>654</v>
+        <v>907</v>
       </c>
       <c r="E89" t="s">
-        <v>653</v>
+        <v>908</v>
       </c>
       <c r="F89" s="1">
         <v>4</v>
       </c>
-      <c r="G89" s="1">
-        <v>1</v>
+      <c r="G89" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -5451,22 +5457,22 @@
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>652</v>
+        <v>556</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>651</v>
+        <v>555</v>
       </c>
       <c r="D90" t="s">
-        <v>650</v>
+        <v>554</v>
       </c>
       <c r="E90" t="s">
-        <v>649</v>
+        <v>553</v>
       </c>
       <c r="F90" s="1">
         <v>4</v>
       </c>
-      <c r="G90" s="1">
-        <v>1</v>
+      <c r="G90" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -5474,22 +5480,22 @@
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>648</v>
+        <v>552</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>647</v>
+        <v>551</v>
       </c>
       <c r="D91" t="s">
-        <v>646</v>
+        <v>550</v>
       </c>
       <c r="E91" t="s">
-        <v>645</v>
+        <v>549</v>
       </c>
       <c r="F91" s="1">
         <v>4</v>
       </c>
-      <c r="G91" s="1">
-        <v>1</v>
+      <c r="G91" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -5497,22 +5503,22 @@
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>644</v>
+        <v>548</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>643</v>
+        <v>547</v>
       </c>
       <c r="D92" t="s">
-        <v>642</v>
+        <v>546</v>
       </c>
       <c r="E92" t="s">
-        <v>641</v>
+        <v>545</v>
       </c>
       <c r="F92" s="1">
         <v>4</v>
       </c>
-      <c r="G92" s="1">
-        <v>1</v>
+      <c r="G92" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
@@ -5520,22 +5526,22 @@
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>640</v>
+        <v>544</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>639</v>
+        <v>543</v>
       </c>
       <c r="D93" t="s">
-        <v>638</v>
+        <v>542</v>
       </c>
       <c r="E93" t="s">
-        <v>637</v>
+        <v>909</v>
       </c>
       <c r="F93" s="1">
         <v>4</v>
       </c>
-      <c r="G93" s="1">
-        <v>1</v>
+      <c r="G93" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
@@ -5543,22 +5549,22 @@
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>636</v>
+        <v>541</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>635</v>
+        <v>540</v>
       </c>
       <c r="D94" t="s">
-        <v>634</v>
+        <v>539</v>
       </c>
       <c r="E94" t="s">
-        <v>633</v>
+        <v>538</v>
       </c>
       <c r="F94" s="1">
         <v>4</v>
       </c>
-      <c r="G94" s="1">
-        <v>1</v>
+      <c r="G94" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
@@ -5566,22 +5572,22 @@
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>632</v>
+        <v>537</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>631</v>
+        <v>536</v>
       </c>
       <c r="D95" t="s">
-        <v>630</v>
+        <v>535</v>
       </c>
       <c r="E95" t="s">
-        <v>629</v>
+        <v>534</v>
       </c>
       <c r="F95" s="1">
         <v>4</v>
       </c>
-      <c r="G95" s="1">
-        <v>1</v>
+      <c r="G95" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
@@ -5589,22 +5595,22 @@
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>628</v>
+        <v>533</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>627</v>
+        <v>532</v>
       </c>
       <c r="D96" t="s">
-        <v>626</v>
+        <v>531</v>
       </c>
       <c r="E96" t="s">
-        <v>625</v>
+        <v>530</v>
       </c>
       <c r="F96" s="1">
         <v>4</v>
       </c>
-      <c r="G96" s="1">
-        <v>1</v>
+      <c r="G96" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
@@ -5612,22 +5618,22 @@
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>624</v>
+        <v>529</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>623</v>
+        <v>528</v>
       </c>
       <c r="D97" t="s">
-        <v>622</v>
+        <v>910</v>
       </c>
       <c r="E97" t="s">
-        <v>621</v>
+        <v>911</v>
       </c>
       <c r="F97" s="1">
         <v>4</v>
       </c>
-      <c r="G97" s="1">
-        <v>1</v>
+      <c r="G97" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
@@ -5635,22 +5641,22 @@
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>620</v>
+        <v>527</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>619</v>
+        <v>526</v>
       </c>
       <c r="D98" t="s">
-        <v>618</v>
+        <v>525</v>
       </c>
       <c r="E98" t="s">
-        <v>617</v>
+        <v>524</v>
       </c>
       <c r="F98" s="1">
         <v>4</v>
       </c>
-      <c r="G98" s="1">
-        <v>1</v>
+      <c r="G98" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
@@ -5658,22 +5664,22 @@
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>616</v>
+        <v>523</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>615</v>
+        <v>522</v>
       </c>
       <c r="D99" t="s">
-        <v>614</v>
+        <v>521</v>
       </c>
       <c r="E99" t="s">
-        <v>613</v>
+        <v>912</v>
       </c>
       <c r="F99" s="1">
         <v>4</v>
       </c>
-      <c r="G99" s="1">
-        <v>1</v>
+      <c r="G99" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -5681,22 +5687,22 @@
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>612</v>
+        <v>520</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>611</v>
+        <v>519</v>
       </c>
       <c r="D100" t="s">
-        <v>610</v>
+        <v>518</v>
       </c>
       <c r="E100" t="s">
-        <v>609</v>
+        <v>517</v>
       </c>
       <c r="F100" s="1">
         <v>4</v>
       </c>
-      <c r="G100" s="1">
-        <v>1</v>
+      <c r="G100" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -5704,22 +5710,22 @@
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>608</v>
+        <v>516</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>607</v>
+        <v>515</v>
       </c>
       <c r="D101" t="s">
-        <v>606</v>
+        <v>913</v>
       </c>
       <c r="E101" t="s">
-        <v>605</v>
+        <v>514</v>
       </c>
       <c r="F101" s="1">
         <v>4</v>
       </c>
-      <c r="G101" s="1">
-        <v>1</v>
+      <c r="G101" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
@@ -5727,22 +5733,22 @@
         <v>101</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>604</v>
+        <v>513</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>603</v>
+        <v>512</v>
       </c>
       <c r="D102" t="s">
-        <v>602</v>
+        <v>511</v>
       </c>
       <c r="E102" t="s">
-        <v>601</v>
+        <v>914</v>
       </c>
       <c r="F102" s="1">
         <v>4</v>
       </c>
-      <c r="G102" s="1">
-        <v>1</v>
+      <c r="G102" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
@@ -5750,22 +5756,22 @@
         <v>102</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>600</v>
+        <v>510</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>599</v>
+        <v>509</v>
       </c>
       <c r="D103" t="s">
-        <v>598</v>
+        <v>508</v>
       </c>
       <c r="E103" t="s">
-        <v>597</v>
+        <v>507</v>
       </c>
       <c r="F103" s="1">
         <v>4</v>
       </c>
-      <c r="G103" s="1">
-        <v>1</v>
+      <c r="G103" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
@@ -5773,22 +5779,22 @@
         <v>103</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>596</v>
+        <v>506</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>595</v>
+        <v>505</v>
       </c>
       <c r="D104" t="s">
-        <v>594</v>
+        <v>504</v>
       </c>
       <c r="E104" t="s">
-        <v>593</v>
+        <v>503</v>
       </c>
       <c r="F104" s="1">
         <v>4</v>
       </c>
-      <c r="G104" s="1">
-        <v>1</v>
+      <c r="G104" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
@@ -5796,22 +5802,22 @@
         <v>104</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>592</v>
+        <v>502</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>591</v>
+        <v>501</v>
       </c>
       <c r="D105" t="s">
-        <v>590</v>
+        <v>915</v>
       </c>
       <c r="E105" t="s">
-        <v>589</v>
+        <v>916</v>
       </c>
       <c r="F105" s="1">
         <v>4</v>
       </c>
-      <c r="G105" s="1">
-        <v>1</v>
+      <c r="G105" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
@@ -5819,22 +5825,22 @@
         <v>105</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>588</v>
+        <v>500</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>587</v>
+        <v>499</v>
       </c>
       <c r="D106" t="s">
-        <v>586</v>
+        <v>917</v>
       </c>
       <c r="E106" t="s">
-        <v>585</v>
+        <v>918</v>
       </c>
       <c r="F106" s="1">
         <v>4</v>
       </c>
-      <c r="G106" s="1">
-        <v>1</v>
+      <c r="G106" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
@@ -5842,22 +5848,22 @@
         <v>106</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>584</v>
+        <v>498</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>583</v>
+        <v>497</v>
       </c>
       <c r="D107" t="s">
-        <v>582</v>
+        <v>496</v>
       </c>
       <c r="E107" t="s">
-        <v>581</v>
+        <v>919</v>
       </c>
       <c r="F107" s="1">
         <v>4</v>
       </c>
-      <c r="G107" s="1">
-        <v>1</v>
+      <c r="G107" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
@@ -5865,22 +5871,22 @@
         <v>107</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>580</v>
+        <v>495</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>579</v>
+        <v>494</v>
       </c>
       <c r="D108" t="s">
-        <v>578</v>
+        <v>493</v>
       </c>
       <c r="E108" t="s">
-        <v>577</v>
+        <v>492</v>
       </c>
       <c r="F108" s="1">
         <v>4</v>
       </c>
-      <c r="G108" s="1">
-        <v>1</v>
+      <c r="G108" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
@@ -5888,22 +5894,22 @@
         <v>108</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>576</v>
+        <v>491</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>575</v>
+        <v>490</v>
       </c>
       <c r="D109" t="s">
-        <v>574</v>
+        <v>920</v>
       </c>
       <c r="E109" t="s">
-        <v>573</v>
+        <v>489</v>
       </c>
       <c r="F109" s="1">
         <v>4</v>
       </c>
-      <c r="G109" s="1">
-        <v>1</v>
+      <c r="G109" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
@@ -5911,22 +5917,22 @@
         <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>572</v>
+        <v>488</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>571</v>
+        <v>487</v>
       </c>
       <c r="D110" t="s">
-        <v>570</v>
+        <v>921</v>
       </c>
       <c r="E110" t="s">
-        <v>569</v>
+        <v>922</v>
       </c>
       <c r="F110" s="1">
         <v>4</v>
       </c>
-      <c r="G110" s="1">
-        <v>1</v>
+      <c r="G110" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
@@ -5934,22 +5940,22 @@
         <v>110</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>568</v>
+        <v>486</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>567</v>
+        <v>485</v>
       </c>
       <c r="D111" t="s">
-        <v>566</v>
+        <v>484</v>
       </c>
       <c r="E111" t="s">
-        <v>565</v>
+        <v>483</v>
       </c>
       <c r="F111" s="1">
         <v>4</v>
       </c>
-      <c r="G111" s="1">
-        <v>1</v>
+      <c r="G111" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
@@ -5957,22 +5963,22 @@
         <v>111</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>564</v>
+        <v>482</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>563</v>
+        <v>481</v>
       </c>
       <c r="D112" t="s">
-        <v>543</v>
+        <v>465</v>
       </c>
       <c r="E112" t="s">
-        <v>562</v>
+        <v>480</v>
       </c>
       <c r="F112" s="1">
         <v>4</v>
       </c>
-      <c r="G112" s="1">
-        <v>1</v>
+      <c r="G112" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
@@ -5980,22 +5986,22 @@
         <v>112</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>561</v>
+        <v>479</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>560</v>
+        <v>478</v>
       </c>
       <c r="D113" t="s">
-        <v>559</v>
+        <v>477</v>
       </c>
       <c r="E113" t="s">
-        <v>558</v>
+        <v>923</v>
       </c>
       <c r="F113" s="1">
         <v>4</v>
       </c>
-      <c r="G113" s="1">
-        <v>1</v>
+      <c r="G113" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
@@ -6003,22 +6009,22 @@
         <v>113</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>557</v>
+        <v>476</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>556</v>
+        <v>475</v>
       </c>
       <c r="D114" t="s">
-        <v>555</v>
+        <v>924</v>
       </c>
       <c r="E114" t="s">
-        <v>554</v>
+        <v>925</v>
       </c>
       <c r="F114" s="1">
         <v>4</v>
       </c>
-      <c r="G114" s="1">
-        <v>1</v>
+      <c r="G114" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
@@ -6026,22 +6032,22 @@
         <v>114</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>553</v>
+        <v>474</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>552</v>
+        <v>473</v>
       </c>
       <c r="D115" t="s">
-        <v>551</v>
+        <v>472</v>
       </c>
       <c r="E115" t="s">
-        <v>550</v>
+        <v>926</v>
       </c>
       <c r="F115" s="1">
         <v>4</v>
       </c>
-      <c r="G115" s="1">
-        <v>1</v>
+      <c r="G115" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
@@ -6049,22 +6055,22 @@
         <v>115</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>549</v>
+        <v>471</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>548</v>
+        <v>470</v>
       </c>
       <c r="D116" t="s">
-        <v>547</v>
+        <v>469</v>
       </c>
       <c r="E116" t="s">
-        <v>546</v>
+        <v>468</v>
       </c>
       <c r="F116" s="1">
         <v>4</v>
       </c>
-      <c r="G116" s="1">
-        <v>1</v>
+      <c r="G116" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
@@ -6072,22 +6078,22 @@
         <v>116</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>545</v>
+        <v>467</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>544</v>
+        <v>466</v>
       </c>
       <c r="D117" t="s">
-        <v>543</v>
+        <v>465</v>
       </c>
       <c r="E117" t="s">
-        <v>542</v>
+        <v>464</v>
       </c>
       <c r="F117" s="1">
         <v>4</v>
       </c>
-      <c r="G117" s="1">
-        <v>1</v>
+      <c r="G117" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
@@ -6095,22 +6101,22 @@
         <v>117</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>541</v>
+        <v>463</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>540</v>
+        <v>462</v>
       </c>
       <c r="D118" t="s">
-        <v>539</v>
+        <v>461</v>
       </c>
       <c r="E118" t="s">
-        <v>538</v>
+        <v>927</v>
       </c>
       <c r="F118" s="1">
         <v>4</v>
       </c>
-      <c r="G118" s="1">
-        <v>1</v>
+      <c r="G118" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
@@ -6118,22 +6124,22 @@
         <v>118</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>537</v>
+        <v>460</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>536</v>
+        <v>459</v>
       </c>
       <c r="D119" t="s">
-        <v>535</v>
+        <v>458</v>
       </c>
       <c r="E119" t="s">
-        <v>534</v>
+        <v>457</v>
       </c>
       <c r="F119" s="1">
         <v>4</v>
       </c>
-      <c r="G119" s="1">
-        <v>1</v>
+      <c r="G119" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
@@ -6141,22 +6147,22 @@
         <v>119</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>533</v>
+        <v>456</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>532</v>
+        <v>455</v>
       </c>
       <c r="D120" t="s">
-        <v>531</v>
+        <v>928</v>
       </c>
       <c r="E120" t="s">
-        <v>530</v>
+        <v>929</v>
       </c>
       <c r="F120" s="1">
         <v>4</v>
       </c>
-      <c r="G120" s="1">
-        <v>1</v>
+      <c r="G120" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
@@ -6164,22 +6170,22 @@
         <v>120</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>529</v>
+        <v>454</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>528</v>
+        <v>453</v>
       </c>
       <c r="D121" t="s">
-        <v>527</v>
+        <v>452</v>
       </c>
       <c r="E121" t="s">
-        <v>526</v>
+        <v>930</v>
       </c>
       <c r="F121" s="1">
         <v>4</v>
       </c>
-      <c r="G121" s="1">
-        <v>1</v>
+      <c r="G121" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
@@ -6187,22 +6193,22 @@
         <v>121</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>525</v>
+        <v>451</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>524</v>
+        <v>450</v>
       </c>
       <c r="D122" t="s">
-        <v>523</v>
+        <v>931</v>
       </c>
       <c r="E122" t="s">
-        <v>522</v>
+        <v>932</v>
       </c>
       <c r="F122" s="1">
         <v>4</v>
       </c>
-      <c r="G122" s="1">
-        <v>1</v>
+      <c r="G122" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
@@ -6210,22 +6216,22 @@
         <v>122</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>521</v>
+        <v>449</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>520</v>
+        <v>448</v>
       </c>
       <c r="D123" t="s">
-        <v>519</v>
+        <v>933</v>
       </c>
       <c r="E123" t="s">
-        <v>518</v>
+        <v>934</v>
       </c>
       <c r="F123" s="1">
         <v>4</v>
       </c>
-      <c r="G123" s="1">
-        <v>1</v>
+      <c r="G123" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
@@ -6233,22 +6239,22 @@
         <v>123</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>517</v>
+        <v>447</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>516</v>
+        <v>446</v>
       </c>
       <c r="D124" t="s">
-        <v>515</v>
+        <v>445</v>
       </c>
       <c r="E124" t="s">
-        <v>514</v>
+        <v>444</v>
       </c>
       <c r="F124" s="1">
         <v>4</v>
       </c>
-      <c r="G124" s="1">
-        <v>1</v>
+      <c r="G124" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
@@ -6256,22 +6262,22 @@
         <v>124</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>513</v>
+        <v>443</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>512</v>
+        <v>442</v>
       </c>
       <c r="D125" t="s">
-        <v>511</v>
+        <v>935</v>
       </c>
       <c r="E125" t="s">
-        <v>510</v>
+        <v>936</v>
       </c>
       <c r="F125" s="1">
         <v>5</v>
       </c>
-      <c r="G125" s="1">
-        <v>1</v>
+      <c r="G125" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
@@ -6279,22 +6285,22 @@
         <v>125</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>509</v>
+        <v>441</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>508</v>
+        <v>440</v>
       </c>
       <c r="D126" t="s">
-        <v>507</v>
+        <v>439</v>
       </c>
       <c r="E126" t="s">
-        <v>506</v>
+        <v>937</v>
       </c>
       <c r="F126" s="1">
         <v>5</v>
       </c>
-      <c r="G126" s="1">
-        <v>1</v>
+      <c r="G126" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
@@ -6302,22 +6308,22 @@
         <v>126</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>505</v>
+        <v>438</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>504</v>
+        <v>437</v>
       </c>
       <c r="D127" t="s">
-        <v>503</v>
+        <v>436</v>
       </c>
       <c r="E127" t="s">
-        <v>502</v>
+        <v>938</v>
       </c>
       <c r="F127" s="1">
         <v>5</v>
       </c>
-      <c r="G127" s="1">
-        <v>1</v>
+      <c r="G127" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
@@ -6325,22 +6331,22 @@
         <v>127</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>501</v>
+        <v>435</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>500</v>
+        <v>434</v>
       </c>
       <c r="D128" t="s">
-        <v>499</v>
+        <v>433</v>
       </c>
       <c r="E128" t="s">
-        <v>498</v>
+        <v>939</v>
       </c>
       <c r="F128" s="1">
         <v>5</v>
       </c>
-      <c r="G128" s="1">
-        <v>1</v>
+      <c r="G128" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
@@ -6348,22 +6354,22 @@
         <v>128</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>497</v>
+        <v>432</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>496</v>
+        <v>431</v>
       </c>
       <c r="D129" t="s">
-        <v>495</v>
+        <v>430</v>
       </c>
       <c r="E129" t="s">
-        <v>494</v>
+        <v>940</v>
       </c>
       <c r="F129" s="1">
         <v>5</v>
       </c>
-      <c r="G129" s="1">
-        <v>1</v>
+      <c r="G129" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
@@ -6371,22 +6377,22 @@
         <v>129</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>493</v>
+        <v>429</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>492</v>
+        <v>428</v>
       </c>
       <c r="D130" t="s">
-        <v>491</v>
+        <v>427</v>
       </c>
       <c r="E130" t="s">
-        <v>490</v>
+        <v>941</v>
       </c>
       <c r="F130" s="1">
         <v>5</v>
       </c>
-      <c r="G130" s="1">
-        <v>1</v>
+      <c r="G130" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
@@ -6394,22 +6400,22 @@
         <v>130</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>489</v>
+        <v>426</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>488</v>
+        <v>425</v>
       </c>
       <c r="D131" t="s">
-        <v>487</v>
+        <v>424</v>
       </c>
       <c r="E131" t="s">
-        <v>486</v>
+        <v>423</v>
       </c>
       <c r="F131" s="1">
         <v>5</v>
       </c>
-      <c r="G131" s="1">
-        <v>1</v>
+      <c r="G131" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
@@ -6417,22 +6423,22 @@
         <v>131</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>485</v>
+        <v>422</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>484</v>
+        <v>421</v>
       </c>
       <c r="D132" t="s">
-        <v>483</v>
+        <v>420</v>
       </c>
       <c r="E132" t="s">
-        <v>482</v>
+        <v>419</v>
       </c>
       <c r="F132" s="1">
         <v>5</v>
       </c>
-      <c r="G132" s="1">
-        <v>1</v>
+      <c r="G132" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
@@ -6440,22 +6446,22 @@
         <v>132</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>481</v>
+        <v>418</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>480</v>
+        <v>417</v>
       </c>
       <c r="D133" t="s">
-        <v>479</v>
+        <v>416</v>
       </c>
       <c r="E133" t="s">
-        <v>478</v>
+        <v>415</v>
       </c>
       <c r="F133" s="1">
         <v>5</v>
       </c>
-      <c r="G133" s="1">
-        <v>1</v>
+      <c r="G133" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
@@ -6463,22 +6469,22 @@
         <v>133</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>477</v>
+        <v>414</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>476</v>
+        <v>413</v>
       </c>
       <c r="D134" t="s">
-        <v>475</v>
+        <v>412</v>
       </c>
       <c r="E134" t="s">
-        <v>474</v>
+        <v>411</v>
       </c>
       <c r="F134" s="1">
         <v>5</v>
       </c>
-      <c r="G134" s="1">
-        <v>1</v>
+      <c r="G134" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
@@ -6486,22 +6492,22 @@
         <v>134</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>473</v>
+        <v>410</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>472</v>
+        <v>409</v>
       </c>
       <c r="D135" t="s">
-        <v>471</v>
+        <v>942</v>
       </c>
       <c r="E135" t="s">
-        <v>470</v>
+        <v>408</v>
       </c>
       <c r="F135" s="1">
         <v>5</v>
       </c>
-      <c r="G135" s="1">
-        <v>1</v>
+      <c r="G135" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
@@ -6509,22 +6515,22 @@
         <v>135</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>469</v>
+        <v>407</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>468</v>
+        <v>406</v>
       </c>
       <c r="D136" t="s">
-        <v>467</v>
+        <v>943</v>
       </c>
       <c r="E136" t="s">
-        <v>466</v>
+        <v>405</v>
       </c>
       <c r="F136" s="1">
         <v>5</v>
       </c>
-      <c r="G136" s="1">
-        <v>1</v>
+      <c r="G136" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
@@ -6532,22 +6538,22 @@
         <v>136</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>465</v>
+        <v>404</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>464</v>
+        <v>403</v>
       </c>
       <c r="D137" t="s">
-        <v>463</v>
+        <v>402</v>
       </c>
       <c r="E137" t="s">
-        <v>462</v>
+        <v>401</v>
       </c>
       <c r="F137" s="1">
         <v>5</v>
       </c>
-      <c r="G137" s="1">
-        <v>1</v>
+      <c r="G137" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
@@ -6555,22 +6561,22 @@
         <v>137</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>461</v>
+        <v>400</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>460</v>
+        <v>399</v>
       </c>
       <c r="D138" t="s">
-        <v>459</v>
+        <v>398</v>
       </c>
       <c r="E138" t="s">
-        <v>458</v>
+        <v>397</v>
       </c>
       <c r="F138" s="1">
         <v>5</v>
       </c>
-      <c r="G138" s="1">
-        <v>1</v>
+      <c r="G138" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
@@ -6578,22 +6584,22 @@
         <v>138</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>457</v>
+        <v>396</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>456</v>
+        <v>395</v>
       </c>
       <c r="D139" t="s">
-        <v>455</v>
+        <v>394</v>
       </c>
       <c r="E139" t="s">
-        <v>454</v>
+        <v>393</v>
       </c>
       <c r="F139" s="1">
         <v>5</v>
       </c>
-      <c r="G139" s="1">
-        <v>1</v>
+      <c r="G139" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
@@ -6601,22 +6607,22 @@
         <v>139</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>453</v>
+        <v>392</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>452</v>
+        <v>391</v>
       </c>
       <c r="D140" t="s">
-        <v>451</v>
+        <v>390</v>
       </c>
       <c r="E140" t="s">
-        <v>450</v>
+        <v>389</v>
       </c>
       <c r="F140" s="1">
         <v>5</v>
       </c>
-      <c r="G140" s="1">
-        <v>1</v>
+      <c r="G140" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
@@ -6624,22 +6630,22 @@
         <v>140</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>449</v>
+        <v>388</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>448</v>
+        <v>387</v>
       </c>
       <c r="D141" t="s">
-        <v>447</v>
+        <v>944</v>
       </c>
       <c r="E141" t="s">
-        <v>446</v>
+        <v>945</v>
       </c>
       <c r="F141" s="1">
         <v>5</v>
       </c>
-      <c r="G141" s="1">
-        <v>1</v>
+      <c r="G141" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
@@ -6647,22 +6653,22 @@
         <v>141</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>445</v>
+        <v>386</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>444</v>
+        <v>385</v>
       </c>
       <c r="D142" t="s">
-        <v>443</v>
+        <v>384</v>
       </c>
       <c r="E142" t="s">
-        <v>442</v>
+        <v>946</v>
       </c>
       <c r="F142" s="1">
         <v>5</v>
       </c>
-      <c r="G142" s="1">
-        <v>1</v>
+      <c r="G142" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
@@ -6670,22 +6676,22 @@
         <v>142</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>441</v>
+        <v>383</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>440</v>
+        <v>382</v>
       </c>
       <c r="D143" t="s">
-        <v>439</v>
+        <v>381</v>
       </c>
       <c r="E143" t="s">
-        <v>438</v>
+        <v>380</v>
       </c>
       <c r="F143" s="1">
         <v>5</v>
       </c>
-      <c r="G143" s="1">
-        <v>1</v>
+      <c r="G143" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
@@ -6693,22 +6699,22 @@
         <v>143</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>437</v>
+        <v>379</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>436</v>
+        <v>378</v>
       </c>
       <c r="D144" t="s">
-        <v>435</v>
+        <v>377</v>
       </c>
       <c r="E144" t="s">
-        <v>434</v>
+        <v>947</v>
       </c>
       <c r="F144" s="1">
         <v>5</v>
       </c>
-      <c r="G144" s="1">
-        <v>1</v>
+      <c r="G144" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
@@ -6716,22 +6722,22 @@
         <v>144</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>433</v>
+        <v>376</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>432</v>
+        <v>375</v>
       </c>
       <c r="D145" t="s">
-        <v>431</v>
+        <v>374</v>
       </c>
       <c r="E145" t="s">
-        <v>430</v>
+        <v>373</v>
       </c>
       <c r="F145" s="1">
         <v>5</v>
       </c>
-      <c r="G145" s="1">
-        <v>1</v>
+      <c r="G145" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
@@ -6739,22 +6745,22 @@
         <v>145</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>429</v>
+        <v>372</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>428</v>
+        <v>371</v>
       </c>
       <c r="D146" t="s">
-        <v>427</v>
+        <v>370</v>
       </c>
       <c r="E146" t="s">
-        <v>426</v>
+        <v>948</v>
       </c>
       <c r="F146" s="1">
         <v>5</v>
       </c>
-      <c r="G146" s="1">
-        <v>1</v>
+      <c r="G146" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
@@ -6762,22 +6768,22 @@
         <v>146</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>425</v>
+        <v>369</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>424</v>
+        <v>368</v>
       </c>
       <c r="D147" t="s">
-        <v>1004</v>
+        <v>858</v>
       </c>
       <c r="E147" t="s">
-        <v>423</v>
+        <v>949</v>
       </c>
       <c r="F147" s="1">
         <v>5</v>
       </c>
-      <c r="G147" s="1">
-        <v>1</v>
+      <c r="G147" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
@@ -6785,22 +6791,22 @@
         <v>147</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>422</v>
+        <v>367</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>421</v>
+        <v>366</v>
       </c>
       <c r="D148" t="s">
-        <v>420</v>
+        <v>950</v>
       </c>
       <c r="E148" t="s">
-        <v>419</v>
+        <v>365</v>
       </c>
       <c r="F148" s="1">
         <v>5</v>
       </c>
-      <c r="G148" s="1">
-        <v>1</v>
+      <c r="G148" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
@@ -6808,22 +6814,22 @@
         <v>148</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>418</v>
+        <v>364</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>417</v>
+        <v>363</v>
       </c>
       <c r="D149" t="s">
-        <v>416</v>
+        <v>362</v>
       </c>
       <c r="E149" t="s">
-        <v>415</v>
+        <v>951</v>
       </c>
       <c r="F149" s="1">
         <v>5</v>
       </c>
-      <c r="G149" s="1">
-        <v>1</v>
+      <c r="G149" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
@@ -6831,22 +6837,22 @@
         <v>149</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>414</v>
+        <v>361</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>413</v>
+        <v>360</v>
       </c>
       <c r="D150" t="s">
-        <v>412</v>
+        <v>359</v>
       </c>
       <c r="E150" t="s">
-        <v>411</v>
+        <v>358</v>
       </c>
       <c r="F150" s="1">
         <v>5</v>
       </c>
-      <c r="G150" s="1">
-        <v>1</v>
+      <c r="G150" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
@@ -6854,22 +6860,22 @@
         <v>150</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>410</v>
+        <v>357</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>409</v>
+        <v>356</v>
       </c>
       <c r="D151" t="s">
-        <v>408</v>
+        <v>355</v>
       </c>
       <c r="E151" t="s">
-        <v>407</v>
+        <v>354</v>
       </c>
       <c r="F151" s="1">
         <v>5</v>
       </c>
-      <c r="G151" s="1">
-        <v>1</v>
+      <c r="G151" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
@@ -6877,22 +6883,22 @@
         <v>151</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>406</v>
+        <v>353</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>405</v>
+        <v>352</v>
       </c>
       <c r="D152" t="s">
-        <v>404</v>
+        <v>351</v>
       </c>
       <c r="E152" t="s">
-        <v>403</v>
+        <v>952</v>
       </c>
       <c r="F152" s="1">
         <v>5</v>
       </c>
-      <c r="G152" s="1">
-        <v>1</v>
+      <c r="G152" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
@@ -6900,22 +6906,22 @@
         <v>152</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>402</v>
+        <v>350</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>401</v>
+        <v>349</v>
       </c>
       <c r="D153" t="s">
-        <v>400</v>
+        <v>953</v>
       </c>
       <c r="E153" t="s">
-        <v>399</v>
+        <v>954</v>
       </c>
       <c r="F153" s="1">
         <v>5</v>
       </c>
-      <c r="G153" s="1">
-        <v>1</v>
+      <c r="G153" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
@@ -6923,22 +6929,22 @@
         <v>153</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>398</v>
+        <v>348</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>397</v>
+        <v>347</v>
       </c>
       <c r="D154" t="s">
-        <v>396</v>
+        <v>346</v>
       </c>
       <c r="E154" t="s">
-        <v>395</v>
+        <v>955</v>
       </c>
       <c r="F154" s="1">
         <v>5</v>
       </c>
-      <c r="G154" s="1">
-        <v>1</v>
+      <c r="G154" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
@@ -6946,22 +6952,22 @@
         <v>154</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>394</v>
+        <v>345</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>393</v>
+        <v>344</v>
       </c>
       <c r="D155" t="s">
-        <v>392</v>
+        <v>343</v>
       </c>
       <c r="E155" t="s">
-        <v>391</v>
+        <v>342</v>
       </c>
       <c r="F155" s="1">
         <v>5</v>
       </c>
-      <c r="G155" s="1">
-        <v>1</v>
+      <c r="G155" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
@@ -6969,22 +6975,22 @@
         <v>155</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>390</v>
+        <v>341</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>389</v>
+        <v>340</v>
       </c>
       <c r="D156" t="s">
-        <v>388</v>
+        <v>339</v>
       </c>
       <c r="E156" t="s">
-        <v>387</v>
+        <v>956</v>
       </c>
       <c r="F156" s="1">
         <v>5</v>
       </c>
-      <c r="G156" s="1">
-        <v>1</v>
+      <c r="G156" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
@@ -6992,22 +6998,22 @@
         <v>156</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>386</v>
+        <v>338</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>385</v>
+        <v>337</v>
       </c>
       <c r="D157" t="s">
-        <v>384</v>
+        <v>336</v>
       </c>
       <c r="E157" t="s">
-        <v>383</v>
+        <v>335</v>
       </c>
       <c r="F157" s="1">
         <v>5</v>
       </c>
-      <c r="G157" s="1">
-        <v>1</v>
+      <c r="G157" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
@@ -7015,22 +7021,22 @@
         <v>157</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>382</v>
+        <v>334</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>381</v>
+        <v>333</v>
       </c>
       <c r="D158" t="s">
-        <v>380</v>
+        <v>332</v>
       </c>
       <c r="E158" t="s">
-        <v>379</v>
+        <v>331</v>
       </c>
       <c r="F158" s="1">
         <v>5</v>
       </c>
-      <c r="G158" s="1">
-        <v>1</v>
+      <c r="G158" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
@@ -7038,22 +7044,22 @@
         <v>158</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>378</v>
+        <v>330</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>377</v>
+        <v>329</v>
       </c>
       <c r="D159" t="s">
-        <v>376</v>
+        <v>957</v>
       </c>
       <c r="E159" t="s">
-        <v>375</v>
+        <v>958</v>
       </c>
       <c r="F159" s="1">
         <v>5</v>
       </c>
-      <c r="G159" s="1">
-        <v>1</v>
+      <c r="G159" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
@@ -7061,22 +7067,22 @@
         <v>159</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>374</v>
+        <v>328</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>373</v>
+        <v>327</v>
       </c>
       <c r="D160" t="s">
-        <v>372</v>
+        <v>326</v>
       </c>
       <c r="E160" t="s">
-        <v>371</v>
+        <v>959</v>
       </c>
       <c r="F160" s="1">
         <v>5</v>
       </c>
-      <c r="G160" s="1">
-        <v>1</v>
+      <c r="G160" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
@@ -7084,22 +7090,22 @@
         <v>160</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>370</v>
+        <v>325</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>369</v>
+        <v>324</v>
       </c>
       <c r="D161" t="s">
-        <v>368</v>
+        <v>323</v>
       </c>
       <c r="E161" t="s">
-        <v>367</v>
+        <v>960</v>
       </c>
       <c r="F161" s="1">
         <v>5</v>
       </c>
-      <c r="G161" s="1">
-        <v>1</v>
+      <c r="G161" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
@@ -7107,22 +7113,22 @@
         <v>161</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>366</v>
+        <v>322</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>365</v>
+        <v>321</v>
       </c>
       <c r="D162" t="s">
-        <v>364</v>
+        <v>961</v>
       </c>
       <c r="E162" t="s">
-        <v>363</v>
+        <v>320</v>
       </c>
       <c r="F162" s="1">
         <v>5</v>
       </c>
-      <c r="G162" s="1">
-        <v>1</v>
+      <c r="G162" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
@@ -7130,22 +7136,22 @@
         <v>162</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>362</v>
+        <v>319</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>361</v>
+        <v>318</v>
       </c>
       <c r="D163" t="s">
-        <v>360</v>
+        <v>962</v>
       </c>
       <c r="E163" t="s">
-        <v>359</v>
+        <v>963</v>
       </c>
       <c r="F163" s="1">
         <v>5</v>
       </c>
-      <c r="G163" s="1">
-        <v>1</v>
+      <c r="G163" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
@@ -7153,22 +7159,22 @@
         <v>163</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>358</v>
+        <v>317</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>357</v>
+        <v>316</v>
       </c>
       <c r="D164" t="s">
-        <v>353</v>
+        <v>964</v>
       </c>
       <c r="E164" t="s">
-        <v>356</v>
+        <v>965</v>
       </c>
       <c r="F164" s="1">
         <v>5</v>
       </c>
-      <c r="G164" s="1">
-        <v>1</v>
+      <c r="G164" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
@@ -7176,22 +7182,22 @@
         <v>164</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>355</v>
+        <v>315</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>354</v>
+        <v>314</v>
       </c>
       <c r="D165" t="s">
-        <v>353</v>
+        <v>964</v>
       </c>
       <c r="E165" t="s">
-        <v>352</v>
+        <v>966</v>
       </c>
       <c r="F165" s="1">
         <v>5</v>
       </c>
-      <c r="G165" s="1">
-        <v>1</v>
+      <c r="G165" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
@@ -7199,22 +7205,22 @@
         <v>165</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>351</v>
+        <v>313</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>350</v>
+        <v>312</v>
       </c>
       <c r="D166" t="s">
-        <v>349</v>
+        <v>311</v>
       </c>
       <c r="E166" t="s">
-        <v>349</v>
+        <v>311</v>
       </c>
       <c r="F166" s="1">
         <v>6</v>
       </c>
-      <c r="G166" s="1">
-        <v>1</v>
+      <c r="G166" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
@@ -7222,22 +7228,22 @@
         <v>166</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>348</v>
+        <v>310</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>347</v>
+        <v>309</v>
       </c>
       <c r="D167" t="s">
-        <v>346</v>
+        <v>308</v>
       </c>
       <c r="E167" t="s">
-        <v>346</v>
+        <v>308</v>
       </c>
       <c r="F167" s="1">
         <v>6</v>
       </c>
-      <c r="G167" s="1">
-        <v>1</v>
+      <c r="G167" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
@@ -7245,22 +7251,22 @@
         <v>167</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>345</v>
+        <v>307</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>344</v>
+        <v>306</v>
       </c>
       <c r="D168" t="s">
-        <v>343</v>
+        <v>967</v>
       </c>
       <c r="E168" t="s">
-        <v>343</v>
+        <v>967</v>
       </c>
       <c r="F168" s="1">
         <v>6</v>
       </c>
-      <c r="G168" s="1">
-        <v>1</v>
+      <c r="G168" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
@@ -7268,22 +7274,22 @@
         <v>168</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>342</v>
+        <v>305</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>341</v>
+        <v>304</v>
       </c>
       <c r="D169" t="s">
-        <v>340</v>
+        <v>968</v>
       </c>
       <c r="E169" t="s">
-        <v>339</v>
+        <v>969</v>
       </c>
       <c r="F169" s="1">
         <v>6</v>
       </c>
-      <c r="G169" s="1">
-        <v>1</v>
+      <c r="G169" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
@@ -7291,22 +7297,22 @@
         <v>169</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>338</v>
+        <v>303</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>337</v>
+        <v>302</v>
       </c>
       <c r="D170" t="s">
-        <v>336</v>
+        <v>301</v>
       </c>
       <c r="E170" t="s">
-        <v>336</v>
+        <v>301</v>
       </c>
       <c r="F170" s="1">
         <v>6</v>
       </c>
-      <c r="G170" s="1">
-        <v>1</v>
+      <c r="G170" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
@@ -7314,22 +7320,22 @@
         <v>170</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>335</v>
+        <v>300</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>334</v>
+        <v>299</v>
       </c>
       <c r="D171" t="s">
-        <v>333</v>
+        <v>970</v>
       </c>
       <c r="E171" t="s">
-        <v>333</v>
+        <v>970</v>
       </c>
       <c r="F171" s="1">
         <v>6</v>
       </c>
-      <c r="G171" s="1">
-        <v>1</v>
+      <c r="G171" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
@@ -7337,22 +7343,22 @@
         <v>171</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>332</v>
+        <v>298</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>331</v>
+        <v>297</v>
       </c>
       <c r="D172" t="s">
-        <v>330</v>
+        <v>296</v>
       </c>
       <c r="E172" t="s">
-        <v>330</v>
+        <v>296</v>
       </c>
       <c r="F172" s="1">
         <v>6</v>
       </c>
-      <c r="G172" s="1">
-        <v>1</v>
+      <c r="G172" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
@@ -7360,22 +7366,22 @@
         <v>172</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>329</v>
+        <v>295</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>328</v>
+        <v>294</v>
       </c>
       <c r="D173" t="s">
-        <v>327</v>
+        <v>293</v>
       </c>
       <c r="E173" t="s">
-        <v>327</v>
+        <v>293</v>
       </c>
       <c r="F173" s="1">
         <v>6</v>
       </c>
-      <c r="G173" s="1">
-        <v>1</v>
+      <c r="G173" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
@@ -7383,22 +7389,22 @@
         <v>173</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>326</v>
+        <v>292</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>325</v>
+        <v>291</v>
       </c>
       <c r="D174" t="s">
-        <v>324</v>
+        <v>290</v>
       </c>
       <c r="E174" t="s">
-        <v>324</v>
+        <v>290</v>
       </c>
       <c r="F174" s="1">
         <v>6</v>
       </c>
-      <c r="G174" s="1">
-        <v>1</v>
+      <c r="G174" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
@@ -7406,22 +7412,22 @@
         <v>174</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>323</v>
+        <v>289</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>322</v>
+        <v>288</v>
       </c>
       <c r="D175" t="s">
-        <v>321</v>
+        <v>971</v>
       </c>
       <c r="E175" t="s">
-        <v>320</v>
+        <v>972</v>
       </c>
       <c r="F175" s="1">
         <v>6</v>
       </c>
-      <c r="G175" s="1">
-        <v>1</v>
+      <c r="G175" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
@@ -7429,22 +7435,22 @@
         <v>175</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>319</v>
+        <v>287</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>318</v>
+        <v>286</v>
       </c>
       <c r="D176" t="s">
-        <v>317</v>
+        <v>285</v>
       </c>
       <c r="E176" t="s">
-        <v>317</v>
+        <v>285</v>
       </c>
       <c r="F176" s="1">
         <v>6</v>
       </c>
-      <c r="G176" s="1">
-        <v>1</v>
+      <c r="G176" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
@@ -7452,22 +7458,22 @@
         <v>176</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>316</v>
+        <v>284</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>315</v>
+        <v>283</v>
       </c>
       <c r="D177" t="s">
-        <v>314</v>
+        <v>282</v>
       </c>
       <c r="E177" t="s">
-        <v>314</v>
+        <v>282</v>
       </c>
       <c r="F177" s="1">
         <v>6</v>
       </c>
-      <c r="G177" s="1">
-        <v>1</v>
+      <c r="G177" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
@@ -7475,22 +7481,22 @@
         <v>177</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>313</v>
+        <v>281</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>312</v>
+        <v>280</v>
       </c>
       <c r="D178" t="s">
-        <v>311</v>
+        <v>973</v>
       </c>
       <c r="E178" t="s">
-        <v>311</v>
+        <v>973</v>
       </c>
       <c r="F178" s="1">
         <v>6</v>
       </c>
-      <c r="G178" s="1">
-        <v>1</v>
+      <c r="G178" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
@@ -7498,22 +7504,22 @@
         <v>178</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>310</v>
+        <v>279</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>309</v>
+        <v>278</v>
       </c>
       <c r="D179" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
       <c r="E179" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
       <c r="F179" s="1">
         <v>6</v>
       </c>
-      <c r="G179" s="1">
-        <v>1</v>
+      <c r="G179" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
@@ -7521,22 +7527,22 @@
         <v>179</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>307</v>
+        <v>276</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>306</v>
+        <v>275</v>
       </c>
       <c r="D180" t="s">
-        <v>305</v>
+        <v>274</v>
       </c>
       <c r="E180" t="s">
-        <v>305</v>
+        <v>274</v>
       </c>
       <c r="F180" s="1">
         <v>6</v>
       </c>
-      <c r="G180" s="1">
-        <v>1</v>
+      <c r="G180" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
@@ -7544,22 +7550,22 @@
         <v>180</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>304</v>
+        <v>273</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
       <c r="D181" t="s">
-        <v>302</v>
+        <v>974</v>
       </c>
       <c r="E181" t="s">
-        <v>302</v>
+        <v>974</v>
       </c>
       <c r="F181" s="1">
         <v>6</v>
       </c>
-      <c r="G181" s="1">
-        <v>1</v>
+      <c r="G181" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
@@ -7567,22 +7573,22 @@
         <v>181</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>301</v>
+        <v>271</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="D182" t="s">
-        <v>299</v>
+        <v>269</v>
       </c>
       <c r="E182" t="s">
-        <v>299</v>
+        <v>269</v>
       </c>
       <c r="F182" s="1">
         <v>6</v>
       </c>
-      <c r="G182" s="1">
-        <v>1</v>
+      <c r="G182" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
@@ -7590,22 +7596,22 @@
         <v>182</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>298</v>
+        <v>268</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>297</v>
+        <v>267</v>
       </c>
       <c r="D183" t="s">
-        <v>296</v>
+        <v>975</v>
       </c>
       <c r="E183" t="s">
-        <v>295</v>
+        <v>976</v>
       </c>
       <c r="F183" s="1">
         <v>6</v>
       </c>
-      <c r="G183" s="1">
-        <v>1</v>
+      <c r="G183" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
@@ -7613,22 +7619,22 @@
         <v>183</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>294</v>
+        <v>266</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>293</v>
+        <v>265</v>
       </c>
       <c r="D184" t="s">
-        <v>292</v>
+        <v>977</v>
       </c>
       <c r="E184" t="s">
-        <v>292</v>
+        <v>977</v>
       </c>
       <c r="F184" s="1">
         <v>6</v>
       </c>
-      <c r="G184" s="1">
-        <v>1</v>
+      <c r="G184" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
@@ -7636,22 +7642,22 @@
         <v>184</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>291</v>
+        <v>264</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>290</v>
+        <v>263</v>
       </c>
       <c r="D185" t="s">
-        <v>289</v>
+        <v>978</v>
       </c>
       <c r="E185" t="s">
-        <v>288</v>
+        <v>979</v>
       </c>
       <c r="F185" s="1">
         <v>6</v>
       </c>
-      <c r="G185" s="1">
-        <v>1</v>
+      <c r="G185" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
@@ -7659,22 +7665,22 @@
         <v>185</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>287</v>
+        <v>262</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>286</v>
+        <v>261</v>
       </c>
       <c r="D186" t="s">
-        <v>285</v>
+        <v>260</v>
       </c>
       <c r="E186" t="s">
-        <v>285</v>
+        <v>260</v>
       </c>
       <c r="F186" s="1">
         <v>6</v>
       </c>
-      <c r="G186" s="1">
-        <v>1</v>
+      <c r="G186" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
@@ -7682,22 +7688,22 @@
         <v>186</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>284</v>
+        <v>259</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>283</v>
+        <v>258</v>
       </c>
       <c r="D187" t="s">
-        <v>282</v>
+        <v>257</v>
       </c>
       <c r="E187" t="s">
-        <v>281</v>
+        <v>256</v>
       </c>
       <c r="F187" s="1">
         <v>6</v>
       </c>
-      <c r="G187" s="1">
-        <v>1</v>
+      <c r="G187" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
@@ -7705,22 +7711,22 @@
         <v>187</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>280</v>
+        <v>255</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>279</v>
+        <v>254</v>
       </c>
       <c r="D188" t="s">
-        <v>278</v>
+        <v>253</v>
       </c>
       <c r="E188" t="s">
-        <v>277</v>
+        <v>252</v>
       </c>
       <c r="F188" s="1">
         <v>6</v>
       </c>
-      <c r="G188" s="1">
-        <v>1</v>
+      <c r="G188" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
@@ -7728,22 +7734,22 @@
         <v>188</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>276</v>
+        <v>251</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>275</v>
+        <v>250</v>
       </c>
       <c r="D189" t="s">
-        <v>274</v>
+        <v>249</v>
       </c>
       <c r="E189" t="s">
-        <v>273</v>
+        <v>248</v>
       </c>
       <c r="F189" s="1">
         <v>6</v>
       </c>
-      <c r="G189" s="1">
-        <v>1</v>
+      <c r="G189" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
@@ -7751,22 +7757,22 @@
         <v>189</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>272</v>
+        <v>247</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>271</v>
+        <v>246</v>
       </c>
       <c r="D190" t="s">
-        <v>270</v>
+        <v>245</v>
       </c>
       <c r="E190" t="s">
-        <v>269</v>
+        <v>244</v>
       </c>
       <c r="F190" s="1">
         <v>6</v>
       </c>
-      <c r="G190" s="1">
-        <v>1</v>
+      <c r="G190" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
@@ -7774,22 +7780,22 @@
         <v>190</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>268</v>
+        <v>243</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>267</v>
+        <v>242</v>
       </c>
       <c r="D191" t="s">
-        <v>266</v>
+        <v>241</v>
       </c>
       <c r="E191" t="s">
-        <v>265</v>
+        <v>240</v>
       </c>
       <c r="F191" s="1">
         <v>6</v>
       </c>
-      <c r="G191" s="1">
-        <v>1</v>
+      <c r="G191" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
@@ -7797,22 +7803,22 @@
         <v>191</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>264</v>
+        <v>239</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
       <c r="D192" t="s">
-        <v>262</v>
+        <v>237</v>
       </c>
       <c r="E192" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="F192" s="1">
         <v>6</v>
       </c>
-      <c r="G192" s="1">
-        <v>1</v>
+      <c r="G192" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
@@ -7820,22 +7826,22 @@
         <v>192</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>260</v>
+        <v>235</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
       <c r="D193" t="s">
-        <v>258</v>
+        <v>980</v>
       </c>
       <c r="E193" t="s">
-        <v>258</v>
+        <v>980</v>
       </c>
       <c r="F193" s="1">
         <v>7</v>
       </c>
-      <c r="G193" s="1">
-        <v>1</v>
+      <c r="G193" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
@@ -7843,22 +7849,22 @@
         <v>193</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>257</v>
+        <v>233</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>256</v>
+        <v>232</v>
       </c>
       <c r="D194" t="s">
-        <v>253</v>
+        <v>229</v>
       </c>
       <c r="E194" t="s">
-        <v>252</v>
+        <v>981</v>
       </c>
       <c r="F194" s="1">
         <v>7</v>
       </c>
-      <c r="G194" s="1">
-        <v>1</v>
+      <c r="G194" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
@@ -7866,22 +7872,22 @@
         <v>194</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>255</v>
+        <v>231</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
       <c r="D195" t="s">
-        <v>253</v>
+        <v>229</v>
       </c>
       <c r="E195" t="s">
-        <v>252</v>
+        <v>981</v>
       </c>
       <c r="F195" s="1">
         <v>7</v>
       </c>
-      <c r="G195" s="1">
-        <v>1</v>
+      <c r="G195" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
@@ -7889,22 +7895,22 @@
         <v>195</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>251</v>
+        <v>228</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>250</v>
+        <v>227</v>
       </c>
       <c r="D196" t="s">
-        <v>249</v>
+        <v>982</v>
       </c>
       <c r="E196" t="s">
-        <v>249</v>
+        <v>982</v>
       </c>
       <c r="F196" s="1">
         <v>7</v>
       </c>
-      <c r="G196" s="1">
-        <v>1</v>
+      <c r="G196" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
@@ -7912,22 +7918,22 @@
         <v>196</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>248</v>
+        <v>226</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>247</v>
+        <v>225</v>
       </c>
       <c r="D197" t="s">
-        <v>246</v>
+        <v>983</v>
       </c>
       <c r="E197" t="s">
-        <v>246</v>
+        <v>983</v>
       </c>
       <c r="F197" s="1">
         <v>7</v>
       </c>
-      <c r="G197" s="1">
-        <v>1</v>
+      <c r="G197" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
@@ -7935,22 +7941,22 @@
         <v>197</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>244</v>
+        <v>223</v>
       </c>
       <c r="D198" t="s">
-        <v>1005</v>
+        <v>859</v>
       </c>
       <c r="E198" t="s">
-        <v>243</v>
+        <v>222</v>
       </c>
       <c r="F198" s="1">
         <v>7</v>
       </c>
-      <c r="G198" s="1">
-        <v>1</v>
+      <c r="G198" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
@@ -7958,22 +7964,22 @@
         <v>198</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>242</v>
+        <v>221</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>241</v>
+        <v>220</v>
       </c>
       <c r="D199" t="s">
-        <v>240</v>
+        <v>984</v>
       </c>
       <c r="E199" t="s">
-        <v>240</v>
+        <v>984</v>
       </c>
       <c r="F199" s="1">
         <v>7</v>
       </c>
-      <c r="G199" s="1">
-        <v>1</v>
+      <c r="G199" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
@@ -7981,22 +7987,22 @@
         <v>199</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>239</v>
+        <v>219</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="D200" t="s">
-        <v>237</v>
+        <v>217</v>
       </c>
       <c r="E200" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
       <c r="F200" s="1">
         <v>7</v>
       </c>
-      <c r="G200" s="1">
-        <v>1</v>
+      <c r="G200" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
@@ -8004,22 +8010,22 @@
         <v>200</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>235</v>
+        <v>215</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c r="D201" t="s">
-        <v>233</v>
+        <v>985</v>
       </c>
       <c r="E201" t="s">
-        <v>233</v>
+        <v>985</v>
       </c>
       <c r="F201" s="1">
         <v>7</v>
       </c>
-      <c r="G201" s="1">
-        <v>1</v>
+      <c r="G201" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
@@ -8027,22 +8033,22 @@
         <v>201</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="D202" t="s">
-        <v>230</v>
+        <v>986</v>
       </c>
       <c r="E202" t="s">
-        <v>229</v>
+        <v>211</v>
       </c>
       <c r="F202" s="1">
         <v>7</v>
       </c>
-      <c r="G202" s="1">
-        <v>1</v>
+      <c r="G202" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
@@ -8050,22 +8056,22 @@
         <v>202</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="D203" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="E203" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="F203" s="1">
         <v>7</v>
       </c>
-      <c r="G203" s="1">
-        <v>1</v>
+      <c r="G203" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
@@ -8073,22 +8079,22 @@
         <v>203</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="D204" t="s">
-        <v>223</v>
+        <v>987</v>
       </c>
       <c r="E204" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="F204" s="1">
         <v>7</v>
       </c>
-      <c r="G204" s="1">
-        <v>1</v>
+      <c r="G204" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
@@ -8096,22 +8102,22 @@
         <v>204</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="D205" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="E205" t="s">
-        <v>218</v>
+        <v>988</v>
       </c>
       <c r="F205" s="1">
         <v>7</v>
       </c>
-      <c r="G205" s="1">
-        <v>1</v>
+      <c r="G205" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
@@ -8119,22 +8125,22 @@
         <v>205</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="D206" t="s">
-        <v>215</v>
+        <v>989</v>
       </c>
       <c r="E206" t="s">
-        <v>215</v>
+        <v>989</v>
       </c>
       <c r="F206" s="1">
         <v>7</v>
       </c>
-      <c r="G206" s="1">
-        <v>1</v>
+      <c r="G206" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
@@ -8142,22 +8148,22 @@
         <v>206</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="D207" t="s">
-        <v>212</v>
+        <v>990</v>
       </c>
       <c r="E207" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="F207" s="1">
         <v>7</v>
       </c>
-      <c r="G207" s="1">
-        <v>1</v>
+      <c r="G207" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
@@ -8165,22 +8171,22 @@
         <v>207</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="D208" t="s">
-        <v>208</v>
+        <v>991</v>
       </c>
       <c r="E208" t="s">
-        <v>208</v>
+        <v>991</v>
       </c>
       <c r="F208" s="1">
         <v>7</v>
       </c>
-      <c r="G208" s="1">
-        <v>1</v>
+      <c r="G208" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
@@ -8188,22 +8194,22 @@
         <v>208</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="D209" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="E209" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="F209" s="1">
         <v>7</v>
       </c>
-      <c r="G209" s="1">
-        <v>1</v>
+      <c r="G209" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
@@ -8211,22 +8217,22 @@
         <v>209</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="D210" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="E210" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="F210" s="1">
         <v>7</v>
       </c>
-      <c r="G210" s="1">
-        <v>1</v>
+      <c r="G210" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
@@ -8234,22 +8240,22 @@
         <v>210</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="D211" t="s">
-        <v>197</v>
+        <v>992</v>
       </c>
       <c r="E211" t="s">
-        <v>196</v>
+        <v>993</v>
       </c>
       <c r="F211" s="1">
         <v>7</v>
       </c>
-      <c r="G211" s="1">
-        <v>1</v>
+      <c r="G211" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
@@ -8257,22 +8263,22 @@
         <v>211</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="D212" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="E212" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="F212" s="1">
         <v>7</v>
       </c>
-      <c r="G212" s="1">
-        <v>1</v>
+      <c r="G212" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
@@ -8280,22 +8286,22 @@
         <v>212</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="D213" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="E213" t="s">
-        <v>188</v>
+        <v>994</v>
       </c>
       <c r="F213" s="1">
         <v>7</v>
       </c>
-      <c r="G213" s="1">
-        <v>1</v>
+      <c r="G213" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
@@ -8303,22 +8309,22 @@
         <v>213</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="D214" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="E214" t="s">
-        <v>184</v>
+        <v>995</v>
       </c>
       <c r="F214" s="1">
         <v>7</v>
       </c>
-      <c r="G214" s="1">
-        <v>1</v>
+      <c r="G214" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
@@ -8326,22 +8332,22 @@
         <v>214</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="D215" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="E215" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="F215" s="1">
         <v>7</v>
       </c>
-      <c r="G215" s="1">
-        <v>1</v>
+      <c r="G215" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
@@ -8349,22 +8355,22 @@
         <v>215</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="D216" t="s">
-        <v>179</v>
+        <v>996</v>
       </c>
       <c r="E216" t="s">
-        <v>179</v>
+        <v>996</v>
       </c>
       <c r="F216" s="1">
         <v>7</v>
       </c>
-      <c r="G216" s="1">
-        <v>1</v>
+      <c r="G216" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
@@ -8372,22 +8378,22 @@
         <v>216</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="D217" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="E217" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="F217" s="1">
         <v>7</v>
       </c>
-      <c r="G217" s="1">
-        <v>1</v>
+      <c r="G217" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
@@ -8395,22 +8401,22 @@
         <v>217</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="D218" t="s">
-        <v>173</v>
+        <v>997</v>
       </c>
       <c r="E218" t="s">
-        <v>173</v>
+        <v>997</v>
       </c>
       <c r="F218" s="1">
         <v>7</v>
       </c>
-      <c r="G218" s="1">
-        <v>1</v>
+      <c r="G218" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
@@ -8418,22 +8424,22 @@
         <v>218</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="D219" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="E219" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="F219" s="1">
         <v>7</v>
       </c>
-      <c r="G219" s="1">
-        <v>1</v>
+      <c r="G219" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
@@ -8441,22 +8447,22 @@
         <v>219</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="D220" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="E220" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="F220" s="1">
         <v>7</v>
       </c>
-      <c r="G220" s="1">
-        <v>1</v>
+      <c r="G220" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
@@ -8464,22 +8470,22 @@
         <v>220</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="D221" t="s">
-        <v>163</v>
+        <v>998</v>
       </c>
       <c r="E221" t="s">
-        <v>163</v>
+        <v>998</v>
       </c>
       <c r="F221" s="1">
         <v>7</v>
       </c>
-      <c r="G221" s="1">
-        <v>1</v>
+      <c r="G221" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
@@ -8487,22 +8493,22 @@
         <v>221</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D222" t="s">
-        <v>160</v>
+        <v>999</v>
       </c>
       <c r="E222" t="s">
-        <v>160</v>
+        <v>999</v>
       </c>
       <c r="F222" s="1">
         <v>7</v>
       </c>
-      <c r="G222" s="1">
-        <v>1</v>
+      <c r="G222" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
@@ -8510,22 +8516,22 @@
         <v>222</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D223" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="E223" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="F223" s="1">
         <v>7</v>
       </c>
-      <c r="G223" s="1">
-        <v>1</v>
+      <c r="G223" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
@@ -8533,22 +8539,22 @@
         <v>223</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D224" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="E224" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="F224" s="1">
         <v>7</v>
       </c>
-      <c r="G224" s="1">
-        <v>1</v>
+      <c r="G224" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
@@ -8556,22 +8562,22 @@
         <v>224</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D225" t="s">
-        <v>152</v>
+        <v>1000</v>
       </c>
       <c r="E225" t="s">
-        <v>152</v>
+        <v>1000</v>
       </c>
       <c r="F225" s="1">
         <v>7</v>
       </c>
-      <c r="G225" s="1">
-        <v>1</v>
+      <c r="G225" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
@@ -8579,22 +8585,22 @@
         <v>225</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D226" t="s">
-        <v>149</v>
+        <v>1001</v>
       </c>
       <c r="E226" t="s">
-        <v>148</v>
+        <v>1002</v>
       </c>
       <c r="F226" s="1">
         <v>7</v>
       </c>
-      <c r="G226" s="1">
-        <v>1</v>
+      <c r="G226" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
@@ -8602,22 +8608,22 @@
         <v>226</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D227" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E227" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F227" s="1">
         <v>7</v>
       </c>
-      <c r="G227" s="1">
-        <v>1</v>
+      <c r="G227" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
@@ -8625,22 +8631,22 @@
         <v>227</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D228" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E228" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F228" s="1">
         <v>7</v>
       </c>
-      <c r="G228" s="1">
-        <v>1</v>
+      <c r="G228" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
@@ -8648,22 +8654,22 @@
         <v>228</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D229" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E229" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F229" s="1">
         <v>7</v>
       </c>
-      <c r="G229" s="1">
-        <v>1</v>
+      <c r="G229" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
@@ -8671,22 +8677,22 @@
         <v>229</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D230" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E230" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F230" s="1">
         <v>7</v>
       </c>
-      <c r="G230" s="1">
-        <v>1</v>
+      <c r="G230" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
@@ -8694,22 +8700,22 @@
         <v>230</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D231" t="s">
-        <v>129</v>
+        <v>1003</v>
       </c>
       <c r="E231" t="s">
-        <v>128</v>
+        <v>1004</v>
       </c>
       <c r="F231" s="1">
         <v>7</v>
       </c>
-      <c r="G231" s="1">
-        <v>1</v>
+      <c r="G231" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
@@ -8731,8 +8737,8 @@
       <c r="F232" s="1">
         <v>7</v>
       </c>
-      <c r="G232" s="1">
-        <v>1</v>
+      <c r="G232" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
@@ -8754,8 +8760,8 @@
       <c r="F233" s="1">
         <v>7</v>
       </c>
-      <c r="G233" s="1">
-        <v>1</v>
+      <c r="G233" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
@@ -8771,8 +8777,8 @@
       <c r="F234" s="1">
         <v>5</v>
       </c>
-      <c r="G234" s="1">
-        <v>0</v>
+      <c r="G234" s="1" t="s">
+        <v>1006</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
@@ -8788,8 +8794,8 @@
       <c r="F235" s="1">
         <v>5</v>
       </c>
-      <c r="G235" s="1">
-        <v>0</v>
+      <c r="G235" s="1" t="s">
+        <v>1006</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
@@ -8805,8 +8811,8 @@
       <c r="F236" s="1">
         <v>5</v>
       </c>
-      <c r="G236" s="1">
-        <v>0</v>
+      <c r="G236" s="1" t="s">
+        <v>1006</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
@@ -8822,8 +8828,8 @@
       <c r="F237" s="1">
         <v>5</v>
       </c>
-      <c r="G237" s="1">
-        <v>0</v>
+      <c r="G237" s="1" t="s">
+        <v>1006</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
@@ -8839,8 +8845,8 @@
       <c r="F238" s="1">
         <v>5</v>
       </c>
-      <c r="G238" s="1">
-        <v>0</v>
+      <c r="G238" s="1" t="s">
+        <v>1006</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
@@ -8856,8 +8862,8 @@
       <c r="F239" s="1">
         <v>5</v>
       </c>
-      <c r="G239" s="1">
-        <v>0</v>
+      <c r="G239" s="1" t="s">
+        <v>1006</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
@@ -8873,8 +8879,8 @@
       <c r="F240" s="1">
         <v>5</v>
       </c>
-      <c r="G240" s="1">
-        <v>0</v>
+      <c r="G240" s="1" t="s">
+        <v>1006</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
@@ -8890,8 +8896,8 @@
       <c r="F241" s="1">
         <v>5</v>
       </c>
-      <c r="G241" s="1">
-        <v>0</v>
+      <c r="G241" s="1" t="s">
+        <v>1006</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
@@ -8907,8 +8913,8 @@
       <c r="F242" s="1">
         <v>5</v>
       </c>
-      <c r="G242" s="1">
-        <v>0</v>
+      <c r="G242" s="1" t="s">
+        <v>1006</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
@@ -8924,8 +8930,8 @@
       <c r="F243" s="1">
         <v>5</v>
       </c>
-      <c r="G243" s="1">
-        <v>0</v>
+      <c r="G243" s="1" t="s">
+        <v>1006</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
@@ -8941,8 +8947,8 @@
       <c r="F244" s="1">
         <v>5</v>
       </c>
-      <c r="G244" s="1">
-        <v>0</v>
+      <c r="G244" s="1" t="s">
+        <v>1006</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
@@ -8958,8 +8964,8 @@
       <c r="F245" s="1">
         <v>5</v>
       </c>
-      <c r="G245" s="1">
-        <v>0</v>
+      <c r="G245" s="1" t="s">
+        <v>1006</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
@@ -8975,8 +8981,8 @@
       <c r="F246" s="1">
         <v>5</v>
       </c>
-      <c r="G246" s="1">
-        <v>0</v>
+      <c r="G246" s="1" t="s">
+        <v>1006</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
@@ -8992,8 +8998,8 @@
       <c r="F247" s="1">
         <v>5</v>
       </c>
-      <c r="G247" s="1">
-        <v>0</v>
+      <c r="G247" s="1" t="s">
+        <v>1006</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
@@ -9009,8 +9015,8 @@
       <c r="F248" s="1">
         <v>5</v>
       </c>
-      <c r="G248" s="1">
-        <v>0</v>
+      <c r="G248" s="1" t="s">
+        <v>1006</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.25">
@@ -9026,8 +9032,8 @@
       <c r="F249" s="1">
         <v>5</v>
       </c>
-      <c r="G249" s="1">
-        <v>0</v>
+      <c r="G249" s="1" t="s">
+        <v>1006</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
@@ -9043,8 +9049,8 @@
       <c r="F250" s="1">
         <v>5</v>
       </c>
-      <c r="G250" s="1">
-        <v>0</v>
+      <c r="G250" s="1" t="s">
+        <v>1006</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.25">
@@ -9060,8 +9066,8 @@
       <c r="F251" s="1">
         <v>5</v>
       </c>
-      <c r="G251" s="1">
-        <v>0</v>
+      <c r="G251" s="1" t="s">
+        <v>1006</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
@@ -9077,8 +9083,8 @@
       <c r="F252" s="1">
         <v>5</v>
       </c>
-      <c r="G252" s="1">
-        <v>0</v>
+      <c r="G252" s="1" t="s">
+        <v>1006</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
@@ -9094,8 +9100,8 @@
       <c r="F253" s="1">
         <v>5</v>
       </c>
-      <c r="G253" s="1">
-        <v>0</v>
+      <c r="G253" s="1" t="s">
+        <v>1006</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
@@ -9111,8 +9117,8 @@
       <c r="F254" s="1">
         <v>5</v>
       </c>
-      <c r="G254" s="1">
-        <v>0</v>
+      <c r="G254" s="1" t="s">
+        <v>1006</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
@@ -9128,8 +9134,8 @@
       <c r="F255" s="1">
         <v>5</v>
       </c>
-      <c r="G255" s="1">
-        <v>0</v>
+      <c r="G255" s="1" t="s">
+        <v>1006</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
@@ -9145,8 +9151,8 @@
       <c r="F256" s="1">
         <v>5</v>
       </c>
-      <c r="G256" s="1">
-        <v>0</v>
+      <c r="G256" s="1" t="s">
+        <v>1006</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.25">
@@ -9162,8 +9168,8 @@
       <c r="F257" s="1">
         <v>5</v>
       </c>
-      <c r="G257" s="1">
-        <v>0</v>
+      <c r="G257" s="1" t="s">
+        <v>1006</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
@@ -9179,8 +9185,8 @@
       <c r="F258" s="1">
         <v>5</v>
       </c>
-      <c r="G258" s="1">
-        <v>0</v>
+      <c r="G258" s="1" t="s">
+        <v>1006</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
@@ -9196,8 +9202,8 @@
       <c r="F259" s="1">
         <v>5</v>
       </c>
-      <c r="G259" s="1">
-        <v>0</v>
+      <c r="G259" s="1" t="s">
+        <v>1006</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.25">
@@ -9213,8 +9219,8 @@
       <c r="F260" s="1">
         <v>5</v>
       </c>
-      <c r="G260" s="1">
-        <v>0</v>
+      <c r="G260" s="1" t="s">
+        <v>1006</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
@@ -9230,8 +9236,8 @@
       <c r="F261" s="1">
         <v>5</v>
       </c>
-      <c r="G261" s="1">
-        <v>0</v>
+      <c r="G261" s="1" t="s">
+        <v>1006</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.25">
@@ -9247,8 +9253,8 @@
       <c r="F262" s="1">
         <v>5</v>
       </c>
-      <c r="G262" s="1">
-        <v>0</v>
+      <c r="G262" s="1" t="s">
+        <v>1006</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.25">
@@ -9264,8 +9270,8 @@
       <c r="F263" s="1">
         <v>5</v>
       </c>
-      <c r="G263" s="1">
-        <v>0</v>
+      <c r="G263" s="1" t="s">
+        <v>1006</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.25">
@@ -9281,8 +9287,8 @@
       <c r="F264" s="1">
         <v>5</v>
       </c>
-      <c r="G264" s="1">
-        <v>0</v>
+      <c r="G264" s="1" t="s">
+        <v>1006</v>
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.25">
@@ -9298,8 +9304,8 @@
       <c r="F265" s="1">
         <v>5</v>
       </c>
-      <c r="G265" s="1">
-        <v>0</v>
+      <c r="G265" s="1" t="s">
+        <v>1006</v>
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.25">
@@ -9315,8 +9321,8 @@
       <c r="F266" s="1">
         <v>5</v>
       </c>
-      <c r="G266" s="1">
-        <v>0</v>
+      <c r="G266" s="1" t="s">
+        <v>1006</v>
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.25">
@@ -9332,8 +9338,8 @@
       <c r="F267" s="1">
         <v>5</v>
       </c>
-      <c r="G267" s="1">
-        <v>0</v>
+      <c r="G267" s="1" t="s">
+        <v>1006</v>
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.25">
@@ -9349,8 +9355,8 @@
       <c r="F268" s="1">
         <v>5</v>
       </c>
-      <c r="G268" s="1">
-        <v>0</v>
+      <c r="G268" s="1" t="s">
+        <v>1006</v>
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.25">
@@ -9366,8 +9372,8 @@
       <c r="F269" s="1">
         <v>5</v>
       </c>
-      <c r="G269" s="1">
-        <v>0</v>
+      <c r="G269" s="1" t="s">
+        <v>1006</v>
       </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.25">
@@ -9383,8 +9389,8 @@
       <c r="F270" s="1">
         <v>5</v>
       </c>
-      <c r="G270" s="1">
-        <v>0</v>
+      <c r="G270" s="1" t="s">
+        <v>1006</v>
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.25">
@@ -9400,8 +9406,8 @@
       <c r="F271" s="1">
         <v>5</v>
       </c>
-      <c r="G271" s="1">
-        <v>0</v>
+      <c r="G271" s="1" t="s">
+        <v>1006</v>
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.25">
@@ -9417,8 +9423,8 @@
       <c r="F272" s="1">
         <v>5</v>
       </c>
-      <c r="G272" s="1">
-        <v>0</v>
+      <c r="G272" s="1" t="s">
+        <v>1006</v>
       </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.25">
@@ -9434,8 +9440,8 @@
       <c r="F273" s="1">
         <v>5</v>
       </c>
-      <c r="G273" s="1">
-        <v>0</v>
+      <c r="G273" s="1" t="s">
+        <v>1006</v>
       </c>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.25">
@@ -9451,8 +9457,8 @@
       <c r="F274" s="1">
         <v>5</v>
       </c>
-      <c r="G274" s="1">
-        <v>0</v>
+      <c r="G274" s="1" t="s">
+        <v>1006</v>
       </c>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.25">
@@ -9468,8 +9474,8 @@
       <c r="F275" s="1">
         <v>5</v>
       </c>
-      <c r="G275" s="1">
-        <v>0</v>
+      <c r="G275" s="1" t="s">
+        <v>1006</v>
       </c>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.25">
@@ -9485,8 +9491,8 @@
       <c r="F276" s="1">
         <v>5</v>
       </c>
-      <c r="G276" s="1">
-        <v>0</v>
+      <c r="G276" s="1" t="s">
+        <v>1006</v>
       </c>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.25">
@@ -9502,8 +9508,8 @@
       <c r="F277" s="1">
         <v>5</v>
       </c>
-      <c r="G277" s="1">
-        <v>0</v>
+      <c r="G277" s="1" t="s">
+        <v>1006</v>
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.25">
@@ -9519,8 +9525,8 @@
       <c r="F278" s="1">
         <v>5</v>
       </c>
-      <c r="G278" s="1">
-        <v>0</v>
+      <c r="G278" s="1" t="s">
+        <v>1006</v>
       </c>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.25">
@@ -9536,8 +9542,8 @@
       <c r="F279" s="1">
         <v>5</v>
       </c>
-      <c r="G279" s="1">
-        <v>0</v>
+      <c r="G279" s="1" t="s">
+        <v>1006</v>
       </c>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.25">
@@ -9553,8 +9559,8 @@
       <c r="F280" s="1">
         <v>5</v>
       </c>
-      <c r="G280" s="1">
-        <v>0</v>
+      <c r="G280" s="1" t="s">
+        <v>1006</v>
       </c>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.25">
@@ -9570,8 +9576,8 @@
       <c r="F281" s="1">
         <v>5</v>
       </c>
-      <c r="G281" s="1">
-        <v>0</v>
+      <c r="G281" s="1" t="s">
+        <v>1006</v>
       </c>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.25">
@@ -9587,8 +9593,8 @@
       <c r="F282" s="1">
         <v>5</v>
       </c>
-      <c r="G282" s="1">
-        <v>0</v>
+      <c r="G282" s="1" t="s">
+        <v>1006</v>
       </c>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.25">
@@ -9604,8 +9610,8 @@
       <c r="F283" s="1">
         <v>5</v>
       </c>
-      <c r="G283" s="1">
-        <v>0</v>
+      <c r="G283" s="1" t="s">
+        <v>1006</v>
       </c>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.25">
@@ -9621,8 +9627,8 @@
       <c r="F284" s="1">
         <v>5</v>
       </c>
-      <c r="G284" s="1">
-        <v>0</v>
+      <c r="G284" s="1" t="s">
+        <v>1006</v>
       </c>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.25">
@@ -9638,8 +9644,8 @@
       <c r="F285" s="1">
         <v>5</v>
       </c>
-      <c r="G285" s="1">
-        <v>0</v>
+      <c r="G285" s="1" t="s">
+        <v>1006</v>
       </c>
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.25">
@@ -9655,8 +9661,8 @@
       <c r="F286" s="1">
         <v>5</v>
       </c>
-      <c r="G286" s="1">
-        <v>0</v>
+      <c r="G286" s="1" t="s">
+        <v>1006</v>
       </c>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.25">
@@ -9672,8 +9678,8 @@
       <c r="F287" s="1">
         <v>5</v>
       </c>
-      <c r="G287" s="1">
-        <v>0</v>
+      <c r="G287" s="1" t="s">
+        <v>1006</v>
       </c>
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.25">
@@ -9689,8 +9695,8 @@
       <c r="F288" s="1">
         <v>5</v>
       </c>
-      <c r="G288" s="1">
-        <v>0</v>
+      <c r="G288" s="1" t="s">
+        <v>1006</v>
       </c>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.25">
@@ -9706,8 +9712,8 @@
       <c r="F289" s="1">
         <v>5</v>
       </c>
-      <c r="G289" s="1">
-        <v>0</v>
+      <c r="G289" s="1" t="s">
+        <v>1006</v>
       </c>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.25">
@@ -9723,8 +9729,8 @@
       <c r="F290" s="1">
         <v>5</v>
       </c>
-      <c r="G290" s="1">
-        <v>0</v>
+      <c r="G290" s="1" t="s">
+        <v>1006</v>
       </c>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.25">
@@ -9740,8 +9746,8 @@
       <c r="F291" s="1">
         <v>5</v>
       </c>
-      <c r="G291" s="1">
-        <v>0</v>
+      <c r="G291" s="1" t="s">
+        <v>1006</v>
       </c>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.25">
@@ -9757,8 +9763,8 @@
       <c r="F292" s="1">
         <v>5</v>
       </c>
-      <c r="G292" s="1">
-        <v>0</v>
+      <c r="G292" s="1" t="s">
+        <v>1006</v>
       </c>
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.25">
@@ -9774,8 +9780,8 @@
       <c r="F293" s="1">
         <v>5</v>
       </c>
-      <c r="G293" s="1">
-        <v>0</v>
+      <c r="G293" s="1" t="s">
+        <v>1006</v>
       </c>
     </row>
   </sheetData>
